--- a/WebAppData.xlsx
+++ b/WebAppData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-mexico\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15BE394-B3C0-484B-93C3-70A2C9451CFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="465" windowWidth="19425" windowHeight="11025"/>
+    <workbookView xWindow="2490" yWindow="1020" windowWidth="24765" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="10" r:id="rId1"/>
@@ -18,17 +24,27 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PolicyLevers!$A$1:$U$326</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jeffrey Rissman</author>
   </authors>
   <commentList>
-    <comment ref="K140" authorId="0">
+    <comment ref="K140" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -52,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K142" authorId="0">
+    <comment ref="K142" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -81,11 +97,11 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="OuputGraphSchema" type="4" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="OuputGraphSchema" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="Z:\todd\Projects\PolicySolutions\tools\lib\OuputGraphSchema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="2" name="PolicyLeverSchema" type="4" refreshedVersion="0" background="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="PolicyLeverSchema" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="Z:\todd\Projects\PolicySolutions\tools\lib\PolicyLeverSchema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -4048,7 +4064,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -5023,28 +5039,28 @@
     </xf>
   </cellXfs>
   <cellStyles count="22">
-    <cellStyle name="2x indented GHG Textfiels" xfId="10"/>
-    <cellStyle name="5x indented GHG Textfiels" xfId="11"/>
-    <cellStyle name="AggCels" xfId="12"/>
-    <cellStyle name="AggGreen_bld" xfId="15"/>
-    <cellStyle name="Body: normal cell 2" xfId="5"/>
-    <cellStyle name="Comma 2" xfId="21"/>
-    <cellStyle name="Comma 6" xfId="6"/>
-    <cellStyle name="Constants" xfId="8"/>
-    <cellStyle name="CustomizationCells" xfId="17"/>
-    <cellStyle name="Empty_B_border" xfId="16"/>
-    <cellStyle name="Header: bottom row 2" xfId="4"/>
-    <cellStyle name="Headline" xfId="7"/>
+    <cellStyle name="2x indented GHG Textfiels" xfId="10" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="5x indented GHG Textfiels" xfId="11" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="AggCels" xfId="12" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="AggGreen_bld" xfId="15" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Body: normal cell 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Comma 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Comma 6" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Constants" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="CustomizationCells" xfId="17" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Empty_B_border" xfId="16" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Header: bottom row 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Headline" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 3" xfId="18"/>
-    <cellStyle name="Normal 4" xfId="19"/>
-    <cellStyle name="Normal GHG Textfiels Bold" xfId="9"/>
-    <cellStyle name="Normal GHG-Shade" xfId="14"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 3" xfId="18" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 4" xfId="19" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal GHG Textfiels Bold" xfId="9" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal GHG-Shade" xfId="14" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="20"/>
-    <cellStyle name="Обычный_CRF2002 (1)" xfId="13"/>
+    <cellStyle name="Percent 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Обычный_CRF2002 (1)" xfId="13" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -5250,7 +5266,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5311,7 +5327,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5372,7 +5388,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5433,7 +5449,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5748,7 +5764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5824,12 +5840,12 @@
     <row r="24" spans="1:1">
       <c r="A24" s="10">
         <f>MAX(PolicyLevers!H:H)</f>
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1"/>
+    <hyperlink ref="A10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -5837,12 +5853,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U333"/>
   <sheetViews>
-    <sheetView topLeftCell="A200" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B206" sqref="B206:J207"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -12799,7 +12813,9 @@
         <v>562</v>
       </c>
       <c r="G120" s="56"/>
-      <c r="H120" s="57"/>
+      <c r="H120" s="57">
+        <v>206</v>
+      </c>
       <c r="I120" s="56" t="s">
         <v>54</v>
       </c>
@@ -24221,7 +24237,7 @@
       <c r="I333" s="53"/>
     </row>
   </sheetData>
-  <sortState ref="A119:I139">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A119:I139">
     <sortCondition ref="B119:B139"/>
   </sortState>
   <conditionalFormatting sqref="I1 I21:I33 I35:I39 I43 I51 I57 I63 I279:I309 I311 I313:I332 I334:I1048576 I66:I205 I208:I277">
@@ -24310,7 +24326,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="T212" r:id="rId1" display="https://www.fas.org/sgp/crs/misc/R40562.pdf, p.3, paragraph 1"/>
+    <hyperlink ref="T212" r:id="rId1" display="https://www.fas.org/sgp/crs/misc/R40562.pdf, p.3, paragraph 1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -24322,7 +24338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26273,7 +26289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -26324,7 +26340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -27050,9 +27066,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1"/>
-    <hyperlink ref="A63" r:id="rId2"/>
-    <hyperlink ref="A69" r:id="rId3"/>
+    <hyperlink ref="A9" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="A63" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="A69" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -27060,7 +27076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AM197"/>
   <sheetViews>
     <sheetView topLeftCell="A153" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
@@ -28527,7 +28543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S100"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/WebAppData.xlsx
+++ b/WebAppData.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-mexico\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Mexico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15BE394-B3C0-484B-93C3-70A2C9451CFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044654DF-4D7F-452B-81D5-D393F827D0B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="1020" windowWidth="24765" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6105" yWindow="1275" windowWidth="22545" windowHeight="15165" firstSheet="1" activeTab="2" xr2:uid="{7F8E5A4A-C51A-49F4-869D-101A5B79EC05}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="10" r:id="rId1"/>
     <sheet name="PolicyLevers" sheetId="1" r:id="rId2"/>
     <sheet name="OutputGraphs" sheetId="8" r:id="rId3"/>
     <sheet name="ReferenceScenarios" sheetId="9" r:id="rId4"/>
-    <sheet name="Targets" sheetId="17" r:id="rId5"/>
+    <sheet name="Target Calculations" sheetId="17" r:id="rId5"/>
     <sheet name="MaxBoundCalculations" sheetId="13" r:id="rId6"/>
     <sheet name="MexicoCalculations" sheetId="16" r:id="rId7"/>
   </sheets>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="1253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3001" uniqueCount="1270">
   <si>
     <t>Short Name</t>
   </si>
@@ -1961,9 +1961,6 @@
     <t>Fraction of Avoided Deforestation Achieved</t>
   </si>
   <si>
-    <t>contribution</t>
-  </si>
-  <si>
     <t>cost curve</t>
   </si>
   <si>
@@ -4059,6 +4056,60 @@
   </si>
   <si>
     <t>Output Change in Cash Flow for Specific Industries[biomass and biofuel suppliers]; Output Change in Cash Flow for Specific Industries[petroleum and natural gas suppliers]; Output Change in Cash Flow for Specific Industries[coal and mineral suppliers]; Output Change in Cash Flow for Specific Industries[electricity suppliers]; Output Change in Cash Flow for Specific Industries[capital equipment suppliers]; Output Change in Consumer Cash Flow; Output Change in Industry Cash Flow; Output Change in Government Cash Flow</t>
+  </si>
+  <si>
+    <t>Scenario_BAU.cin</t>
+  </si>
+  <si>
+    <t>Include?</t>
+  </si>
+  <si>
+    <t>Target 1 Title</t>
+  </si>
+  <si>
+    <t>Target 1 Year</t>
+  </si>
+  <si>
+    <t>Target 1 Min Value</t>
+  </si>
+  <si>
+    <t>Target 1 Max Value</t>
+  </si>
+  <si>
+    <t>Target 1 Description</t>
+  </si>
+  <si>
+    <t>Target 2 Title</t>
+  </si>
+  <si>
+    <t>Target 2 Year</t>
+  </si>
+  <si>
+    <t>Target 2 Min Value</t>
+  </si>
+  <si>
+    <t>Target 2 Max Value</t>
+  </si>
+  <si>
+    <t>Target 2 Description</t>
+  </si>
+  <si>
+    <t>Target 3 Title</t>
+  </si>
+  <si>
+    <t>Target 3 Year</t>
+  </si>
+  <si>
+    <t>Target 3 Min Value</t>
+  </si>
+  <si>
+    <t>Target 3 Max Value</t>
+  </si>
+  <si>
+    <t>Target 3 Description</t>
+  </si>
+  <si>
+    <t>reduction wedge</t>
   </si>
 </sst>
 </file>
@@ -4701,7 +4752,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5022,9 +5073,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -5034,9 +5082,22 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="2x indented GHG Textfiels" xfId="10" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -5062,7 +5123,47 @@
     <cellStyle name="Percent 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
     <cellStyle name="Обычный_CRF2002 (1)" xfId="13" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5767,7 +5868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
@@ -5834,7 +5935,7 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -5856,7 +5957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U333"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -5904,7 +6005,7 @@
         <v>98</v>
       </c>
       <c r="H1" s="55" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I1" s="54" t="s">
         <v>82</v>
@@ -5913,7 +6014,7 @@
         <v>449</v>
       </c>
       <c r="K1" s="54" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="L1" s="54" t="s">
         <v>83</v>
@@ -5931,7 +6032,7 @@
         <v>2</v>
       </c>
       <c r="Q1" s="54" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="R1" s="54" t="s">
         <v>240</v>
@@ -5943,7 +6044,7 @@
         <v>186</v>
       </c>
       <c r="U1" s="52" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="3" customFormat="1" ht="75">
@@ -5951,10 +6052,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1142</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1143</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>48</v>
@@ -5969,10 +6070,10 @@
         <v>54</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>1144</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>1145</v>
       </c>
       <c r="L2" s="126">
         <v>0</v>
@@ -5984,16 +6085,16 @@
         <v>0.02</v>
       </c>
       <c r="O2" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="P2" s="56" t="s">
         <v>1146</v>
       </c>
-      <c r="P2" s="56" t="s">
+      <c r="Q2" s="77" t="s">
         <v>1147</v>
       </c>
-      <c r="Q2" s="77" t="s">
+      <c r="R2" s="127" t="s">
         <v>1148</v>
-      </c>
-      <c r="R2" s="127" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="3" customFormat="1" ht="75">
@@ -6046,7 +6147,7 @@
         <v>% reduction in emissions</v>
       </c>
       <c r="P3" s="56" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="Q3" s="5" t="str">
         <f t="shared" si="1"/>
@@ -6107,7 +6208,7 @@
         <v>% reduction in emissions</v>
       </c>
       <c r="P4" s="56" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="Q4" s="5" t="str">
         <f t="shared" si="1"/>
@@ -6168,7 +6269,7 @@
         <v>% reduction in emissions</v>
       </c>
       <c r="P5" s="56" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="Q5" s="5" t="str">
         <f t="shared" si="1"/>
@@ -6229,7 +6330,7 @@
         <v>% reduction in emissions</v>
       </c>
       <c r="P6" s="56" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="Q6" s="5" t="str">
         <f t="shared" si="1"/>
@@ -6290,7 +6391,7 @@
         <v>% reduction in emissions</v>
       </c>
       <c r="P7" s="56" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="Q7" s="5" t="str">
         <f t="shared" si="1"/>
@@ -6306,10 +6407,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>593</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>594</v>
       </c>
       <c r="D8" s="56"/>
       <c r="E8" s="56"/>
@@ -6322,10 +6423,10 @@
         <v>54</v>
       </c>
       <c r="J8" s="79" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="K8" s="80" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="L8" s="91">
         <v>0</v>
@@ -6340,13 +6441,13 @@
         <v>36</v>
       </c>
       <c r="P8" s="56" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="Q8" s="77" t="s">
+        <v>595</v>
+      </c>
+      <c r="R8" s="77" t="s">
         <v>596</v>
-      </c>
-      <c r="R8" s="77" t="s">
-        <v>597</v>
       </c>
       <c r="S8" s="87"/>
       <c r="T8" s="11"/>
@@ -6357,10 +6458,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>598</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>599</v>
       </c>
       <c r="D9" s="56" t="s">
         <v>56</v>
@@ -6381,10 +6482,10 @@
         <v>54</v>
       </c>
       <c r="J9" s="79" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K9" s="80" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="L9" s="65">
         <v>0</v>
@@ -6396,19 +6497,19 @@
         <v>0.02</v>
       </c>
       <c r="O9" s="56" t="s">
+        <v>600</v>
+      </c>
+      <c r="P9" s="56" t="s">
+        <v>1001</v>
+      </c>
+      <c r="Q9" s="77" t="s">
         <v>601</v>
       </c>
-      <c r="P9" s="56" t="s">
-        <v>1002</v>
-      </c>
-      <c r="Q9" s="77" t="s">
+      <c r="R9" s="77" t="s">
         <v>602</v>
       </c>
-      <c r="R9" s="77" t="s">
+      <c r="S9" s="87" t="s">
         <v>603</v>
-      </c>
-      <c r="S9" s="87" t="s">
-        <v>604</v>
       </c>
       <c r="T9" s="11"/>
       <c r="U9" s="109"/>
@@ -6469,7 +6570,7 @@
         <v>% of new vehicles sold</v>
       </c>
       <c r="P10" s="56" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="Q10" s="64" t="str">
         <f t="shared" si="5"/>
@@ -6539,7 +6640,7 @@
         <v>% of new vehicles sold</v>
       </c>
       <c r="P11" s="56" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="Q11" s="64" t="str">
         <f t="shared" si="5"/>
@@ -6550,7 +6651,7 @@
         <v>ev-mandate.html</v>
       </c>
       <c r="S11" s="87" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="T11" s="11"/>
       <c r="U11" s="109"/>
@@ -6611,7 +6712,7 @@
         <v>% of new vehicles sold</v>
       </c>
       <c r="P12" s="56" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="Q12" s="64" t="str">
         <f t="shared" si="5"/>
@@ -6969,7 +7070,7 @@
         <v>% of new vehicles sold</v>
       </c>
       <c r="P19" s="56" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="Q19" s="64" t="str">
         <f t="shared" ref="Q19:R19" si="10">Q$9</f>
@@ -7036,10 +7137,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D21" s="56" t="s">
         <v>56</v>
@@ -7060,10 +7161,10 @@
         <v>54</v>
       </c>
       <c r="J21" s="79" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K21" s="80" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="L21" s="65">
         <v>0</v>
@@ -7075,19 +7176,19 @@
         <v>0.01</v>
       </c>
       <c r="O21" s="77" t="s">
+        <v>587</v>
+      </c>
+      <c r="P21" s="56" t="s">
+        <v>1059</v>
+      </c>
+      <c r="Q21" s="77" t="s">
         <v>588</v>
       </c>
-      <c r="P21" s="56" t="s">
-        <v>1060</v>
-      </c>
-      <c r="Q21" s="77" t="s">
+      <c r="R21" s="77" t="s">
         <v>589</v>
       </c>
-      <c r="R21" s="77" t="s">
+      <c r="S21" s="87" t="s">
         <v>590</v>
-      </c>
-      <c r="S21" s="87" t="s">
-        <v>591</v>
       </c>
       <c r="T21" s="11"/>
       <c r="U21" s="109"/>
@@ -7644,7 +7745,7 @@
         <v>11</v>
       </c>
       <c r="K33" s="80" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="L33" s="62">
         <v>0</v>
@@ -7656,10 +7757,10 @@
         <v>0.02</v>
       </c>
       <c r="O33" s="56" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="P33" s="56" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="Q33" s="56" t="s">
         <v>241</v>
@@ -7686,13 +7787,13 @@
         <v>373</v>
       </c>
       <c r="D34" s="56" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E34" s="56" t="s">
         <v>48</v>
       </c>
       <c r="F34" s="56" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G34" s="56" t="s">
         <v>48</v>
@@ -7705,7 +7806,7 @@
         <v>450</v>
       </c>
       <c r="K34" s="80" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -7713,7 +7814,7 @@
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
       <c r="U34" s="111" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="45">
@@ -7730,7 +7831,7 @@
         <v>Percentage Additional Improvement of Fuel Economy Std</v>
       </c>
       <c r="D35" s="56" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E35" s="56" t="s">
         <v>48</v>
@@ -7778,13 +7879,13 @@
         <v>Percentage Additional Improvement of Fuel Economy Std</v>
       </c>
       <c r="D36" s="56" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E36" s="56" t="s">
         <v>48</v>
       </c>
       <c r="F36" s="56" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G36" s="56" t="s">
         <v>48</v>
@@ -7817,7 +7918,7 @@
         <v>131</v>
       </c>
       <c r="P36" s="56" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="Q36" s="56" t="s">
         <v>243</v>
@@ -7847,13 +7948,13 @@
         <v>Percentage Additional Improvement of Fuel Economy Std</v>
       </c>
       <c r="D37" s="56" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E37" s="56" t="s">
         <v>48</v>
       </c>
       <c r="F37" s="56" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G37" s="56" t="s">
         <v>48</v>
@@ -7886,7 +7987,7 @@
         <v>131</v>
       </c>
       <c r="P37" s="56" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="Q37" s="56" t="s">
         <v>243</v>
@@ -7916,13 +8017,13 @@
         <v>Percentage Additional Improvement of Fuel Economy Std</v>
       </c>
       <c r="D38" s="56" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E38" s="56" t="s">
         <v>48</v>
       </c>
       <c r="F38" s="56" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G38" s="56" t="s">
         <v>48</v>
@@ -7964,13 +8065,13 @@
         <v>Percentage Additional Improvement of Fuel Economy Std</v>
       </c>
       <c r="D39" s="56" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E39" s="56" t="s">
         <v>48</v>
       </c>
       <c r="F39" s="56" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G39" s="56" t="s">
         <v>48</v>
@@ -8012,13 +8113,13 @@
         <v>Percentage Additional Improvement of Fuel Economy Std</v>
       </c>
       <c r="D40" s="56" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E40" s="56" t="s">
         <v>49</v>
       </c>
       <c r="F40" s="56" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G40" s="56" t="s">
         <v>49</v>
@@ -8056,7 +8157,7 @@
         <v>Percentage Additional Improvement of Fuel Economy Std</v>
       </c>
       <c r="D41" s="56" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E41" s="56" t="s">
         <v>49</v>
@@ -8104,13 +8205,13 @@
         <v>Percentage Additional Improvement of Fuel Economy Std</v>
       </c>
       <c r="D42" s="56" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E42" s="56" t="s">
         <v>49</v>
       </c>
       <c r="F42" s="56" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G42" s="56" t="s">
         <v>49</v>
@@ -8152,13 +8253,13 @@
         <v>Percentage Additional Improvement of Fuel Economy Std</v>
       </c>
       <c r="D43" s="56" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E43" s="56" t="s">
         <v>49</v>
       </c>
       <c r="F43" s="56" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G43" s="56" t="s">
         <v>49</v>
@@ -8194,7 +8295,7 @@
         <v>% increase in miles/gal</v>
       </c>
       <c r="P43" s="56" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="Q43" s="58" t="str">
         <f>Q$36</f>
@@ -8226,13 +8327,13 @@
         <v>Percentage Additional Improvement of Fuel Economy Std</v>
       </c>
       <c r="D44" s="56" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E44" s="56" t="s">
         <v>49</v>
       </c>
       <c r="F44" s="56" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G44" s="56" t="s">
         <v>49</v>
@@ -8274,13 +8375,13 @@
         <v>Percentage Additional Improvement of Fuel Economy Std</v>
       </c>
       <c r="D45" s="56" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E45" s="56" t="s">
         <v>49</v>
       </c>
       <c r="F45" s="56" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G45" s="56" t="s">
         <v>49</v>
@@ -8322,13 +8423,13 @@
         <v>Percentage Additional Improvement of Fuel Economy Std</v>
       </c>
       <c r="D46" s="56" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E46" s="56" t="s">
         <v>50</v>
       </c>
       <c r="F46" s="56" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G46" s="56" t="s">
         <v>101</v>
@@ -8366,7 +8467,7 @@
         <v>Percentage Additional Improvement of Fuel Economy Std</v>
       </c>
       <c r="D47" s="56" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E47" s="56" t="s">
         <v>50</v>
@@ -8414,13 +8515,13 @@
         <v>Percentage Additional Improvement of Fuel Economy Std</v>
       </c>
       <c r="D48" s="56" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E48" s="56" t="s">
         <v>50</v>
       </c>
       <c r="F48" s="56" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G48" s="56" t="s">
         <v>101</v>
@@ -8462,13 +8563,13 @@
         <v>Percentage Additional Improvement of Fuel Economy Std</v>
       </c>
       <c r="D49" s="56" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E49" s="56" t="s">
         <v>50</v>
       </c>
       <c r="F49" s="56" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G49" s="56" t="s">
         <v>101</v>
@@ -8510,13 +8611,13 @@
         <v>Percentage Additional Improvement of Fuel Economy Std</v>
       </c>
       <c r="D50" s="56" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E50" s="56" t="s">
         <v>50</v>
       </c>
       <c r="F50" s="56" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G50" s="56" t="s">
         <v>101</v>
@@ -8558,13 +8659,13 @@
         <v>Percentage Additional Improvement of Fuel Economy Std</v>
       </c>
       <c r="D51" s="56" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E51" s="56" t="s">
         <v>50</v>
       </c>
       <c r="F51" s="56" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G51" s="56" t="s">
         <v>101</v>
@@ -8600,7 +8701,7 @@
         <v>% increase in miles/gal</v>
       </c>
       <c r="P51" s="56" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="Q51" s="58" t="str">
         <f>Q$36</f>
@@ -8632,13 +8733,13 @@
         <v>Percentage Additional Improvement of Fuel Economy Std</v>
       </c>
       <c r="D52" s="56" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E52" s="56" t="s">
         <v>51</v>
       </c>
       <c r="F52" s="56" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G52" s="56" t="s">
         <v>102</v>
@@ -8676,7 +8777,7 @@
         <v>Percentage Additional Improvement of Fuel Economy Std</v>
       </c>
       <c r="D53" s="56" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E53" s="56" t="s">
         <v>51</v>
@@ -8724,13 +8825,13 @@
         <v>Percentage Additional Improvement of Fuel Economy Std</v>
       </c>
       <c r="D54" s="56" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E54" s="56" t="s">
         <v>51</v>
       </c>
       <c r="F54" s="56" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G54" s="56" t="s">
         <v>102</v>
@@ -8772,13 +8873,13 @@
         <v>Percentage Additional Improvement of Fuel Economy Std</v>
       </c>
       <c r="D55" s="56" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E55" s="56" t="s">
         <v>51</v>
       </c>
       <c r="F55" s="56" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G55" s="56" t="s">
         <v>102</v>
@@ -8820,13 +8921,13 @@
         <v>Percentage Additional Improvement of Fuel Economy Std</v>
       </c>
       <c r="D56" s="56" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E56" s="56" t="s">
         <v>51</v>
       </c>
       <c r="F56" s="56" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G56" s="56" t="s">
         <v>102</v>
@@ -8868,13 +8969,13 @@
         <v>Percentage Additional Improvement of Fuel Economy Std</v>
       </c>
       <c r="D57" s="56" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E57" s="56" t="s">
         <v>51</v>
       </c>
       <c r="F57" s="56" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G57" s="56" t="s">
         <v>102</v>
@@ -8910,7 +9011,7 @@
         <v>% increase in miles/gal</v>
       </c>
       <c r="P57" s="56" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="Q57" s="58" t="str">
         <f>Q$36</f>
@@ -8942,13 +9043,13 @@
         <v>Percentage Additional Improvement of Fuel Economy Std</v>
       </c>
       <c r="D58" s="56" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E58" s="56" t="s">
         <v>52</v>
       </c>
       <c r="F58" s="56" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G58" s="56" t="s">
         <v>103</v>
@@ -8986,7 +9087,7 @@
         <v>Percentage Additional Improvement of Fuel Economy Std</v>
       </c>
       <c r="D59" s="56" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E59" s="56" t="s">
         <v>52</v>
@@ -9034,13 +9135,13 @@
         <v>Percentage Additional Improvement of Fuel Economy Std</v>
       </c>
       <c r="D60" s="56" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E60" s="56" t="s">
         <v>52</v>
       </c>
       <c r="F60" s="56" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G60" s="56" t="s">
         <v>103</v>
@@ -9082,13 +9183,13 @@
         <v>Percentage Additional Improvement of Fuel Economy Std</v>
       </c>
       <c r="D61" s="56" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E61" s="56" t="s">
         <v>52</v>
       </c>
       <c r="F61" s="56" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G61" s="56" t="s">
         <v>103</v>
@@ -9130,13 +9231,13 @@
         <v>Percentage Additional Improvement of Fuel Economy Std</v>
       </c>
       <c r="D62" s="56" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E62" s="56" t="s">
         <v>52</v>
       </c>
       <c r="F62" s="56" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G62" s="56" t="s">
         <v>103</v>
@@ -9178,13 +9279,13 @@
         <v>Percentage Additional Improvement of Fuel Economy Std</v>
       </c>
       <c r="D63" s="56" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E63" s="56" t="s">
         <v>52</v>
       </c>
       <c r="F63" s="56" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G63" s="56" t="s">
         <v>103</v>
@@ -9220,7 +9321,7 @@
         <v>% increase in miles/gal</v>
       </c>
       <c r="P63" s="56" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="Q63" s="58" t="str">
         <f>Q$36</f>
@@ -9252,13 +9353,13 @@
         <v>Percentage Additional Improvement of Fuel Economy Std</v>
       </c>
       <c r="D64" s="56" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E64" s="56" t="s">
         <v>132</v>
       </c>
       <c r="F64" s="56" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G64" s="56" t="s">
         <v>184</v>
@@ -9296,7 +9397,7 @@
         <v>Percentage Additional Improvement of Fuel Economy Std</v>
       </c>
       <c r="D65" s="56" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E65" s="56" t="s">
         <v>132</v>
@@ -9344,13 +9445,13 @@
         <v>Percentage Additional Improvement of Fuel Economy Std</v>
       </c>
       <c r="D66" s="56" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E66" s="56" t="s">
         <v>132</v>
       </c>
       <c r="F66" s="56" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G66" s="56" t="s">
         <v>184</v>
@@ -9386,7 +9487,7 @@
         <v>% increase in miles/gal</v>
       </c>
       <c r="P66" s="56" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Q66" s="58" t="str">
         <f>Q$36</f>
@@ -9418,13 +9519,13 @@
         <v>Percentage Additional Improvement of Fuel Economy Std</v>
       </c>
       <c r="D67" s="56" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E67" s="56" t="s">
         <v>132</v>
       </c>
       <c r="F67" s="56" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G67" s="56" t="s">
         <v>184</v>
@@ -9466,13 +9567,13 @@
         <v>Percentage Additional Improvement of Fuel Economy Std</v>
       </c>
       <c r="D68" s="56" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E68" s="56" t="s">
         <v>132</v>
       </c>
       <c r="F68" s="56" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G68" s="56" t="s">
         <v>184</v>
@@ -9514,13 +9615,13 @@
         <v>Percentage Additional Improvement of Fuel Economy Std</v>
       </c>
       <c r="D69" s="56" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E69" s="56" t="s">
         <v>132</v>
       </c>
       <c r="F69" s="56" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G69" s="56" t="s">
         <v>184</v>
@@ -9553,10 +9654,10 @@
         <v>4</v>
       </c>
       <c r="B70" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="C70" s="11" t="s">
         <v>606</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>607</v>
       </c>
       <c r="D70" s="56"/>
       <c r="E70" s="56"/>
@@ -9569,10 +9670,10 @@
         <v>54</v>
       </c>
       <c r="J70" s="79" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K70" s="80" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L70" s="66">
         <v>0</v>
@@ -9584,19 +9685,19 @@
         <v>0.01</v>
       </c>
       <c r="O70" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="P70" s="56" t="s">
+        <v>1091</v>
+      </c>
+      <c r="Q70" s="56" t="s">
         <v>608</v>
       </c>
-      <c r="P70" s="56" t="s">
-        <v>1092</v>
-      </c>
-      <c r="Q70" s="56" t="s">
+      <c r="R70" s="11" t="s">
         <v>609</v>
       </c>
-      <c r="R70" s="11" t="s">
+      <c r="S70" s="90" t="s">
         <v>610</v>
-      </c>
-      <c r="S70" s="90" t="s">
-        <v>611</v>
       </c>
       <c r="T70" s="11"/>
       <c r="U70" s="109"/>
@@ -9616,7 +9717,7 @@
       </c>
       <c r="E71" s="56"/>
       <c r="F71" s="56" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G71" s="56"/>
       <c r="H71" s="57">
@@ -9629,7 +9730,7 @@
         <v>12</v>
       </c>
       <c r="K71" s="80" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="L71" s="63">
         <v>0</v>
@@ -9644,7 +9745,7 @@
         <v>45</v>
       </c>
       <c r="P71" s="56" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="Q71" s="56" t="s">
         <v>245</v>
@@ -9653,7 +9754,7 @@
         <v>246</v>
       </c>
       <c r="S71" s="85" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="T71" s="56"/>
       <c r="U71" s="111"/>
@@ -9710,7 +9811,7 @@
         <v>% of TDM package implemented</v>
       </c>
       <c r="P72" s="56" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="Q72" s="61" t="str">
         <f t="shared" si="19"/>
@@ -9755,7 +9856,7 @@
         <v>16</v>
       </c>
       <c r="K73" s="80" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="L73" s="62">
         <v>0</v>
@@ -9770,7 +9871,7 @@
         <v>133</v>
       </c>
       <c r="P73" s="56" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="Q73" s="56" t="s">
         <v>247</v>
@@ -9834,7 +9935,7 @@
         <v>% of newly sold non-electric building components</v>
       </c>
       <c r="P74" s="56" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="Q74" s="61" t="str">
         <f t="shared" si="22"/>
@@ -9900,7 +10001,7 @@
         <v>% of newly sold non-electric building components</v>
       </c>
       <c r="P75" s="56" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="Q75" s="61" t="str">
         <f t="shared" si="22"/>
@@ -9946,7 +10047,7 @@
         <v>118</v>
       </c>
       <c r="K76" s="80" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="L76" s="62">
         <v>0</v>
@@ -9962,7 +10063,7 @@
         <v>39</v>
       </c>
       <c r="P76" s="56" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="Q76" s="56" t="s">
         <v>249</v>
@@ -10034,7 +10135,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P77" s="56" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="Q77" s="58" t="str">
         <f t="shared" si="26"/>
@@ -10114,7 +10215,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P78" s="56" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="Q78" s="58" t="str">
         <f t="shared" si="26"/>
@@ -10194,7 +10295,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P79" s="56" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="Q79" s="58" t="str">
         <f t="shared" si="26"/>
@@ -10274,7 +10375,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P80" s="56" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="Q80" s="58" t="str">
         <f t="shared" si="26"/>
@@ -10354,7 +10455,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P81" s="56" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="Q81" s="58" t="str">
         <f t="shared" si="26"/>
@@ -10434,7 +10535,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P82" s="56" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="Q82" s="58" t="str">
         <f t="shared" si="26"/>
@@ -10514,7 +10615,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P83" s="56" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="Q83" s="58" t="str">
         <f t="shared" si="26"/>
@@ -10594,7 +10695,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P84" s="56" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="Q84" s="58" t="str">
         <f t="shared" si="26"/>
@@ -10674,7 +10775,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P85" s="56" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="Q85" s="58" t="str">
         <f t="shared" si="26"/>
@@ -10754,7 +10855,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P86" s="56" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="Q86" s="58" t="str">
         <f t="shared" si="26"/>
@@ -10834,7 +10935,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P87" s="56" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="Q87" s="58" t="str">
         <f t="shared" si="26"/>
@@ -10914,7 +11015,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P88" s="56" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="Q88" s="58" t="str">
         <f t="shared" si="26"/>
@@ -10994,7 +11095,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P89" s="56" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="Q89" s="58" t="str">
         <f t="shared" si="26"/>
@@ -11074,7 +11175,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P90" s="56" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="Q90" s="58" t="str">
         <f t="shared" si="26"/>
@@ -11154,7 +11255,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P91" s="56" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="Q91" s="58" t="str">
         <f t="shared" si="26"/>
@@ -11234,7 +11335,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P92" s="56" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="Q92" s="58" t="str">
         <f t="shared" si="26"/>
@@ -11314,7 +11415,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P93" s="56" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="Q93" s="58" t="str">
         <f t="shared" ref="Q93:S93" si="32">Q$76</f>
@@ -11362,7 +11463,7 @@
         <v>15</v>
       </c>
       <c r="K94" s="80" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="L94" s="68">
         <v>0</v>
@@ -11377,7 +11478,7 @@
         <v>36</v>
       </c>
       <c r="P94" s="56" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="Q94" s="56" t="s">
         <v>251</v>
@@ -11415,7 +11516,7 @@
         <v>451</v>
       </c>
       <c r="K95" s="80" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="L95" s="68">
         <v>0</v>
@@ -11431,7 +11532,7 @@
         <v>327</v>
       </c>
       <c r="P95" s="56" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="Q95" s="56" t="s">
         <v>328</v>
@@ -11471,7 +11572,7 @@
         <v>451</v>
       </c>
       <c r="K96" s="80" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="L96" s="68">
         <v>0</v>
@@ -11486,7 +11587,7 @@
         <v>334</v>
       </c>
       <c r="P96" s="56" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="Q96" s="56" t="s">
         <v>331</v>
@@ -11524,7 +11625,7 @@
         <v>14</v>
       </c>
       <c r="K97" s="80" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="L97" s="68">
         <v>0</v>
@@ -11539,7 +11640,7 @@
         <v>36</v>
       </c>
       <c r="P97" s="56" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="Q97" s="56" t="s">
         <v>253</v>
@@ -11581,7 +11682,7 @@
         <v>17</v>
       </c>
       <c r="K98" s="80" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="L98" s="62">
         <v>0</v>
@@ -11597,7 +11698,7 @@
         <v>44</v>
       </c>
       <c r="P98" s="56" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q98" s="56" t="s">
         <v>255</v>
@@ -11665,7 +11766,7 @@
         <v>% of existing building components</v>
       </c>
       <c r="P99" s="56" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="Q99" s="56" t="s">
         <v>255</v>
@@ -11732,7 +11833,7 @@
         <v>% of existing building components</v>
       </c>
       <c r="P100" s="56" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="Q100" s="56" t="s">
         <v>255</v>
@@ -11799,7 +11900,7 @@
         <v>% of existing building components</v>
       </c>
       <c r="P101" s="56" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="Q101" s="56" t="s">
         <v>255</v>
@@ -11866,7 +11967,7 @@
         <v>% of existing building components</v>
       </c>
       <c r="P102" s="56" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="Q102" s="56" t="s">
         <v>255</v>
@@ -11933,7 +12034,7 @@
         <v>% of existing building components</v>
       </c>
       <c r="P103" s="56" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="Q103" s="56" t="s">
         <v>255</v>
@@ -11976,7 +12077,7 @@
         <v>13</v>
       </c>
       <c r="K104" s="80" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="L104" s="68">
         <v>0</v>
@@ -11991,7 +12092,7 @@
         <v>36</v>
       </c>
       <c r="P104" s="56" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="Q104" s="56" t="s">
         <v>257</v>
@@ -12057,7 +12158,7 @@
         <v>on/off</v>
       </c>
       <c r="P105" s="56" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="Q105" s="56" t="s">
         <v>257</v>
@@ -12215,7 +12316,7 @@
         <v>on/off</v>
       </c>
       <c r="P108" s="56" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="Q108" s="56" t="s">
         <v>257</v>
@@ -12286,11 +12387,11 @@
         <v>424</v>
       </c>
       <c r="D110" s="56" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E110" s="56"/>
       <c r="F110" s="56" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G110" s="11"/>
       <c r="H110" s="59">
@@ -12303,7 +12404,7 @@
         <v>423</v>
       </c>
       <c r="K110" s="80" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="L110" s="73">
         <v>0</v>
@@ -12318,7 +12419,7 @@
         <v>36</v>
       </c>
       <c r="P110" s="56" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="Q110" s="56" t="s">
         <v>425</v>
@@ -12382,7 +12483,7 @@
         <v>on/off</v>
       </c>
       <c r="P111" s="56" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="Q111" s="58" t="str">
         <f t="shared" si="41"/>
@@ -12448,7 +12549,7 @@
         <v>on/off</v>
       </c>
       <c r="P112" s="56" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="Q112" s="58" t="str">
         <f t="shared" si="41"/>
@@ -12514,7 +12615,7 @@
         <v>on/off</v>
       </c>
       <c r="P113" s="56" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="Q113" s="58" t="str">
         <f t="shared" si="41"/>
@@ -12542,11 +12643,11 @@
         <v>Boolean Ban New Power Plants</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E114" s="56"/>
       <c r="F114" s="11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G114" s="56"/>
       <c r="H114" s="57"/>
@@ -12806,11 +12907,11 @@
         <v>Boolean Ban New Power Plants</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E120" s="56"/>
       <c r="F120" s="11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G120" s="56"/>
       <c r="H120" s="57">
@@ -12844,7 +12945,7 @@
         <v>on/off</v>
       </c>
       <c r="P120" s="56" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="Q120" s="58" t="str">
         <f t="shared" ref="Q120:R120" si="44">Q$110</f>
@@ -12872,11 +12973,11 @@
         <v>Boolean Ban New Power Plants</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E121" s="56"/>
       <c r="F121" s="11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G121" s="56"/>
       <c r="H121" s="57"/>
@@ -12926,7 +13027,7 @@
         <v>452</v>
       </c>
       <c r="K122" s="80" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="L122" s="66">
         <v>-0.5</v>
@@ -12941,7 +13042,7 @@
         <v>339</v>
       </c>
       <c r="P122" s="56" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="Q122" s="56" t="s">
         <v>341</v>
@@ -12954,7 +13055,7 @@
       </c>
       <c r="T122" s="11"/>
       <c r="U122" s="109" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="123" spans="1:21" s="3" customFormat="1" ht="60">
@@ -12981,7 +13082,7 @@
         <v>452</v>
       </c>
       <c r="K123" s="80" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="L123" s="66">
         <v>-0.5</v>
@@ -12996,7 +13097,7 @@
         <v>340</v>
       </c>
       <c r="P123" s="56" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="Q123" s="56" t="s">
         <v>342</v>
@@ -13009,7 +13110,7 @@
       </c>
       <c r="T123" s="11"/>
       <c r="U123" s="109" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="124" spans="1:21" ht="45">
@@ -13036,7 +13137,7 @@
         <v>380</v>
       </c>
       <c r="K124" s="80" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="L124" s="68"/>
       <c r="M124" s="68"/>
@@ -13073,7 +13174,7 @@
         <v>19</v>
       </c>
       <c r="K125" s="80" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="L125" s="62">
         <v>0</v>
@@ -13088,7 +13189,7 @@
         <v>42</v>
       </c>
       <c r="P125" s="56" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="Q125" s="56" t="s">
         <v>259</v>
@@ -13113,11 +13214,11 @@
         <v>147</v>
       </c>
       <c r="D126" s="56" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E126" s="56"/>
       <c r="F126" s="56" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G126" s="56"/>
       <c r="H126" s="57">
@@ -13130,7 +13231,7 @@
         <v>148</v>
       </c>
       <c r="K126" s="80" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="L126" s="74">
         <v>0</v>
@@ -13145,7 +13246,7 @@
         <v>237</v>
       </c>
       <c r="P126" s="56" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="Q126" s="56" t="s">
         <v>261</v>
@@ -13160,7 +13261,7 @@
         <v>238</v>
       </c>
       <c r="U126" s="109" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="127" spans="1:21" ht="45">
@@ -13261,7 +13362,7 @@
         <v>MW/year</v>
       </c>
       <c r="P128" s="56" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="Q128" s="56" t="s">
         <v>261</v>
@@ -13274,7 +13375,7 @@
       </c>
       <c r="T128" s="56"/>
       <c r="U128" s="109" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="129" spans="1:21" ht="45">
@@ -13337,11 +13438,11 @@
         <v>Annual Additional Capacity Retired due to Early Retirement Policy</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E130" s="56"/>
       <c r="F130" s="11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G130" s="56"/>
       <c r="H130" s="57" t="s">
@@ -13609,11 +13710,11 @@
         <v>Annual Additional Capacity Retired due to Early Retirement Policy</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E136" s="56"/>
       <c r="F136" s="11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G136" s="56"/>
       <c r="H136" s="57"/>
@@ -13653,11 +13754,11 @@
         <v>Annual Additional Capacity Retired due to Early Retirement Policy</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E137" s="56"/>
       <c r="F137" s="11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G137" s="56"/>
       <c r="H137" s="57"/>
@@ -13707,7 +13808,7 @@
         <v>21</v>
       </c>
       <c r="K138" s="80" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="L138" s="62">
         <v>0</v>
@@ -13722,7 +13823,7 @@
         <v>37</v>
       </c>
       <c r="P138" s="56" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="Q138" s="56" t="s">
         <v>263</v>
@@ -13737,7 +13838,7 @@
         <v>192</v>
       </c>
       <c r="U138" s="111" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="139" spans="1:21" ht="75">
@@ -13764,7 +13865,7 @@
         <v>152</v>
       </c>
       <c r="K139" s="80" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="L139" s="62">
         <v>0</v>
@@ -13780,7 +13881,7 @@
         <v>153</v>
       </c>
       <c r="P139" s="56" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="Q139" s="56" t="s">
         <v>265</v>
@@ -13855,7 +13956,7 @@
         <v>465</v>
       </c>
       <c r="K141" s="80" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L141" s="68"/>
       <c r="M141" s="68"/>
@@ -13873,10 +13974,10 @@
         <v>8</v>
       </c>
       <c r="B142" s="56" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C142" s="56" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D142" s="11"/>
       <c r="E142" s="58"/>
@@ -13889,7 +13990,7 @@
         <v>54</v>
       </c>
       <c r="J142" s="80" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="K142" s="93"/>
       <c r="L142" s="62">
@@ -13905,13 +14006,13 @@
         <v>150</v>
       </c>
       <c r="P142" s="56" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="Q142" s="56" t="s">
         <v>267</v>
       </c>
       <c r="R142" s="11" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="S142" s="90" t="s">
         <v>194</v>
@@ -13932,7 +14033,7 @@
         <v>318</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E143" s="11" t="s">
         <v>319</v>
@@ -13947,7 +14048,7 @@
         <v>317</v>
       </c>
       <c r="K143" s="80" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L143" s="66"/>
       <c r="M143" s="66"/>
@@ -13974,7 +14075,7 @@
         <v>Percentage Reduction in Plant Downtime</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E144" s="11" t="s">
         <v>320</v>
@@ -14018,7 +14119,7 @@
         <v>Percentage Reduction in Plant Downtime</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E145" s="11" t="s">
         <v>321</v>
@@ -14100,10 +14201,10 @@
         <v>322</v>
       </c>
       <c r="P146" s="56" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Q146" s="11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="R146" s="11" t="s">
         <v>323</v>
@@ -14480,7 +14581,7 @@
         <v>Percentage Reduction in Plant Downtime</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E155" s="11" t="s">
         <v>319</v>
@@ -14524,7 +14625,7 @@
         <v>Percentage Reduction in Plant Downtime</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E156" s="11" t="s">
         <v>320</v>
@@ -14568,7 +14669,7 @@
         <v>Percentage Reduction in Plant Downtime</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E157" s="11" t="s">
         <v>321</v>
@@ -14577,7 +14678,7 @@
         <v>393</v>
       </c>
       <c r="G157" s="11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H157" s="59">
         <v>143</v>
@@ -14606,10 +14707,10 @@
         <v>322</v>
       </c>
       <c r="P157" s="56" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="Q157" s="11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="R157" s="11" t="s">
         <v>323</v>
@@ -14760,10 +14861,10 @@
         <v>322</v>
       </c>
       <c r="P160" s="56" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="Q160" s="11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="R160" s="11" t="s">
         <v>323</v>
@@ -15316,7 +15417,7 @@
         <v>Percentage Reduction in Plant Downtime</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E173" s="11" t="s">
         <v>319</v>
@@ -15360,7 +15461,7 @@
         <v>Percentage Reduction in Plant Downtime</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E174" s="11" t="s">
         <v>320</v>
@@ -15404,7 +15505,7 @@
         <v>Percentage Reduction in Plant Downtime</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E175" s="11" t="s">
         <v>321</v>
@@ -15448,7 +15549,7 @@
         <v>Percentage Reduction in Plant Downtime</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E176" s="11" t="s">
         <v>319</v>
@@ -15492,7 +15593,7 @@
         <v>Percentage Reduction in Plant Downtime</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E177" s="11" t="s">
         <v>320</v>
@@ -15536,7 +15637,7 @@
         <v>Percentage Reduction in Plant Downtime</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E178" s="11" t="s">
         <v>321</v>
@@ -15545,7 +15646,7 @@
         <v>393</v>
       </c>
       <c r="G178" s="11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H178" s="59">
         <v>182</v>
@@ -15574,10 +15675,10 @@
         <v>322</v>
       </c>
       <c r="P178" s="56" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="Q178" s="11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="R178" s="11" t="s">
         <v>323</v>
@@ -15593,17 +15694,17 @@
         <v>8</v>
       </c>
       <c r="B179" s="99" t="s">
+        <v>853</v>
+      </c>
+      <c r="C179" s="99" t="s">
         <v>854</v>
       </c>
-      <c r="C179" s="99" t="s">
-        <v>855</v>
-      </c>
       <c r="D179" s="11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E179" s="11"/>
       <c r="F179" s="11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G179" s="11"/>
       <c r="H179" s="59">
@@ -15613,10 +15714,10 @@
         <v>54</v>
       </c>
       <c r="J179" s="59" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="K179" s="79" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="L179" s="66">
         <v>0</v>
@@ -15628,16 +15729,16 @@
         <v>0.01</v>
       </c>
       <c r="O179" s="11" t="s">
+        <v>856</v>
+      </c>
+      <c r="P179" s="11" t="s">
         <v>857</v>
       </c>
-      <c r="P179" s="11" t="s">
-        <v>858</v>
-      </c>
       <c r="Q179" s="11" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="R179" s="11" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="S179" s="90"/>
       <c r="T179" s="11"/>
@@ -15695,7 +15796,7 @@
         <v>% reduction in soft costs</v>
       </c>
       <c r="P180" s="11" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="Q180" s="60" t="str">
         <f t="shared" si="52"/>
@@ -15723,11 +15824,11 @@
         <v>Percent Reduction in Soft Costs of Capacity Construction</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E181" s="11"/>
       <c r="F181" s="11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G181" s="11"/>
       <c r="H181" s="59">
@@ -15761,7 +15862,7 @@
         <v>% reduction in soft costs</v>
       </c>
       <c r="P181" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="Q181" s="60" t="str">
         <f t="shared" si="52"/>
@@ -15799,7 +15900,7 @@
         <v>453</v>
       </c>
       <c r="K182" s="80" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="L182" s="66">
         <v>0</v>
@@ -15814,20 +15915,20 @@
         <v>315</v>
       </c>
       <c r="P182" s="56" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="Q182" s="11" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R182" s="11" t="s">
         <v>316</v>
       </c>
       <c r="S182" s="90" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="T182" s="11"/>
       <c r="U182" s="109" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="183" spans="1:21" s="5" customFormat="1" ht="90">
@@ -15854,7 +15955,7 @@
         <v>18</v>
       </c>
       <c r="K183" s="80" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="L183" s="62">
         <v>0</v>
@@ -15870,7 +15971,7 @@
         <v>43</v>
       </c>
       <c r="P183" s="56" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="Q183" s="56" t="s">
         <v>268</v>
@@ -15895,11 +15996,11 @@
         <v>151</v>
       </c>
       <c r="D184" s="56" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E184" s="56"/>
       <c r="F184" s="11" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G184" s="56"/>
       <c r="H184" s="57" t="s">
@@ -15912,7 +16013,7 @@
         <v>20</v>
       </c>
       <c r="K184" s="80" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="L184" s="68"/>
       <c r="M184" s="68"/>
@@ -16019,7 +16120,7 @@
         <v>179</v>
       </c>
       <c r="P186" s="56" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="Q186" s="56" t="s">
         <v>270</v>
@@ -16081,7 +16182,7 @@
         <v>179</v>
       </c>
       <c r="P187" s="56" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="Q187" s="56" t="s">
         <v>270</v>
@@ -16107,11 +16208,11 @@
         <v>Subsidy for Elec Production by Fuel</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E188" s="58"/>
       <c r="F188" s="11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G188" s="58"/>
       <c r="H188" s="57">
@@ -16145,7 +16246,7 @@
         <v>$/MWh</v>
       </c>
       <c r="P188" s="56" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="Q188" s="56" t="s">
         <v>270</v>
@@ -16212,7 +16313,7 @@
         <v>$/MWh</v>
       </c>
       <c r="P189" s="56" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="Q189" s="56" t="s">
         <v>270</v>
@@ -16279,7 +16380,7 @@
         <v>$/MWh</v>
       </c>
       <c r="P190" s="56" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="Q190" s="56" t="s">
         <v>270</v>
@@ -16346,7 +16447,7 @@
         <v>$/MWh</v>
       </c>
       <c r="P191" s="56" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="Q191" s="56" t="s">
         <v>270</v>
@@ -16375,11 +16476,11 @@
         <v>Subsidy for Elec Production by Fuel</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E192" s="58"/>
       <c r="F192" s="11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G192" s="58"/>
       <c r="H192" s="57"/>
@@ -16419,11 +16520,11 @@
         <v>Subsidy for Elec Production by Fuel</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E193" s="58"/>
       <c r="F193" s="11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G193" s="58"/>
       <c r="H193" s="57">
@@ -16457,7 +16558,7 @@
         <v>$/MWh</v>
       </c>
       <c r="P193" s="56" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Q193" s="56" t="s">
         <v>270</v>
@@ -16496,7 +16597,7 @@
         <v>24</v>
       </c>
       <c r="K194" s="80" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="L194" s="62">
         <v>0</v>
@@ -16511,7 +16612,7 @@
         <v>42</v>
       </c>
       <c r="P194" s="56" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="Q194" s="56" t="s">
         <v>272</v>
@@ -16549,7 +16650,7 @@
         <v>28</v>
       </c>
       <c r="K195" s="80" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="L195" s="62">
         <v>0</v>
@@ -16564,7 +16665,7 @@
         <v>42</v>
       </c>
       <c r="P195" s="56" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="Q195" s="56" t="s">
         <v>274</v>
@@ -16602,7 +16703,7 @@
         <v>26</v>
       </c>
       <c r="K196" s="80" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="L196" s="62">
         <v>0</v>
@@ -16617,7 +16718,7 @@
         <v>42</v>
       </c>
       <c r="P196" s="56" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="Q196" s="56" t="s">
         <v>276</v>
@@ -16659,7 +16760,7 @@
         <v>119</v>
       </c>
       <c r="K197" s="80" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L197" s="63">
         <v>0</v>
@@ -16675,7 +16776,7 @@
         <v>39</v>
       </c>
       <c r="P197" s="56" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="Q197" s="56" t="s">
         <v>278</v>
@@ -16684,10 +16785,10 @@
         <v>279</v>
       </c>
       <c r="S197" s="90" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="T197" s="11" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="U197" s="112"/>
     </row>
@@ -16743,7 +16844,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P198" s="56" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="Q198" s="56" t="s">
         <v>278</v>
@@ -16813,7 +16914,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P199" s="56" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="Q199" s="56" t="s">
         <v>278</v>
@@ -16883,7 +16984,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P200" s="56" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="Q200" s="56" t="s">
         <v>278</v>
@@ -16953,7 +17054,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P201" s="56" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="Q201" s="56" t="s">
         <v>278</v>
@@ -17023,7 +17124,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P202" s="56" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="Q202" s="56" t="s">
         <v>278</v>
@@ -17093,7 +17194,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P203" s="56" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="Q203" s="56" t="s">
         <v>278</v>
@@ -17163,7 +17264,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P204" s="56" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="Q204" s="56" t="s">
         <v>278</v>
@@ -17205,7 +17306,7 @@
         <v>27</v>
       </c>
       <c r="K205" s="80" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L205" s="62">
         <v>0</v>
@@ -17220,7 +17321,7 @@
         <v>42</v>
       </c>
       <c r="P205" s="56" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="Q205" s="56" t="s">
         <v>280</v>
@@ -17239,10 +17340,10 @@
         <v>9</v>
       </c>
       <c r="B206" s="56" t="s">
+        <v>567</v>
+      </c>
+      <c r="C206" s="56" t="s">
         <v>568</v>
-      </c>
-      <c r="C206" s="56" t="s">
-        <v>569</v>
       </c>
       <c r="D206" s="56"/>
       <c r="E206" s="56"/>
@@ -17258,7 +17359,7 @@
         <v>454</v>
       </c>
       <c r="K206" s="102" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="L206" s="62">
         <v>0</v>
@@ -17273,7 +17374,7 @@
         <v>38</v>
       </c>
       <c r="P206" s="56" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="Q206" s="56" t="s">
         <v>282</v>
@@ -17310,7 +17411,7 @@
         <v>454</v>
       </c>
       <c r="K207" s="102" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="L207" s="62">
         <v>0</v>
@@ -17325,7 +17426,7 @@
         <v>399</v>
       </c>
       <c r="P207" s="56" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="Q207" s="56" t="s">
         <v>282</v>
@@ -17362,7 +17463,7 @@
         <v>455</v>
       </c>
       <c r="K208" s="80" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="L208" s="62">
         <v>0</v>
@@ -17377,7 +17478,7 @@
         <v>42</v>
       </c>
       <c r="P208" s="56" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="Q208" s="56" t="s">
         <v>284</v>
@@ -17415,7 +17516,7 @@
         <v>455</v>
       </c>
       <c r="K209" s="80" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="L209" s="62">
         <v>0</v>
@@ -17430,7 +17531,7 @@
         <v>42</v>
       </c>
       <c r="P209" s="56" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="Q209" s="56" t="s">
         <v>286</v>
@@ -17452,7 +17553,7 @@
         <v>446</v>
       </c>
       <c r="C210" s="56" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D210" s="56"/>
       <c r="E210" s="56"/>
@@ -17468,7 +17569,7 @@
         <v>446</v>
       </c>
       <c r="K210" s="80" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="L210" s="62">
         <v>0</v>
@@ -17483,13 +17584,13 @@
         <v>42</v>
       </c>
       <c r="P210" s="56" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="Q210" s="56" t="s">
+        <v>659</v>
+      </c>
+      <c r="R210" s="11" t="s">
         <v>660</v>
-      </c>
-      <c r="R210" s="11" t="s">
-        <v>661</v>
       </c>
       <c r="S210" s="84" t="s">
         <v>197</v>
@@ -17521,7 +17622,7 @@
         <v>23</v>
       </c>
       <c r="K211" s="80" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="L211" s="62">
         <v>0</v>
@@ -17536,7 +17637,7 @@
         <v>42</v>
       </c>
       <c r="P211" s="56" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="Q211" s="56" t="s">
         <v>288</v>
@@ -17574,7 +17675,7 @@
         <v>174</v>
       </c>
       <c r="K212" s="80" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="L212" s="62">
         <v>0</v>
@@ -17589,7 +17690,7 @@
         <v>42</v>
       </c>
       <c r="P212" s="56" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="Q212" s="56" t="s">
         <v>290</v>
@@ -17627,7 +17728,7 @@
         <v>324</v>
       </c>
       <c r="K213" s="80" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="L213" s="62"/>
       <c r="M213" s="63"/>
@@ -17668,7 +17769,7 @@
         <v>548</v>
       </c>
       <c r="K214" s="80" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L214" s="62"/>
       <c r="M214" s="63"/>
@@ -17705,7 +17806,7 @@
         <v>236</v>
       </c>
       <c r="K215" s="80" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L215" s="62">
         <v>0</v>
@@ -17720,7 +17821,7 @@
         <v>42</v>
       </c>
       <c r="P215" s="56" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="Q215" s="56" t="s">
         <v>292</v>
@@ -17758,7 +17859,7 @@
         <v>171</v>
       </c>
       <c r="K216" s="80" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L216" s="62">
         <v>0</v>
@@ -17773,7 +17874,7 @@
         <v>42</v>
       </c>
       <c r="P216" s="56" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="Q216" s="56" t="s">
         <v>294</v>
@@ -17811,7 +17912,7 @@
         <v>175</v>
       </c>
       <c r="K217" s="80" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L217" s="62">
         <v>0</v>
@@ -17826,7 +17927,7 @@
         <v>42</v>
       </c>
       <c r="P217" s="56" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="Q217" s="56" t="s">
         <v>296</v>
@@ -17864,7 +17965,7 @@
         <v>173</v>
       </c>
       <c r="K218" s="80" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L218" s="62">
         <v>0</v>
@@ -17879,7 +17980,7 @@
         <v>42</v>
       </c>
       <c r="P218" s="56" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="Q218" s="56" t="s">
         <v>298</v>
@@ -17917,7 +18018,7 @@
         <v>546</v>
       </c>
       <c r="K219" s="80" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L219" s="62"/>
       <c r="M219" s="63"/>
@@ -17954,7 +18055,7 @@
         <v>172</v>
       </c>
       <c r="K220" s="80" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L220" s="62">
         <v>0</v>
@@ -17969,7 +18070,7 @@
         <v>42</v>
       </c>
       <c r="P220" s="56" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="Q220" s="56" t="s">
         <v>300</v>
@@ -18007,7 +18108,7 @@
         <v>70</v>
       </c>
       <c r="K221" s="80" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L221" s="66">
         <v>0</v>
@@ -18022,7 +18123,7 @@
         <v>71</v>
       </c>
       <c r="P221" s="11" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="Q221" s="11" t="s">
         <v>306</v>
@@ -18041,10 +18142,10 @@
         <v>447</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C222" s="11" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D222" s="11"/>
       <c r="E222" s="11"/>
@@ -18060,7 +18161,7 @@
         <v>456</v>
       </c>
       <c r="K222" s="80" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L222" s="66">
         <v>0</v>
@@ -18075,7 +18176,7 @@
         <v>38</v>
       </c>
       <c r="P222" s="11" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="Q222" s="11" t="s">
         <v>448</v>
@@ -18113,7 +18214,7 @@
         <v>32</v>
       </c>
       <c r="K223" s="80" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L223" s="62">
         <v>0</v>
@@ -18128,7 +18229,7 @@
         <v>42</v>
       </c>
       <c r="P223" s="56" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="Q223" s="56" t="s">
         <v>302</v>
@@ -18170,7 +18271,7 @@
         <v>30</v>
       </c>
       <c r="K224" s="80" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L224" s="68">
         <v>0</v>
@@ -18185,7 +18286,7 @@
         <v>177</v>
       </c>
       <c r="P224" s="56" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q224" s="56" t="s">
         <v>304</v>
@@ -18253,7 +18354,7 @@
         <v>$/metric ton CO2e</v>
       </c>
       <c r="P225" s="56" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="Q225" s="58" t="str">
         <f t="shared" ref="Q225:R228" si="65">Q$224</f>
@@ -18319,7 +18420,7 @@
         <v>$/metric ton CO2e</v>
       </c>
       <c r="P226" s="56" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="Q226" s="58" t="str">
         <f t="shared" si="65"/>
@@ -18385,7 +18486,7 @@
         <v>$/metric ton CO2e</v>
       </c>
       <c r="P227" s="56" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="Q227" s="58" t="str">
         <f t="shared" si="65"/>
@@ -18451,7 +18552,7 @@
         <v>$/metric ton CO2e</v>
       </c>
       <c r="P228" s="56" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="Q228" s="58" t="str">
         <f t="shared" si="65"/>
@@ -18581,7 +18682,7 @@
         <v>31</v>
       </c>
       <c r="K231" s="80" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="L231" s="68"/>
       <c r="M231" s="68"/>
@@ -18608,11 +18709,11 @@
         <v>Percent Reduction in BAU Subsidies</v>
       </c>
       <c r="D232" s="11" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E232" s="56"/>
       <c r="F232" s="11" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G232" s="56"/>
       <c r="H232" s="57">
@@ -18642,7 +18743,7 @@
         <v>180</v>
       </c>
       <c r="P232" s="11" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="Q232" s="11" t="s">
         <v>308</v>
@@ -18708,7 +18809,7 @@
         <v>% reduction in BAU subsidies</v>
       </c>
       <c r="P233" s="11" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="Q233" s="11" t="s">
         <v>308</v>
@@ -18774,7 +18875,7 @@
         <v>% reduction in BAU subsidies</v>
       </c>
       <c r="P234" s="11" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="Q234" s="11" t="s">
         <v>308</v>
@@ -18852,7 +18953,7 @@
       </c>
       <c r="E236" s="56"/>
       <c r="F236" s="11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G236" s="56"/>
       <c r="H236" s="57">
@@ -18932,7 +19033,7 @@
         <v>% reduction in BAU subsidies</v>
       </c>
       <c r="P237" s="11" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="Q237" s="11" t="s">
         <v>308</v>
@@ -19044,7 +19145,7 @@
         <v>% reduction in BAU subsidies</v>
       </c>
       <c r="P239" s="11" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="Q239" s="11" t="s">
         <v>308</v>
@@ -19110,7 +19211,7 @@
         <v>% reduction in BAU subsidies</v>
       </c>
       <c r="P240" s="11" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="Q240" s="11" t="s">
         <v>308</v>
@@ -19364,11 +19465,11 @@
         <v>Percent Reduction in BAU Subsidies</v>
       </c>
       <c r="D246" s="11" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E246" s="56"/>
       <c r="F246" s="11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G246" s="56"/>
       <c r="H246" s="57"/>
@@ -19416,7 +19517,7 @@
         <v>183</v>
       </c>
       <c r="K247" s="80" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="L247" s="68"/>
       <c r="M247" s="68"/>
@@ -19457,7 +19558,7 @@
         <v>29</v>
       </c>
       <c r="K248" s="80" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="L248" s="62">
         <v>0</v>
@@ -19472,7 +19573,7 @@
         <v>181</v>
       </c>
       <c r="P248" s="56" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="Q248" s="11" t="s">
         <v>310</v>
@@ -19500,11 +19601,11 @@
         <v>Additional Fuel Tax Rate by Fuel</v>
       </c>
       <c r="D249" s="11" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E249" s="11"/>
       <c r="F249" s="11" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G249" s="58"/>
       <c r="H249" s="57">
@@ -19538,7 +19639,7 @@
         <v>% of BAU price</v>
       </c>
       <c r="P249" s="56" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="Q249" s="11" t="s">
         <v>310</v>
@@ -19605,7 +19706,7 @@
         <v>% of BAU price</v>
       </c>
       <c r="P250" s="56" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="Q250" s="11" t="s">
         <v>310</v>
@@ -19730,7 +19831,7 @@
       </c>
       <c r="E253" s="11"/>
       <c r="F253" s="11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G253" s="58"/>
       <c r="H253" s="57" t="s">
@@ -19902,7 +20003,7 @@
         <v>% of BAU price</v>
       </c>
       <c r="P256" s="56" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="Q256" s="11" t="s">
         <v>310</v>
@@ -19969,7 +20070,7 @@
         <v>% of BAU price</v>
       </c>
       <c r="P257" s="56" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="Q257" s="11" t="s">
         <v>310</v>
@@ -20180,11 +20281,11 @@
         <v>Additional Fuel Tax Rate by Fuel</v>
       </c>
       <c r="D262" s="11" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E262" s="11"/>
       <c r="F262" s="11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G262" s="58"/>
       <c r="H262" s="57"/>
@@ -20238,7 +20339,7 @@
         <v>457</v>
       </c>
       <c r="K263" s="80" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L263" s="63">
         <v>0</v>
@@ -20253,7 +20354,7 @@
         <v>40</v>
       </c>
       <c r="P263" s="56" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="Q263" s="56" t="s">
         <v>312</v>
@@ -20319,7 +20420,7 @@
         <v>% reduction in cost</v>
       </c>
       <c r="P264" s="56" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="Q264" s="56" t="s">
         <v>312</v>
@@ -20385,7 +20486,7 @@
         <v>% reduction in cost</v>
       </c>
       <c r="P265" s="56" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="Q265" s="56" t="s">
         <v>312</v>
@@ -20451,7 +20552,7 @@
         <v>% reduction in cost</v>
       </c>
       <c r="P266" s="56" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q266" s="56" t="s">
         <v>312</v>
@@ -20517,7 +20618,7 @@
         <v>% reduction in cost</v>
       </c>
       <c r="P267" s="56" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="Q267" s="56" t="s">
         <v>312</v>
@@ -20583,7 +20684,7 @@
         <v>% reduction in cost</v>
       </c>
       <c r="P268" s="56" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="Q268" s="56" t="s">
         <v>312</v>
@@ -20626,7 +20727,7 @@
         <v>R&amp;D Capital Cost Reductions</v>
       </c>
       <c r="K269" s="80" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="L269" s="63">
         <v>0</v>
@@ -20641,7 +20742,7 @@
         <v>40</v>
       </c>
       <c r="P269" s="11" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="Q269" s="56" t="s">
         <v>312</v>
@@ -20667,11 +20768,11 @@
         <v>365</v>
       </c>
       <c r="D270" s="56" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E270" s="56"/>
       <c r="F270" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G270" s="56"/>
       <c r="H270" s="57">
@@ -20685,7 +20786,7 @@
         <v>R&amp;D Capital Cost Reductions</v>
       </c>
       <c r="K270" s="80" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="L270" s="63">
         <v>0</v>
@@ -20700,7 +20801,7 @@
         <v>40</v>
       </c>
       <c r="P270" s="11" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="Q270" s="56" t="s">
         <v>312</v>
@@ -20732,7 +20833,7 @@
       </c>
       <c r="E271" s="58"/>
       <c r="F271" s="11" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G271" s="56"/>
       <c r="H271" s="57">
@@ -20766,7 +20867,7 @@
         <v>% reduction in cost</v>
       </c>
       <c r="P271" s="11" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="Q271" s="56" t="s">
         <v>312</v>
@@ -20832,7 +20933,7 @@
         <v>% reduction in cost</v>
       </c>
       <c r="P272" s="11" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="Q272" s="56" t="s">
         <v>312</v>
@@ -20898,7 +20999,7 @@
         <v>% reduction in cost</v>
       </c>
       <c r="P273" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="Q273" s="56" t="s">
         <v>312</v>
@@ -20926,11 +21027,11 @@
         <v>RnD Electricity Capital Cost Perc Reduction</v>
       </c>
       <c r="D274" s="11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E274" s="58"/>
       <c r="F274" s="11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G274" s="56"/>
       <c r="H274" s="57">
@@ -20964,7 +21065,7 @@
         <v>% reduction in cost</v>
       </c>
       <c r="P274" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="Q274" s="56" t="s">
         <v>312</v>
@@ -21030,7 +21131,7 @@
         <v>% reduction in cost</v>
       </c>
       <c r="P275" s="11" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="Q275" s="56" t="s">
         <v>312</v>
@@ -21096,7 +21197,7 @@
         <v>% reduction in cost</v>
       </c>
       <c r="P276" s="11" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Q276" s="56" t="s">
         <v>312</v>
@@ -21162,7 +21263,7 @@
         <v>% reduction in cost</v>
       </c>
       <c r="P277" s="11" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="Q277" s="56" t="s">
         <v>312</v>
@@ -21194,7 +21295,7 @@
       </c>
       <c r="E278" s="58"/>
       <c r="F278" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G278" s="56"/>
       <c r="H278" s="57">
@@ -21228,7 +21329,7 @@
         <v>% reduction in cost</v>
       </c>
       <c r="P278" s="11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="Q278" s="56" t="s">
         <v>312</v>
@@ -21256,11 +21357,11 @@
         <v>RnD Electricity Capital Cost Perc Reduction</v>
       </c>
       <c r="D279" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E279" s="58"/>
       <c r="F279" s="11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G279" s="56"/>
       <c r="H279" s="57">
@@ -21294,7 +21395,7 @@
         <v>% reduction in cost</v>
       </c>
       <c r="P279" s="11" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="Q279" s="56" t="s">
         <v>312</v>
@@ -21322,11 +21423,11 @@
         <v>RnD Electricity Capital Cost Perc Reduction</v>
       </c>
       <c r="D280" s="11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E280" s="58"/>
       <c r="F280" s="11" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G280" s="56"/>
       <c r="H280" s="57">
@@ -21360,7 +21461,7 @@
         <v>% reduction in cost</v>
       </c>
       <c r="P280" s="11" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="Q280" s="56" t="s">
         <v>312</v>
@@ -21404,7 +21505,7 @@
         <v>R&amp;D Capital Cost Reductions</v>
       </c>
       <c r="K281" s="80" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="L281" s="63">
         <v>0</v>
@@ -21419,7 +21520,7 @@
         <v>40</v>
       </c>
       <c r="P281" s="11" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="Q281" s="56" t="s">
         <v>312</v>
@@ -21485,7 +21586,7 @@
         <v>% reduction in cost</v>
       </c>
       <c r="P282" s="11" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="Q282" s="56" t="s">
         <v>312</v>
@@ -21551,7 +21652,7 @@
         <v>% reduction in cost</v>
       </c>
       <c r="P283" s="11" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="Q283" s="56" t="s">
         <v>312</v>
@@ -21617,7 +21718,7 @@
         <v>% reduction in cost</v>
       </c>
       <c r="P284" s="11" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="Q284" s="56" t="s">
         <v>312</v>
@@ -21683,7 +21784,7 @@
         <v>% reduction in cost</v>
       </c>
       <c r="P285" s="11" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="Q285" s="56" t="s">
         <v>312</v>
@@ -21749,7 +21850,7 @@
         <v>% reduction in cost</v>
       </c>
       <c r="P286" s="11" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="Q286" s="56" t="s">
         <v>312</v>
@@ -21815,7 +21916,7 @@
         <v>% reduction in cost</v>
       </c>
       <c r="P287" s="11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="Q287" s="56" t="s">
         <v>312</v>
@@ -21881,7 +21982,7 @@
         <v>% reduction in cost</v>
       </c>
       <c r="P288" s="11" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="Q288" s="56" t="s">
         <v>312</v>
@@ -21907,11 +22008,11 @@
         <v>367</v>
       </c>
       <c r="D289" s="56" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E289" s="56"/>
       <c r="F289" s="56" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G289" s="56"/>
       <c r="H289" s="57">
@@ -21925,7 +22026,7 @@
         <v>R&amp;D Capital Cost Reductions</v>
       </c>
       <c r="K289" s="80" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="L289" s="63">
         <v>0</v>
@@ -21940,7 +22041,7 @@
         <v>40</v>
       </c>
       <c r="P289" s="11" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="Q289" s="56" t="s">
         <v>312</v>
@@ -21968,11 +22069,11 @@
         <v>RnD Transportation Capital Cost Perc Reduction</v>
       </c>
       <c r="D290" s="56" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E290" s="56"/>
       <c r="F290" s="56" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G290" s="56"/>
       <c r="H290" s="57">
@@ -22006,7 +22107,7 @@
         <v>% reduction in cost</v>
       </c>
       <c r="P290" s="11" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="Q290" s="56" t="s">
         <v>312</v>
@@ -22034,11 +22135,11 @@
         <v>RnD Transportation Capital Cost Perc Reduction</v>
       </c>
       <c r="D291" s="56" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E291" s="56"/>
       <c r="F291" s="56" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G291" s="56"/>
       <c r="H291" s="57">
@@ -22072,7 +22173,7 @@
         <v>% reduction in cost</v>
       </c>
       <c r="P291" s="11" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="Q291" s="56" t="s">
         <v>312</v>
@@ -22100,11 +22201,11 @@
         <v>RnD Transportation Capital Cost Perc Reduction</v>
       </c>
       <c r="D292" s="56" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E292" s="56"/>
       <c r="F292" s="56" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G292" s="56"/>
       <c r="H292" s="57">
@@ -22138,7 +22239,7 @@
         <v>% reduction in cost</v>
       </c>
       <c r="P292" s="11" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="Q292" s="56" t="s">
         <v>312</v>
@@ -22166,11 +22267,11 @@
         <v>RnD Transportation Capital Cost Perc Reduction</v>
       </c>
       <c r="D293" s="56" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E293" s="56"/>
       <c r="F293" s="56" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G293" s="56"/>
       <c r="H293" s="57">
@@ -22204,7 +22305,7 @@
         <v>% reduction in cost</v>
       </c>
       <c r="P293" s="11" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="Q293" s="56" t="s">
         <v>312</v>
@@ -22232,11 +22333,11 @@
         <v>RnD Transportation Capital Cost Perc Reduction</v>
       </c>
       <c r="D294" s="56" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E294" s="56"/>
       <c r="F294" s="56" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G294" s="56"/>
       <c r="H294" s="57">
@@ -22270,7 +22371,7 @@
         <v>% reduction in cost</v>
       </c>
       <c r="P294" s="11" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="Q294" s="56" t="s">
         <v>312</v>
@@ -22312,7 +22413,7 @@
         <v>458</v>
       </c>
       <c r="K295" s="80" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="L295" s="63">
         <v>0</v>
@@ -22327,7 +22428,7 @@
         <v>41</v>
       </c>
       <c r="P295" s="56" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="Q295" s="56" t="s">
         <v>312</v>
@@ -22393,7 +22494,7 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="P296" s="56" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="Q296" s="56" t="s">
         <v>312</v>
@@ -22503,7 +22604,7 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="P298" s="56" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="Q298" s="56" t="s">
         <v>312</v>
@@ -22569,7 +22670,7 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="P299" s="56" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="Q299" s="56" t="s">
         <v>312</v>
@@ -22635,7 +22736,7 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="P300" s="56" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="Q300" s="56" t="s">
         <v>312</v>
@@ -22677,7 +22778,7 @@
         <v>R&amp;D Fuel Use Reductions</v>
       </c>
       <c r="K301" s="80" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="L301" s="63">
         <v>0</v>
@@ -22692,7 +22793,7 @@
         <v>41</v>
       </c>
       <c r="P301" s="56" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="Q301" s="56" t="s">
         <v>312</v>
@@ -22718,11 +22819,11 @@
         <v>370</v>
       </c>
       <c r="D302" s="56" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E302" s="56"/>
       <c r="F302" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G302" s="56"/>
       <c r="H302" s="57">
@@ -22736,7 +22837,7 @@
         <v>R&amp;D Fuel Use Reductions</v>
       </c>
       <c r="K302" s="80" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="L302" s="63">
         <v>0</v>
@@ -22751,7 +22852,7 @@
         <v>41</v>
       </c>
       <c r="P302" s="56" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="Q302" s="56" t="s">
         <v>312</v>
@@ -22783,7 +22884,7 @@
       </c>
       <c r="E303" s="58"/>
       <c r="F303" s="11" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G303" s="56"/>
       <c r="H303" s="57">
@@ -22817,7 +22918,7 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="P303" s="56" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="Q303" s="56" t="s">
         <v>312</v>
@@ -22883,7 +22984,7 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="P304" s="56" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="Q304" s="56" t="s">
         <v>312</v>
@@ -22957,11 +23058,11 @@
         <v>RnD Electricity Fuel Use Perc Reduction</v>
       </c>
       <c r="D306" s="11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E306" s="58"/>
       <c r="F306" s="11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G306" s="56"/>
       <c r="H306" s="57" t="s">
@@ -23133,7 +23234,7 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="P309" s="56" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="Q309" s="56" t="s">
         <v>312</v>
@@ -23165,7 +23266,7 @@
       </c>
       <c r="E310" s="58"/>
       <c r="F310" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G310" s="56"/>
       <c r="H310" s="57">
@@ -23199,7 +23300,7 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="P310" s="56" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="Q310" s="56" t="s">
         <v>312</v>
@@ -23227,11 +23328,11 @@
         <v>RnD Electricity Fuel Use Perc Reduction</v>
       </c>
       <c r="D311" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E311" s="58"/>
       <c r="F311" s="11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G311" s="56"/>
       <c r="H311" s="57">
@@ -23265,7 +23366,7 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="P311" s="56" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Q311" s="56" t="s">
         <v>312</v>
@@ -23293,11 +23394,11 @@
         <v>RnD Electricity Fuel Use Perc Reduction</v>
       </c>
       <c r="D312" s="11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E312" s="58"/>
       <c r="F312" s="11" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G312" s="56"/>
       <c r="H312" s="57"/>
@@ -23353,7 +23454,7 @@
         <v>R&amp;D Fuel Use Reductions</v>
       </c>
       <c r="K313" s="80" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="L313" s="63">
         <v>0</v>
@@ -23368,7 +23469,7 @@
         <v>41</v>
       </c>
       <c r="P313" s="56" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="Q313" s="56" t="s">
         <v>312</v>
@@ -23434,7 +23535,7 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="P314" s="56" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="Q314" s="56" t="s">
         <v>312</v>
@@ -23500,7 +23601,7 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="P315" s="56" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Q315" s="56" t="s">
         <v>312</v>
@@ -23566,7 +23667,7 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="P316" s="56" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="Q316" s="56" t="s">
         <v>312</v>
@@ -23632,7 +23733,7 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="P317" s="56" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="Q317" s="56" t="s">
         <v>312</v>
@@ -23698,7 +23799,7 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="P318" s="56" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="Q318" s="56" t="s">
         <v>312</v>
@@ -23764,7 +23865,7 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="P319" s="56" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="Q319" s="56" t="s">
         <v>312</v>
@@ -23830,7 +23931,7 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="P320" s="56" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="Q320" s="56" t="s">
         <v>312</v>
@@ -23856,11 +23957,11 @@
         <v>372</v>
       </c>
       <c r="D321" s="56" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E321" s="56"/>
       <c r="F321" s="56" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G321" s="56"/>
       <c r="H321" s="57">
@@ -23874,7 +23975,7 @@
         <v>R&amp;D Fuel Use Reductions</v>
       </c>
       <c r="K321" s="80" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="L321" s="63">
         <v>0</v>
@@ -23889,7 +23990,7 @@
         <v>41</v>
       </c>
       <c r="P321" s="56" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="Q321" s="56" t="s">
         <v>312</v>
@@ -23917,11 +24018,11 @@
         <v>RnD Transportation Fuel Use Perc Reduction</v>
       </c>
       <c r="D322" s="56" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E322" s="56"/>
       <c r="F322" s="56" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G322" s="56"/>
       <c r="H322" s="57">
@@ -23955,7 +24056,7 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="P322" s="56" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="Q322" s="56" t="s">
         <v>312</v>
@@ -23983,11 +24084,11 @@
         <v>RnD Transportation Fuel Use Perc Reduction</v>
       </c>
       <c r="D323" s="56" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E323" s="56"/>
       <c r="F323" s="56" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G323" s="56"/>
       <c r="H323" s="57">
@@ -24021,7 +24122,7 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="P323" s="56" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="Q323" s="56" t="s">
         <v>312</v>
@@ -24049,11 +24150,11 @@
         <v>RnD Transportation Fuel Use Perc Reduction</v>
       </c>
       <c r="D324" s="56" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E324" s="56"/>
       <c r="F324" s="56" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G324" s="56"/>
       <c r="H324" s="57">
@@ -24087,7 +24188,7 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="P324" s="56" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="Q324" s="56" t="s">
         <v>312</v>
@@ -24115,11 +24216,11 @@
         <v>RnD Transportation Fuel Use Perc Reduction</v>
       </c>
       <c r="D325" s="56" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E325" s="56"/>
       <c r="F325" s="56" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G325" s="56"/>
       <c r="H325" s="57">
@@ -24153,7 +24254,7 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="P325" s="56" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="Q325" s="56" t="s">
         <v>312</v>
@@ -24181,11 +24282,11 @@
         <v>RnD Transportation Fuel Use Perc Reduction</v>
       </c>
       <c r="D326" s="56" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E326" s="56"/>
       <c r="F326" s="56" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G326" s="56"/>
       <c r="H326" s="57">
@@ -24219,7 +24320,7 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="P326" s="56" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="Q326" s="56" t="s">
         <v>312</v>
@@ -24241,87 +24342,87 @@
     <sortCondition ref="B119:B139"/>
   </sortState>
   <conditionalFormatting sqref="I1 I21:I33 I35:I39 I43 I51 I57 I63 I279:I309 I311 I313:I332 I334:I1048576 I66:I205 I208:I277">
-    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="20" priority="18" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I312">
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I312)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11 I19 I8:I9">
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="18" priority="16" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I18">
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:I42">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:I50">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52:I56">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:I62">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I64:I65">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I278">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I310">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I310)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I7">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I206:I207">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I206)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24339,1950 +24440,2525 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:X155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.28515625" style="82" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="82" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="82" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="82" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" style="82" customWidth="1"/>
-    <col min="6" max="6" width="95" style="82" customWidth="1"/>
-    <col min="7" max="7" width="37.42578125" style="82" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" style="82" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="82"/>
+    <col min="2" max="3" width="27.42578125" style="82" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="82" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="82" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" style="82" customWidth="1"/>
+    <col min="7" max="7" width="95" style="82" customWidth="1"/>
+    <col min="8" max="8" width="37.42578125" style="82" customWidth="1"/>
+    <col min="9" max="9" width="34.28515625" style="82" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" style="4" customWidth="1"/>
+    <col min="12" max="13" width="16" style="4" customWidth="1"/>
+    <col min="14" max="14" width="37.42578125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="25.42578125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" style="4" customWidth="1"/>
+    <col min="17" max="18" width="16" style="4" customWidth="1"/>
+    <col min="19" max="19" width="37.42578125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="29" style="82" customWidth="1"/>
+    <col min="21" max="23" width="9.140625" style="82"/>
+    <col min="24" max="24" width="32.85546875" style="82" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="98" customFormat="1" ht="30">
+    <row r="1" spans="1:24" s="98" customFormat="1" ht="45">
       <c r="A1" s="95" t="s">
+        <v>824</v>
+      </c>
+      <c r="B1" s="96" t="s">
         <v>825</v>
       </c>
-      <c r="B1" s="96" t="s">
-        <v>826</v>
-      </c>
       <c r="C1" s="96" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D1" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="E1" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="96" t="s">
-        <v>558</v>
-      </c>
       <c r="F1" s="96" t="s">
+        <v>557</v>
+      </c>
+      <c r="G1" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="96" t="s">
-        <v>853</v>
-      </c>
-      <c r="H1" s="97" t="s">
+      <c r="H1" s="96" t="s">
+        <v>852</v>
+      </c>
+      <c r="I1" s="97" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="J1" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="150">
       <c r="A2" s="104" t="s">
+        <v>860</v>
+      </c>
+      <c r="B2" s="102" t="s">
         <v>861</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="C2" s="139">
+        <v>1</v>
+      </c>
+      <c r="D2" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="102" t="s">
+        <v>459</v>
+      </c>
+      <c r="G2" s="102" t="s">
+        <v>224</v>
+      </c>
+      <c r="J2" s="4" t="str">
+        <f>'Target Calculations'!A2</f>
+        <v>Unconditional NDC</v>
+      </c>
+      <c r="K2" s="4">
+        <f>'Target Calculations'!B2</f>
+        <v>2030</v>
+      </c>
+      <c r="L2" s="4">
+        <f>'Target Calculations'!C2</f>
+        <v>707.22600000000011</v>
+      </c>
+      <c r="M2" s="4">
+        <f>'Target Calculations'!D2</f>
+        <v>707.22600000000011</v>
+      </c>
+      <c r="N2" s="4" t="str">
+        <f>'Target Calculations'!E2</f>
+        <v>As part of the 2015 Paris Agreement on climate change, Mexico committed to an unconditional 22% reduction in greenhouse gas emissions relative to business-as-usual in 2030.</v>
+      </c>
+      <c r="O2" s="4" t="str">
+        <f>'Target Calculations'!A3</f>
+        <v>Conditional NDC</v>
+      </c>
+      <c r="P2" s="4">
+        <f>'Target Calculations'!B3</f>
+        <v>2030</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>'Target Calculations'!C3</f>
+        <v>580.28800000000001</v>
+      </c>
+      <c r="R2" s="4">
+        <f>'Target Calculations'!D3</f>
+        <v>580.28800000000001</v>
+      </c>
+      <c r="S2" s="4" t="str">
+        <f>'Target Calculations'!E3</f>
+        <v>As part of the 2015 Paris Agreement on climate change, Mexico committed to a 36% reduction in greenhouse gas emissions relative to business-as-usual in 2030, conditional on a global agreement that addresses, among other things, an international carbon price, carbon border adjustments, technical cooperation, access to low-cost financial resources, and technology transfer.</v>
+      </c>
+      <c r="T2" s="4" t="str">
+        <f>'Target Calculations'!A4</f>
+        <v>2050 target</v>
+      </c>
+      <c r="U2" s="4">
+        <f>'Target Calculations'!B4</f>
+        <v>2050</v>
+      </c>
+      <c r="V2" s="4">
+        <f>'Target Calculations'!C4</f>
+        <v>275.26039978737401</v>
+      </c>
+      <c r="W2" s="4">
+        <f>'Target Calculations'!D4</f>
+        <v>275.26039978737401</v>
+      </c>
+      <c r="X2" s="4" t="str">
+        <f>'Target Calculations'!E4</f>
+        <v>From the National Climate Change Strategy, Mexico commited to a 2050 GHG emissions target of 50% of total emissions in 2000.</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="104" t="s">
+        <v>860</v>
+      </c>
+      <c r="B3" s="102" t="s">
         <v>862</v>
       </c>
-      <c r="C2" s="102" t="s">
+      <c r="C3" s="139">
+        <v>1</v>
+      </c>
+      <c r="D3" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="102" t="s">
+      <c r="E3" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="102" t="s">
+      <c r="F3" s="103" t="s">
         <v>459</v>
       </c>
-      <c r="F2" s="102" t="s">
+      <c r="G3" s="102" t="s">
+        <v>821</v>
+      </c>
+      <c r="I3" s="102"/>
+    </row>
+    <row r="4" spans="1:24" ht="60">
+      <c r="A4" s="104" t="s">
+        <v>860</v>
+      </c>
+      <c r="B4" s="103" t="s">
+        <v>863</v>
+      </c>
+      <c r="C4" s="139">
+        <v>1</v>
+      </c>
+      <c r="D4" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="103" t="s">
+        <v>459</v>
+      </c>
+      <c r="G4" s="106" t="s">
+        <v>1154</v>
+      </c>
+      <c r="H4" s="106" t="s">
+        <v>1155</v>
+      </c>
+      <c r="I4" s="106" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="30">
+      <c r="A5" s="104" t="s">
+        <v>860</v>
+      </c>
+      <c r="B5" s="103" t="s">
+        <v>864</v>
+      </c>
+      <c r="C5" s="139">
+        <v>1</v>
+      </c>
+      <c r="D5" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="103" t="s">
+        <v>459</v>
+      </c>
+      <c r="G5" s="102" t="s">
+        <v>961</v>
+      </c>
+      <c r="H5" s="102" t="s">
+        <v>962</v>
+      </c>
+      <c r="I5" s="102" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="30">
+      <c r="A6" s="104" t="s">
+        <v>860</v>
+      </c>
+      <c r="B6" s="103" t="s">
+        <v>865</v>
+      </c>
+      <c r="C6" s="139">
+        <v>1</v>
+      </c>
+      <c r="D6" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="103" t="s">
+        <v>459</v>
+      </c>
+      <c r="G6" s="102" t="s">
+        <v>919</v>
+      </c>
+      <c r="H6" s="82" t="s">
+        <v>920</v>
+      </c>
+      <c r="I6" s="102" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="103" t="s">
+        <v>866</v>
+      </c>
+      <c r="B7" s="103" t="s">
+        <v>623</v>
+      </c>
+      <c r="C7" s="139">
+        <v>1</v>
+      </c>
+      <c r="D7" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="102" t="s">
+        <v>459</v>
+      </c>
+      <c r="G7" s="102" t="s">
+        <v>851</v>
+      </c>
+      <c r="I7" s="102"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="103" t="s">
+        <v>866</v>
+      </c>
+      <c r="B8" s="104" t="s">
+        <v>630</v>
+      </c>
+      <c r="C8" s="139">
+        <v>1</v>
+      </c>
+      <c r="D8" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="102" t="s">
+        <v>459</v>
+      </c>
+      <c r="G8" s="102" t="s">
+        <v>842</v>
+      </c>
+      <c r="I8" s="102"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="103" t="s">
+        <v>866</v>
+      </c>
+      <c r="B9" s="104" t="s">
+        <v>631</v>
+      </c>
+      <c r="C9" s="139">
+        <v>1</v>
+      </c>
+      <c r="D9" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="102" t="s">
+        <v>459</v>
+      </c>
+      <c r="G9" s="102" t="s">
+        <v>841</v>
+      </c>
+      <c r="I9" s="102"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="103" t="s">
+        <v>866</v>
+      </c>
+      <c r="B10" s="104" t="s">
+        <v>838</v>
+      </c>
+      <c r="C10" s="139">
+        <v>1</v>
+      </c>
+      <c r="D10" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="102" t="s">
+        <v>459</v>
+      </c>
+      <c r="G10" s="102" t="s">
+        <v>840</v>
+      </c>
+      <c r="I10" s="102"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="103" t="s">
+        <v>866</v>
+      </c>
+      <c r="B11" s="104" t="s">
+        <v>837</v>
+      </c>
+      <c r="C11" s="139">
+        <v>1</v>
+      </c>
+      <c r="D11" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="102" t="s">
+        <v>839</v>
+      </c>
+      <c r="G11" s="102" t="s">
+        <v>846</v>
+      </c>
+      <c r="I11" s="102"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="103" t="s">
+        <v>866</v>
+      </c>
+      <c r="B12" s="104" t="s">
+        <v>626</v>
+      </c>
+      <c r="C12" s="139">
+        <v>1</v>
+      </c>
+      <c r="D12" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="102" t="s">
+        <v>839</v>
+      </c>
+      <c r="G12" s="102" t="s">
+        <v>847</v>
+      </c>
+      <c r="I12" s="102"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="103" t="s">
+        <v>866</v>
+      </c>
+      <c r="B13" s="104" t="s">
+        <v>628</v>
+      </c>
+      <c r="C13" s="139">
+        <v>1</v>
+      </c>
+      <c r="D13" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="102" t="s">
+        <v>839</v>
+      </c>
+      <c r="G13" s="102" t="s">
+        <v>844</v>
+      </c>
+      <c r="I13" s="102"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="103" t="s">
+        <v>866</v>
+      </c>
+      <c r="B14" s="104" t="s">
+        <v>629</v>
+      </c>
+      <c r="C14" s="139">
+        <v>1</v>
+      </c>
+      <c r="D14" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="102" t="s">
+        <v>839</v>
+      </c>
+      <c r="G14" s="102" t="s">
+        <v>843</v>
+      </c>
+      <c r="I14" s="102"/>
+    </row>
+    <row r="15" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A15" s="103" t="s">
+        <v>866</v>
+      </c>
+      <c r="B15" s="104" t="s">
+        <v>625</v>
+      </c>
+      <c r="C15" s="139">
+        <v>1</v>
+      </c>
+      <c r="D15" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="102" t="s">
+        <v>459</v>
+      </c>
+      <c r="G15" s="102" t="s">
+        <v>848</v>
+      </c>
+      <c r="I15" s="102"/>
+      <c r="J15" s="140"/>
+      <c r="K15" s="140"/>
+      <c r="L15" s="140"/>
+      <c r="M15" s="140"/>
+      <c r="N15" s="140"/>
+      <c r="O15" s="140"/>
+      <c r="P15" s="140"/>
+      <c r="Q15" s="140"/>
+      <c r="R15" s="140"/>
+      <c r="S15" s="140"/>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="103" t="s">
+        <v>866</v>
+      </c>
+      <c r="B16" s="104" t="s">
+        <v>624</v>
+      </c>
+      <c r="C16" s="139">
+        <v>1</v>
+      </c>
+      <c r="D16" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="102" t="s">
+        <v>839</v>
+      </c>
+      <c r="G16" s="102" t="s">
+        <v>850</v>
+      </c>
+      <c r="I16" s="102"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="103" t="s">
+        <v>866</v>
+      </c>
+      <c r="B17" s="104" t="s">
+        <v>627</v>
+      </c>
+      <c r="C17" s="139">
+        <v>1</v>
+      </c>
+      <c r="D17" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="102" t="s">
+        <v>459</v>
+      </c>
+      <c r="G17" s="102" t="s">
+        <v>845</v>
+      </c>
+      <c r="I17" s="102"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="103" t="s">
+        <v>866</v>
+      </c>
+      <c r="B18" s="104" t="s">
+        <v>622</v>
+      </c>
+      <c r="C18" s="139">
+        <v>1</v>
+      </c>
+      <c r="D18" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="102" t="s">
+        <v>459</v>
+      </c>
+      <c r="G18" s="102" t="s">
+        <v>849</v>
+      </c>
+      <c r="I18" s="102"/>
+    </row>
+    <row r="19" spans="1:19" ht="60">
+      <c r="A19" s="103" t="s">
+        <v>867</v>
+      </c>
+      <c r="B19" s="103" t="s">
+        <v>863</v>
+      </c>
+      <c r="C19" s="139">
+        <v>1</v>
+      </c>
+      <c r="D19" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="102" t="s">
+        <v>459</v>
+      </c>
+      <c r="G19" s="106" t="s">
+        <v>1157</v>
+      </c>
+      <c r="H19" s="129" t="s">
+        <v>1158</v>
+      </c>
+      <c r="I19" s="106" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="60">
+      <c r="A20" s="103" t="s">
+        <v>867</v>
+      </c>
+      <c r="B20" s="103" t="s">
+        <v>868</v>
+      </c>
+      <c r="C20" s="139">
+        <v>1</v>
+      </c>
+      <c r="D20" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="102" t="s">
+        <v>459</v>
+      </c>
+      <c r="G20" s="106" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H20" s="129" t="s">
+        <v>1177</v>
+      </c>
+      <c r="I20" s="106" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="30">
+      <c r="A21" s="103" t="s">
+        <v>867</v>
+      </c>
+      <c r="B21" s="103" t="s">
+        <v>869</v>
+      </c>
+      <c r="C21" s="139">
+        <v>1</v>
+      </c>
+      <c r="D21" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="102" t="s">
+        <v>459</v>
+      </c>
+      <c r="G21" s="82" t="s">
+        <v>922</v>
+      </c>
+      <c r="H21" s="82" t="s">
+        <v>923</v>
+      </c>
+      <c r="I21" s="102" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="141" t="s">
+        <v>463</v>
+      </c>
+      <c r="B22" s="103"/>
+      <c r="C22" s="139">
+        <v>1</v>
+      </c>
+      <c r="D22" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="142" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F22" s="82" t="s">
+        <v>459</v>
+      </c>
+      <c r="G22" s="82" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="104" t="s">
-        <v>861</v>
-      </c>
-      <c r="B3" s="102" t="s">
-        <v>863</v>
-      </c>
-      <c r="C3" s="103" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="103" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="103" t="s">
-        <v>459</v>
-      </c>
-      <c r="F3" s="102" t="s">
-        <v>822</v>
-      </c>
-      <c r="H3" s="102"/>
-    </row>
-    <row r="4" spans="1:8" ht="60">
-      <c r="A4" s="104" t="s">
-        <v>861</v>
-      </c>
-      <c r="B4" s="103" t="s">
-        <v>864</v>
-      </c>
-      <c r="C4" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="103" t="s">
-        <v>459</v>
-      </c>
-      <c r="F4" s="106" t="s">
-        <v>1155</v>
-      </c>
-      <c r="G4" s="106" t="s">
-        <v>1156</v>
-      </c>
-      <c r="H4" s="106" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30">
-      <c r="A5" s="104" t="s">
-        <v>861</v>
-      </c>
-      <c r="B5" s="103" t="s">
-        <v>865</v>
-      </c>
-      <c r="C5" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="103" t="s">
-        <v>459</v>
-      </c>
-      <c r="F5" s="102" t="s">
-        <v>962</v>
-      </c>
-      <c r="G5" s="102" t="s">
-        <v>963</v>
-      </c>
-      <c r="H5" s="102" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30">
-      <c r="A6" s="104" t="s">
-        <v>861</v>
-      </c>
-      <c r="B6" s="103" t="s">
-        <v>866</v>
-      </c>
-      <c r="C6" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="102" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="103" t="s">
-        <v>459</v>
-      </c>
-      <c r="F6" s="102" t="s">
-        <v>920</v>
-      </c>
-      <c r="G6" s="82" t="s">
-        <v>921</v>
-      </c>
-      <c r="H6" s="102" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="103" t="s">
-        <v>867</v>
-      </c>
-      <c r="B7" s="103" t="s">
-        <v>624</v>
-      </c>
-      <c r="C7" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="102" t="s">
-        <v>459</v>
-      </c>
-      <c r="F7" s="102" t="s">
-        <v>852</v>
-      </c>
-      <c r="H7" s="102"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="103" t="s">
-        <v>867</v>
-      </c>
-      <c r="B8" s="104" t="s">
-        <v>631</v>
-      </c>
-      <c r="C8" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="102" t="s">
-        <v>459</v>
-      </c>
-      <c r="F8" s="102" t="s">
-        <v>843</v>
-      </c>
-      <c r="H8" s="102"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="103" t="s">
-        <v>867</v>
-      </c>
-      <c r="B9" s="104" t="s">
-        <v>632</v>
-      </c>
-      <c r="C9" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="102" t="s">
-        <v>459</v>
-      </c>
-      <c r="F9" s="102" t="s">
-        <v>842</v>
-      </c>
-      <c r="H9" s="102"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="103" t="s">
-        <v>867</v>
-      </c>
-      <c r="B10" s="104" t="s">
-        <v>839</v>
-      </c>
-      <c r="C10" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="102" t="s">
-        <v>459</v>
-      </c>
-      <c r="F10" s="102" t="s">
-        <v>841</v>
-      </c>
-      <c r="H10" s="102"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="103" t="s">
-        <v>867</v>
-      </c>
-      <c r="B11" s="104" t="s">
-        <v>838</v>
-      </c>
-      <c r="C11" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="102" t="s">
-        <v>840</v>
-      </c>
-      <c r="F11" s="102" t="s">
-        <v>847</v>
-      </c>
-      <c r="H11" s="102"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="103" t="s">
-        <v>867</v>
-      </c>
-      <c r="B12" s="104" t="s">
-        <v>627</v>
-      </c>
-      <c r="C12" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="102" t="s">
-        <v>840</v>
-      </c>
-      <c r="F12" s="102" t="s">
-        <v>848</v>
-      </c>
-      <c r="H12" s="102"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="103" t="s">
-        <v>867</v>
-      </c>
-      <c r="B13" s="104" t="s">
-        <v>629</v>
-      </c>
-      <c r="C13" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="102" t="s">
-        <v>840</v>
-      </c>
-      <c r="F13" s="102" t="s">
-        <v>845</v>
-      </c>
-      <c r="H13" s="102"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="103" t="s">
-        <v>867</v>
-      </c>
-      <c r="B14" s="104" t="s">
-        <v>630</v>
-      </c>
-      <c r="C14" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="102" t="s">
-        <v>840</v>
-      </c>
-      <c r="F14" s="102" t="s">
-        <v>844</v>
-      </c>
-      <c r="H14" s="102"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="103" t="s">
-        <v>867</v>
-      </c>
-      <c r="B15" s="104" t="s">
-        <v>626</v>
-      </c>
-      <c r="C15" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="102" t="s">
-        <v>459</v>
-      </c>
-      <c r="F15" s="102" t="s">
-        <v>849</v>
-      </c>
-      <c r="H15" s="102"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="103" t="s">
-        <v>867</v>
-      </c>
-      <c r="B16" s="104" t="s">
-        <v>625</v>
-      </c>
-      <c r="C16" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="102" t="s">
-        <v>840</v>
-      </c>
-      <c r="F16" s="102" t="s">
-        <v>851</v>
-      </c>
-      <c r="H16" s="102"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="103" t="s">
-        <v>867</v>
-      </c>
-      <c r="B17" s="104" t="s">
-        <v>628</v>
-      </c>
-      <c r="C17" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="102" t="s">
-        <v>459</v>
-      </c>
-      <c r="F17" s="102" t="s">
-        <v>846</v>
-      </c>
-      <c r="H17" s="102"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="103" t="s">
-        <v>867</v>
-      </c>
-      <c r="B18" s="104" t="s">
-        <v>623</v>
-      </c>
-      <c r="C18" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="102" t="s">
-        <v>459</v>
-      </c>
-      <c r="F18" s="102" t="s">
-        <v>850</v>
-      </c>
-      <c r="H18" s="102"/>
-    </row>
-    <row r="19" spans="1:8" ht="60">
-      <c r="A19" s="103" t="s">
-        <v>868</v>
-      </c>
-      <c r="B19" s="103" t="s">
-        <v>864</v>
-      </c>
-      <c r="C19" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="102" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="102" t="s">
-        <v>459</v>
-      </c>
-      <c r="F19" s="106" t="s">
-        <v>1158</v>
-      </c>
-      <c r="G19" s="129" t="s">
-        <v>1159</v>
-      </c>
-      <c r="H19" s="106" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="60">
-      <c r="A20" s="103" t="s">
-        <v>868</v>
-      </c>
-      <c r="B20" s="103" t="s">
-        <v>869</v>
-      </c>
-      <c r="C20" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="102" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="102" t="s">
-        <v>459</v>
-      </c>
-      <c r="F20" s="106" t="s">
-        <v>1179</v>
-      </c>
-      <c r="G20" s="129" t="s">
-        <v>1178</v>
-      </c>
-      <c r="H20" s="106" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30">
-      <c r="A21" s="103" t="s">
-        <v>868</v>
-      </c>
-      <c r="B21" s="103" t="s">
-        <v>870</v>
-      </c>
-      <c r="C21" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="102" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="102" t="s">
-        <v>459</v>
-      </c>
-      <c r="F21" s="82" t="s">
-        <v>923</v>
-      </c>
-      <c r="G21" s="82" t="s">
-        <v>924</v>
-      </c>
-      <c r="H21" s="102" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="103" t="s">
-        <v>463</v>
-      </c>
-      <c r="B22" s="103"/>
-      <c r="C22" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="102" t="s">
-        <v>553</v>
-      </c>
-      <c r="E22" s="82" t="s">
-        <v>459</v>
-      </c>
-      <c r="F22" s="82" t="s">
-        <v>224</v>
-      </c>
-      <c r="H22" s="102"/>
-    </row>
-    <row r="23" spans="1:8" ht="45">
+      <c r="I22" s="102"/>
+    </row>
+    <row r="23" spans="1:19" ht="45">
       <c r="A23" s="103" t="s">
         <v>464</v>
       </c>
       <c r="B23" s="103" t="s">
-        <v>824</v>
-      </c>
-      <c r="C23" s="102" t="s">
+        <v>823</v>
+      </c>
+      <c r="C23" s="139">
+        <v>1</v>
+      </c>
+      <c r="D23" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="102" t="s">
-        <v>554</v>
-      </c>
-      <c r="E23" s="82" t="s">
-        <v>990</v>
+      <c r="E23" s="102" t="s">
+        <v>553</v>
       </c>
       <c r="F23" s="82" t="s">
-        <v>633</v>
-      </c>
-      <c r="H23" s="102"/>
-    </row>
-    <row r="24" spans="1:8" ht="45">
+        <v>989</v>
+      </c>
+      <c r="G23" s="82" t="s">
+        <v>632</v>
+      </c>
+      <c r="I23" s="102"/>
+    </row>
+    <row r="24" spans="1:19" ht="45">
       <c r="A24" s="103" t="s">
         <v>464</v>
       </c>
       <c r="B24" s="103" t="s">
-        <v>823</v>
-      </c>
-      <c r="C24" s="102" t="s">
+        <v>822</v>
+      </c>
+      <c r="C24" s="139">
+        <v>1</v>
+      </c>
+      <c r="D24" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="102" t="s">
-        <v>554</v>
-      </c>
-      <c r="E24" s="82" t="s">
-        <v>990</v>
+      <c r="E24" s="102" t="s">
+        <v>553</v>
       </c>
       <c r="F24" s="82" t="s">
-        <v>633</v>
-      </c>
-      <c r="H24" s="102"/>
-    </row>
-    <row r="25" spans="1:8" ht="45">
+        <v>989</v>
+      </c>
+      <c r="G24" s="82" t="s">
+        <v>632</v>
+      </c>
+      <c r="I24" s="102"/>
+    </row>
+    <row r="25" spans="1:19" ht="45">
       <c r="A25" s="103" t="s">
         <v>464</v>
       </c>
       <c r="B25" s="103" t="s">
-        <v>871</v>
-      </c>
-      <c r="C25" s="102" t="s">
+        <v>870</v>
+      </c>
+      <c r="C25" s="139">
+        <v>1</v>
+      </c>
+      <c r="D25" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="102" t="s">
-        <v>554</v>
-      </c>
-      <c r="E25" s="82" t="s">
-        <v>990</v>
+      <c r="E25" s="102" t="s">
+        <v>553</v>
       </c>
       <c r="F25" s="82" t="s">
-        <v>925</v>
-      </c>
-      <c r="H25" s="102"/>
-    </row>
-    <row r="26" spans="1:8" ht="45">
+        <v>989</v>
+      </c>
+      <c r="G25" s="82" t="s">
+        <v>924</v>
+      </c>
+      <c r="I25" s="102"/>
+    </row>
+    <row r="26" spans="1:19" ht="45">
       <c r="A26" s="103" t="s">
         <v>464</v>
       </c>
       <c r="B26" s="103" t="s">
+        <v>871</v>
+      </c>
+      <c r="C26" s="139">
+        <v>1</v>
+      </c>
+      <c r="D26" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="102" t="s">
+        <v>553</v>
+      </c>
+      <c r="F26" s="82" t="s">
+        <v>989</v>
+      </c>
+      <c r="G26" s="82" t="s">
+        <v>924</v>
+      </c>
+      <c r="I26" s="102"/>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A27" s="103" t="s">
         <v>872</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="B27" s="103" t="s">
+        <v>873</v>
+      </c>
+      <c r="C27" s="139">
+        <v>1</v>
+      </c>
+      <c r="D27" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="82" t="s">
+        <v>990</v>
+      </c>
+      <c r="G27" s="82" t="s">
+        <v>826</v>
+      </c>
+      <c r="I27" s="102"/>
+      <c r="J27" s="140"/>
+      <c r="K27" s="140"/>
+      <c r="L27" s="140"/>
+      <c r="M27" s="140"/>
+      <c r="N27" s="140"/>
+      <c r="O27" s="140"/>
+      <c r="P27" s="140"/>
+      <c r="Q27" s="140"/>
+      <c r="R27" s="140"/>
+      <c r="S27" s="140"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="103" t="s">
+        <v>872</v>
+      </c>
+      <c r="B28" s="103" t="s">
+        <v>874</v>
+      </c>
+      <c r="C28" s="139">
+        <v>1</v>
+      </c>
+      <c r="D28" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="82" t="s">
+        <v>990</v>
+      </c>
+      <c r="G28" s="82" t="s">
+        <v>828</v>
+      </c>
+      <c r="I28" s="102"/>
+    </row>
+    <row r="29" spans="1:19" ht="30">
+      <c r="A29" s="103" t="s">
+        <v>872</v>
+      </c>
+      <c r="B29" s="103" t="s">
+        <v>875</v>
+      </c>
+      <c r="C29" s="139">
+        <v>1</v>
+      </c>
+      <c r="D29" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="82" t="s">
+        <v>990</v>
+      </c>
+      <c r="G29" s="82" t="s">
+        <v>827</v>
+      </c>
+      <c r="I29" s="102"/>
+    </row>
+    <row r="30" spans="1:19" ht="30">
+      <c r="A30" s="103" t="s">
+        <v>872</v>
+      </c>
+      <c r="B30" s="103" t="s">
+        <v>876</v>
+      </c>
+      <c r="C30" s="139">
+        <v>1</v>
+      </c>
+      <c r="D30" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="82" t="s">
+        <v>990</v>
+      </c>
+      <c r="G30" s="82" t="s">
+        <v>829</v>
+      </c>
+      <c r="I30" s="102"/>
+    </row>
+    <row r="31" spans="1:19" ht="90.75" thickBot="1">
+      <c r="A31" s="103" t="s">
+        <v>872</v>
+      </c>
+      <c r="B31" s="103" t="s">
+        <v>877</v>
+      </c>
+      <c r="C31" s="139">
+        <v>1</v>
+      </c>
+      <c r="D31" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="102" t="s">
-        <v>554</v>
-      </c>
-      <c r="E26" s="82" t="s">
+      <c r="E31" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="82" t="s">
         <v>990</v>
       </c>
-      <c r="F26" s="82" t="s">
+      <c r="G31" s="82" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H31" s="82" t="s">
+        <v>964</v>
+      </c>
+      <c r="I31" s="102" t="s">
+        <v>965</v>
+      </c>
+      <c r="J31" s="140"/>
+      <c r="K31" s="140"/>
+      <c r="L31" s="140"/>
+      <c r="M31" s="140"/>
+      <c r="N31" s="140"/>
+      <c r="O31" s="140"/>
+      <c r="P31" s="140"/>
+      <c r="Q31" s="140"/>
+      <c r="R31" s="140"/>
+      <c r="S31" s="140"/>
+    </row>
+    <row r="32" spans="1:19" ht="30">
+      <c r="A32" s="103" t="s">
+        <v>878</v>
+      </c>
+      <c r="B32" s="103" t="s">
+        <v>879</v>
+      </c>
+      <c r="C32" s="139">
+        <v>1</v>
+      </c>
+      <c r="D32" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="102" t="s">
+        <v>460</v>
+      </c>
+      <c r="G32" s="102" t="s">
+        <v>325</v>
+      </c>
+      <c r="I32" s="102"/>
+    </row>
+    <row r="33" spans="1:19" ht="30">
+      <c r="A33" s="103" t="s">
+        <v>878</v>
+      </c>
+      <c r="B33" s="103" t="s">
+        <v>880</v>
+      </c>
+      <c r="C33" s="139">
+        <v>1</v>
+      </c>
+      <c r="D33" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="102" t="s">
+        <v>990</v>
+      </c>
+      <c r="G33" s="102" t="s">
+        <v>81</v>
+      </c>
+      <c r="I33" s="102"/>
+    </row>
+    <row r="34" spans="1:19" ht="135">
+      <c r="A34" s="103" t="s">
+        <v>881</v>
+      </c>
+      <c r="B34" s="103" t="s">
+        <v>882</v>
+      </c>
+      <c r="C34" s="139">
+        <v>1</v>
+      </c>
+      <c r="D34" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="102" t="s">
+        <v>461</v>
+      </c>
+      <c r="G34" s="102" t="s">
         <v>925</v>
       </c>
-      <c r="H26" s="102"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="103" t="s">
-        <v>873</v>
-      </c>
-      <c r="B27" s="103" t="s">
-        <v>874</v>
-      </c>
-      <c r="C27" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="102" t="s">
+      <c r="H34" s="82" t="s">
+        <v>817</v>
+      </c>
+      <c r="I34" s="102" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="150">
+      <c r="A35" s="103" t="s">
+        <v>881</v>
+      </c>
+      <c r="B35" s="103" t="s">
+        <v>883</v>
+      </c>
+      <c r="C35" s="139">
+        <v>1</v>
+      </c>
+      <c r="D35" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="82" t="s">
+      <c r="F35" s="102" t="s">
+        <v>461</v>
+      </c>
+      <c r="G35" s="102" t="s">
+        <v>926</v>
+      </c>
+      <c r="H35" s="82" t="s">
+        <v>819</v>
+      </c>
+      <c r="I35" s="102" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="120">
+      <c r="A36" s="103" t="s">
+        <v>881</v>
+      </c>
+      <c r="B36" s="103" t="s">
+        <v>884</v>
+      </c>
+      <c r="C36" s="139">
+        <v>1</v>
+      </c>
+      <c r="D36" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="102" t="s">
+        <v>462</v>
+      </c>
+      <c r="G36" s="102" t="s">
+        <v>927</v>
+      </c>
+      <c r="H36" s="82" t="s">
+        <v>578</v>
+      </c>
+      <c r="I36" s="102" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="150">
+      <c r="A37" s="103" t="s">
+        <v>881</v>
+      </c>
+      <c r="B37" s="103" t="s">
+        <v>885</v>
+      </c>
+      <c r="C37" s="139">
+        <v>1</v>
+      </c>
+      <c r="D37" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" s="102" t="s">
+        <v>462</v>
+      </c>
+      <c r="G37" s="102" t="s">
+        <v>928</v>
+      </c>
+      <c r="H37" s="82" t="s">
+        <v>580</v>
+      </c>
+      <c r="I37" s="102" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="120.75" thickBot="1">
+      <c r="A38" s="103" t="s">
+        <v>886</v>
+      </c>
+      <c r="B38" s="103" t="s">
+        <v>887</v>
+      </c>
+      <c r="C38" s="139">
+        <v>1</v>
+      </c>
+      <c r="D38" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="102" t="s">
+        <v>929</v>
+      </c>
+      <c r="F38" s="102" t="s">
         <v>991</v>
       </c>
-      <c r="F27" s="82" t="s">
-        <v>827</v>
-      </c>
-      <c r="H27" s="102"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="103" t="s">
-        <v>873</v>
-      </c>
-      <c r="B28" s="103" t="s">
-        <v>875</v>
-      </c>
-      <c r="C28" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="102" t="s">
+      <c r="G38" s="102" t="s">
+        <v>932</v>
+      </c>
+      <c r="H38" s="82" t="s">
+        <v>930</v>
+      </c>
+      <c r="I38" s="102" t="s">
+        <v>931</v>
+      </c>
+      <c r="J38" s="140"/>
+      <c r="K38" s="140"/>
+      <c r="L38" s="140"/>
+      <c r="M38" s="140"/>
+      <c r="N38" s="140"/>
+      <c r="O38" s="140"/>
+      <c r="P38" s="140"/>
+      <c r="Q38" s="140"/>
+      <c r="R38" s="140"/>
+      <c r="S38" s="140"/>
+    </row>
+    <row r="39" spans="1:19" ht="30">
+      <c r="A39" s="103" t="s">
+        <v>886</v>
+      </c>
+      <c r="B39" s="103" t="s">
+        <v>888</v>
+      </c>
+      <c r="C39" s="139">
+        <v>1</v>
+      </c>
+      <c r="D39" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="82" t="s">
-        <v>991</v>
-      </c>
-      <c r="F28" s="82" t="s">
-        <v>829</v>
-      </c>
-      <c r="H28" s="102"/>
-    </row>
-    <row r="29" spans="1:8" ht="30">
-      <c r="A29" s="103" t="s">
-        <v>873</v>
-      </c>
-      <c r="B29" s="103" t="s">
-        <v>876</v>
-      </c>
-      <c r="C29" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="82" t="s">
-        <v>991</v>
-      </c>
-      <c r="F29" s="82" t="s">
-        <v>828</v>
-      </c>
-      <c r="H29" s="102"/>
-    </row>
-    <row r="30" spans="1:8" ht="30">
-      <c r="A30" s="103" t="s">
-        <v>873</v>
-      </c>
-      <c r="B30" s="103" t="s">
-        <v>877</v>
-      </c>
-      <c r="C30" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" s="82" t="s">
-        <v>991</v>
-      </c>
-      <c r="F30" s="82" t="s">
-        <v>830</v>
-      </c>
-      <c r="H30" s="102"/>
-    </row>
-    <row r="31" spans="1:8" ht="90">
-      <c r="A31" s="103" t="s">
-        <v>873</v>
-      </c>
-      <c r="B31" s="103" t="s">
-        <v>878</v>
-      </c>
-      <c r="C31" s="102" t="s">
+      <c r="F39" s="102" t="s">
+        <v>461</v>
+      </c>
+      <c r="G39" s="102" t="s">
+        <v>933</v>
+      </c>
+      <c r="H39" s="82" t="s">
+        <v>935</v>
+      </c>
+      <c r="I39" s="102" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="45.75" thickBot="1">
+      <c r="A40" s="103" t="s">
+        <v>889</v>
+      </c>
+      <c r="B40" s="103" t="s">
+        <v>890</v>
+      </c>
+      <c r="C40" s="139">
+        <v>1</v>
+      </c>
+      <c r="D40" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="82" t="s">
-        <v>991</v>
-      </c>
-      <c r="F31" s="82" t="s">
-        <v>1252</v>
-      </c>
-      <c r="G31" s="82" t="s">
-        <v>965</v>
-      </c>
-      <c r="H31" s="102" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="30">
-      <c r="A32" s="103" t="s">
-        <v>879</v>
-      </c>
-      <c r="B32" s="103" t="s">
-        <v>880</v>
-      </c>
-      <c r="C32" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="102" t="s">
-        <v>460</v>
-      </c>
-      <c r="F32" s="102" t="s">
-        <v>325</v>
-      </c>
-      <c r="H32" s="102"/>
-    </row>
-    <row r="33" spans="1:8" ht="30">
-      <c r="A33" s="103" t="s">
-        <v>879</v>
-      </c>
-      <c r="B33" s="103" t="s">
-        <v>881</v>
-      </c>
-      <c r="C33" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="102" t="s">
-        <v>991</v>
-      </c>
-      <c r="F33" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="H33" s="102"/>
-    </row>
-    <row r="34" spans="1:8" ht="135">
-      <c r="A34" s="103" t="s">
-        <v>882</v>
-      </c>
-      <c r="B34" s="103" t="s">
-        <v>883</v>
-      </c>
-      <c r="C34" s="102" t="s">
+      <c r="E40" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="106" t="s">
+        <v>985</v>
+      </c>
+      <c r="G40" s="102" t="s">
+        <v>936</v>
+      </c>
+      <c r="H40" s="82" t="s">
+        <v>937</v>
+      </c>
+      <c r="I40" s="102" t="s">
+        <v>938</v>
+      </c>
+      <c r="J40" s="140"/>
+      <c r="K40" s="140"/>
+      <c r="L40" s="140"/>
+      <c r="M40" s="140"/>
+      <c r="N40" s="140"/>
+      <c r="O40" s="140"/>
+      <c r="P40" s="140"/>
+      <c r="Q40" s="140"/>
+      <c r="R40" s="140"/>
+      <c r="S40" s="140"/>
+    </row>
+    <row r="41" spans="1:19" ht="30">
+      <c r="A41" s="103" t="s">
+        <v>889</v>
+      </c>
+      <c r="B41" s="103" t="s">
+        <v>891</v>
+      </c>
+      <c r="C41" s="139">
+        <v>1</v>
+      </c>
+      <c r="D41" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="102" t="s">
+      <c r="E41" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="102" t="s">
-        <v>461</v>
-      </c>
-      <c r="F34" s="102" t="s">
-        <v>926</v>
-      </c>
-      <c r="G34" s="82" t="s">
-        <v>818</v>
-      </c>
-      <c r="H34" s="102" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="150">
-      <c r="A35" s="103" t="s">
-        <v>882</v>
-      </c>
-      <c r="B35" s="103" t="s">
-        <v>884</v>
-      </c>
-      <c r="C35" s="102" t="s">
+      <c r="F41" s="106" t="s">
+        <v>986</v>
+      </c>
+      <c r="G41" s="106" t="s">
+        <v>1180</v>
+      </c>
+      <c r="H41" s="129" t="s">
+        <v>1181</v>
+      </c>
+      <c r="I41" s="106" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="60">
+      <c r="A42" s="103" t="s">
+        <v>892</v>
+      </c>
+      <c r="B42" s="103" t="s">
+        <v>893</v>
+      </c>
+      <c r="C42" s="139">
+        <v>1</v>
+      </c>
+      <c r="D42" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="102" t="s">
-        <v>461</v>
-      </c>
-      <c r="F35" s="102" t="s">
-        <v>927</v>
-      </c>
-      <c r="G35" s="82" t="s">
-        <v>820</v>
-      </c>
-      <c r="H35" s="102" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="120">
-      <c r="A36" s="103" t="s">
-        <v>882</v>
-      </c>
-      <c r="B36" s="103" t="s">
-        <v>885</v>
-      </c>
-      <c r="C36" s="102" t="s">
+      <c r="E42" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" s="102" t="s">
+        <v>617</v>
+      </c>
+      <c r="G42" s="102" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H42" s="102" t="s">
+        <v>618</v>
+      </c>
+      <c r="I42" s="102" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="75">
+      <c r="A43" s="103" t="s">
+        <v>892</v>
+      </c>
+      <c r="B43" s="103" t="s">
+        <v>894</v>
+      </c>
+      <c r="C43" s="139">
+        <v>1</v>
+      </c>
+      <c r="D43" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="102" t="s">
+      <c r="E43" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="102" t="s">
-        <v>462</v>
-      </c>
-      <c r="F36" s="102" t="s">
-        <v>928</v>
-      </c>
-      <c r="G36" s="82" t="s">
-        <v>579</v>
-      </c>
-      <c r="H36" s="102" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="150">
-      <c r="A37" s="103" t="s">
-        <v>882</v>
-      </c>
-      <c r="B37" s="103" t="s">
-        <v>886</v>
-      </c>
-      <c r="C37" s="102" t="s">
+      <c r="F43" s="102" t="s">
+        <v>940</v>
+      </c>
+      <c r="G43" s="102" t="s">
+        <v>941</v>
+      </c>
+      <c r="H43" s="102" t="s">
+        <v>618</v>
+      </c>
+      <c r="I43" s="102" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="60">
+      <c r="A44" s="103" t="s">
+        <v>892</v>
+      </c>
+      <c r="B44" s="103" t="s">
+        <v>895</v>
+      </c>
+      <c r="C44" s="139">
+        <v>1</v>
+      </c>
+      <c r="D44" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" s="102" t="s">
-        <v>462</v>
-      </c>
-      <c r="F37" s="102" t="s">
-        <v>929</v>
-      </c>
-      <c r="G37" s="82" t="s">
-        <v>581</v>
-      </c>
-      <c r="H37" s="102" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="120">
-      <c r="A38" s="103" t="s">
-        <v>887</v>
-      </c>
-      <c r="B38" s="103" t="s">
-        <v>888</v>
-      </c>
-      <c r="C38" s="102" t="s">
+      <c r="E44" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" s="102" t="s">
+        <v>940</v>
+      </c>
+      <c r="G44" s="102" t="s">
+        <v>942</v>
+      </c>
+      <c r="H44" s="102" t="s">
+        <v>618</v>
+      </c>
+      <c r="I44" s="102" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="60">
+      <c r="A45" s="103" t="s">
+        <v>892</v>
+      </c>
+      <c r="B45" s="103" t="s">
+        <v>896</v>
+      </c>
+      <c r="C45" s="139">
+        <v>1</v>
+      </c>
+      <c r="D45" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="102" t="s">
-        <v>930</v>
-      </c>
-      <c r="E38" s="102" t="s">
-        <v>992</v>
-      </c>
-      <c r="F38" s="102" t="s">
-        <v>933</v>
-      </c>
-      <c r="G38" s="82" t="s">
-        <v>931</v>
-      </c>
-      <c r="H38" s="102" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="30">
-      <c r="A39" s="103" t="s">
-        <v>887</v>
-      </c>
-      <c r="B39" s="103" t="s">
-        <v>889</v>
-      </c>
-      <c r="C39" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39" s="102" t="s">
-        <v>461</v>
-      </c>
-      <c r="F39" s="102" t="s">
-        <v>934</v>
-      </c>
-      <c r="G39" s="82" t="s">
-        <v>936</v>
-      </c>
-      <c r="H39" s="102" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="45">
-      <c r="A40" s="103" t="s">
-        <v>890</v>
-      </c>
-      <c r="B40" s="103" t="s">
-        <v>891</v>
-      </c>
-      <c r="C40" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="102" t="s">
+      <c r="E45" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="E40" s="106" t="s">
-        <v>986</v>
-      </c>
-      <c r="F40" s="102" t="s">
-        <v>937</v>
-      </c>
-      <c r="G40" s="82" t="s">
-        <v>938</v>
-      </c>
-      <c r="H40" s="102" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="30">
-      <c r="A41" s="103" t="s">
-        <v>890</v>
-      </c>
-      <c r="B41" s="103" t="s">
+      <c r="F45" s="102" t="s">
+        <v>940</v>
+      </c>
+      <c r="G45" s="102" t="s">
+        <v>943</v>
+      </c>
+      <c r="H45" s="102" t="s">
+        <v>618</v>
+      </c>
+      <c r="I45" s="102" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="30.75" thickBot="1">
+      <c r="A46" s="103" t="s">
         <v>892</v>
-      </c>
-      <c r="C41" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="102" t="s">
-        <v>80</v>
-      </c>
-      <c r="E41" s="106" t="s">
-        <v>987</v>
-      </c>
-      <c r="F41" s="106" t="s">
-        <v>1181</v>
-      </c>
-      <c r="G41" s="129" t="s">
-        <v>1182</v>
-      </c>
-      <c r="H41" s="106" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="60">
-      <c r="A42" s="103" t="s">
-        <v>893</v>
-      </c>
-      <c r="B42" s="103" t="s">
-        <v>894</v>
-      </c>
-      <c r="C42" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="102" t="s">
-        <v>80</v>
-      </c>
-      <c r="E42" s="102" t="s">
-        <v>618</v>
-      </c>
-      <c r="F42" s="102" t="s">
-        <v>1187</v>
-      </c>
-      <c r="G42" s="102" t="s">
-        <v>619</v>
-      </c>
-      <c r="H42" s="102" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="75">
-      <c r="A43" s="103" t="s">
-        <v>893</v>
-      </c>
-      <c r="B43" s="103" t="s">
-        <v>895</v>
-      </c>
-      <c r="C43" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" s="102" t="s">
-        <v>80</v>
-      </c>
-      <c r="E43" s="102" t="s">
-        <v>941</v>
-      </c>
-      <c r="F43" s="102" t="s">
-        <v>942</v>
-      </c>
-      <c r="G43" s="102" t="s">
-        <v>619</v>
-      </c>
-      <c r="H43" s="102" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="60">
-      <c r="A44" s="103" t="s">
-        <v>893</v>
-      </c>
-      <c r="B44" s="103" t="s">
-        <v>896</v>
-      </c>
-      <c r="C44" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" s="102" t="s">
-        <v>80</v>
-      </c>
-      <c r="E44" s="102" t="s">
-        <v>941</v>
-      </c>
-      <c r="F44" s="102" t="s">
-        <v>943</v>
-      </c>
-      <c r="G44" s="102" t="s">
-        <v>619</v>
-      </c>
-      <c r="H44" s="102" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="60">
-      <c r="A45" s="103" t="s">
-        <v>893</v>
-      </c>
-      <c r="B45" s="103" t="s">
-        <v>897</v>
-      </c>
-      <c r="C45" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="D45" s="102" t="s">
-        <v>80</v>
-      </c>
-      <c r="E45" s="102" t="s">
-        <v>941</v>
-      </c>
-      <c r="F45" s="102" t="s">
-        <v>944</v>
-      </c>
-      <c r="G45" s="102" t="s">
-        <v>619</v>
-      </c>
-      <c r="H45" s="102" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="30">
-      <c r="A46" s="103" t="s">
-        <v>893</v>
       </c>
       <c r="B46" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="139">
+        <v>1</v>
+      </c>
+      <c r="D46" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="D46" s="102" t="s">
+      <c r="E46" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="E46" s="102" t="s">
-        <v>941</v>
-      </c>
       <c r="F46" s="102" t="s">
+        <v>940</v>
+      </c>
+      <c r="G46" s="102" t="s">
+        <v>944</v>
+      </c>
+      <c r="H46" s="102" t="s">
         <v>945</v>
       </c>
-      <c r="G46" s="102" t="s">
+      <c r="I46" s="102" t="s">
         <v>946</v>
       </c>
-      <c r="H46" s="102" t="s">
+      <c r="J46" s="140"/>
+      <c r="K46" s="140"/>
+      <c r="L46" s="140"/>
+      <c r="M46" s="140"/>
+      <c r="N46" s="140"/>
+      <c r="O46" s="140"/>
+      <c r="P46" s="140"/>
+      <c r="Q46" s="140"/>
+      <c r="R46" s="140"/>
+      <c r="S46" s="140"/>
+    </row>
+    <row r="47" spans="1:19" ht="60">
+      <c r="A47" s="105" t="s">
+        <v>897</v>
+      </c>
+      <c r="B47" s="103" t="s">
+        <v>893</v>
+      </c>
+      <c r="C47" s="139">
+        <v>1</v>
+      </c>
+      <c r="D47" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="F47" s="102" t="s">
+        <v>939</v>
+      </c>
+      <c r="G47" s="102" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H47" s="102" t="s">
+        <v>618</v>
+      </c>
+      <c r="I47" s="102" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="60">
+      <c r="A48" s="105" t="s">
+        <v>897</v>
+      </c>
+      <c r="B48" s="103" t="s">
+        <v>894</v>
+      </c>
+      <c r="C48" s="139">
+        <v>1</v>
+      </c>
+      <c r="D48" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="E48" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" s="102" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G48" s="102" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="60">
-      <c r="A47" s="105" t="s">
-        <v>898</v>
-      </c>
-      <c r="B47" s="103" t="s">
-        <v>894</v>
-      </c>
-      <c r="C47" s="102" t="s">
+      <c r="H48" s="102" t="s">
+        <v>618</v>
+      </c>
+      <c r="I48" s="102" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="60">
+      <c r="A49" s="105" t="s">
+        <v>897</v>
+      </c>
+      <c r="B49" s="103" t="s">
+        <v>895</v>
+      </c>
+      <c r="C49" s="139">
+        <v>1</v>
+      </c>
+      <c r="D49" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="D47" s="102" t="s">
+      <c r="E49" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="E47" s="102" t="s">
-        <v>940</v>
-      </c>
-      <c r="F47" s="102" t="s">
-        <v>1189</v>
-      </c>
-      <c r="G47" s="102" t="s">
+      <c r="F49" s="102" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G49" s="102" t="s">
+        <v>948</v>
+      </c>
+      <c r="H49" s="102" t="s">
+        <v>618</v>
+      </c>
+      <c r="I49" s="102" t="s">
         <v>619</v>
       </c>
-      <c r="H47" s="102" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="60">
-      <c r="A48" s="105" t="s">
-        <v>898</v>
-      </c>
-      <c r="B48" s="103" t="s">
-        <v>895</v>
-      </c>
-      <c r="C48" s="102" t="s">
+    </row>
+    <row r="50" spans="1:19" ht="60">
+      <c r="A50" s="105" t="s">
+        <v>897</v>
+      </c>
+      <c r="B50" s="103" t="s">
+        <v>896</v>
+      </c>
+      <c r="C50" s="139">
+        <v>1</v>
+      </c>
+      <c r="D50" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="D48" s="102" t="s">
+      <c r="E50" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="E48" s="102" t="s">
-        <v>1188</v>
-      </c>
-      <c r="F48" s="102" t="s">
-        <v>948</v>
-      </c>
-      <c r="G48" s="102" t="s">
+      <c r="F50" s="102" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G50" s="102" t="s">
+        <v>949</v>
+      </c>
+      <c r="H50" s="102" t="s">
+        <v>618</v>
+      </c>
+      <c r="I50" s="102" t="s">
         <v>619</v>
       </c>
-      <c r="H48" s="102" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="60">
-      <c r="A49" s="105" t="s">
-        <v>898</v>
-      </c>
-      <c r="B49" s="103" t="s">
-        <v>896</v>
-      </c>
-      <c r="C49" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="D49" s="102" t="s">
-        <v>80</v>
-      </c>
-      <c r="E49" s="102" t="s">
-        <v>1188</v>
-      </c>
-      <c r="F49" s="102" t="s">
-        <v>949</v>
-      </c>
-      <c r="G49" s="102" t="s">
-        <v>619</v>
-      </c>
-      <c r="H49" s="102" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="60">
-      <c r="A50" s="105" t="s">
-        <v>898</v>
-      </c>
-      <c r="B50" s="103" t="s">
+    </row>
+    <row r="51" spans="1:19" ht="30">
+      <c r="A51" s="105" t="s">
         <v>897</v>
-      </c>
-      <c r="C50" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="D50" s="102" t="s">
-        <v>80</v>
-      </c>
-      <c r="E50" s="102" t="s">
-        <v>1188</v>
-      </c>
-      <c r="F50" s="102" t="s">
-        <v>950</v>
-      </c>
-      <c r="G50" s="102" t="s">
-        <v>619</v>
-      </c>
-      <c r="H50" s="102" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="30">
-      <c r="A51" s="105" t="s">
-        <v>898</v>
       </c>
       <c r="B51" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="C51" s="102" t="s">
+      <c r="C51" s="139">
+        <v>1</v>
+      </c>
+      <c r="D51" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="D51" s="102" t="s">
+      <c r="E51" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="E51" s="102" t="s">
-        <v>1188</v>
-      </c>
       <c r="F51" s="102" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G51" s="102" t="s">
+        <v>950</v>
+      </c>
+      <c r="H51" s="102" t="s">
+        <v>945</v>
+      </c>
+      <c r="I51" s="102" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="135">
+      <c r="A52" s="103" t="s">
+        <v>918</v>
+      </c>
+      <c r="B52" s="103" t="s">
+        <v>898</v>
+      </c>
+      <c r="C52" s="139">
+        <v>1</v>
+      </c>
+      <c r="D52" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="F52" s="102" t="s">
+        <v>459</v>
+      </c>
+      <c r="G52" s="106" t="s">
+        <v>1183</v>
+      </c>
+      <c r="H52" s="106" t="s">
+        <v>1184</v>
+      </c>
+      <c r="I52" s="106" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="75">
+      <c r="A53" s="103" t="s">
+        <v>918</v>
+      </c>
+      <c r="B53" s="103" t="s">
+        <v>899</v>
+      </c>
+      <c r="C53" s="139">
+        <v>1</v>
+      </c>
+      <c r="D53" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="F53" s="106" t="s">
+        <v>987</v>
+      </c>
+      <c r="G53" s="102" t="s">
+        <v>633</v>
+      </c>
+      <c r="H53" s="102" t="s">
+        <v>620</v>
+      </c>
+      <c r="I53" s="102" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="75">
+      <c r="A54" s="105" t="s">
+        <v>900</v>
+      </c>
+      <c r="B54" s="103" t="s">
+        <v>901</v>
+      </c>
+      <c r="C54" s="139">
+        <v>1</v>
+      </c>
+      <c r="D54" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="F54" s="106" t="s">
+        <v>987</v>
+      </c>
+      <c r="G54" s="102" t="s">
         <v>951</v>
       </c>
-      <c r="G51" s="102" t="s">
-        <v>946</v>
-      </c>
-      <c r="H51" s="102" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="135">
-      <c r="A52" s="103" t="s">
-        <v>919</v>
-      </c>
-      <c r="B52" s="103" t="s">
-        <v>899</v>
-      </c>
-      <c r="C52" s="102" t="s">
+      <c r="H54" s="82" t="s">
+        <v>952</v>
+      </c>
+      <c r="I54" s="102" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="45">
+      <c r="A55" s="105" t="s">
+        <v>900</v>
+      </c>
+      <c r="B55" s="103" t="s">
+        <v>902</v>
+      </c>
+      <c r="C55" s="139">
+        <v>1</v>
+      </c>
+      <c r="D55" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="D52" s="102" t="s">
+      <c r="E55" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="E52" s="102" t="s">
+      <c r="F55" s="106" t="s">
+        <v>987</v>
+      </c>
+      <c r="G55" s="106" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H55" s="129" t="s">
+        <v>1161</v>
+      </c>
+      <c r="I55" s="106" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="90.75" thickBot="1">
+      <c r="A56" s="105" t="s">
+        <v>903</v>
+      </c>
+      <c r="B56" s="103" t="s">
+        <v>901</v>
+      </c>
+      <c r="C56" s="139">
+        <v>1</v>
+      </c>
+      <c r="D56" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="F56" s="102" t="s">
         <v>459</v>
       </c>
-      <c r="F52" s="106" t="s">
-        <v>1184</v>
-      </c>
-      <c r="G52" s="106" t="s">
-        <v>1185</v>
-      </c>
-      <c r="H52" s="106" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="75">
-      <c r="A53" s="103" t="s">
-        <v>919</v>
-      </c>
-      <c r="B53" s="103" t="s">
-        <v>900</v>
-      </c>
-      <c r="C53" s="102" t="s">
+      <c r="G56" s="102" t="s">
+        <v>954</v>
+      </c>
+      <c r="H56" s="82" t="s">
+        <v>952</v>
+      </c>
+      <c r="I56" s="102" t="s">
+        <v>953</v>
+      </c>
+      <c r="J56" s="140"/>
+      <c r="K56" s="140"/>
+      <c r="L56" s="140"/>
+      <c r="M56" s="140"/>
+      <c r="N56" s="140"/>
+      <c r="O56" s="140"/>
+      <c r="P56" s="140"/>
+      <c r="Q56" s="140"/>
+      <c r="R56" s="140"/>
+      <c r="S56" s="140"/>
+    </row>
+    <row r="57" spans="1:19" ht="45">
+      <c r="A57" s="105" t="s">
+        <v>903</v>
+      </c>
+      <c r="B57" s="103" t="s">
+        <v>865</v>
+      </c>
+      <c r="C57" s="139">
+        <v>1</v>
+      </c>
+      <c r="D57" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="D53" s="102" t="s">
+      <c r="E57" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="E53" s="106" t="s">
-        <v>988</v>
-      </c>
-      <c r="F53" s="102" t="s">
+      <c r="F57" s="102" t="s">
+        <v>459</v>
+      </c>
+      <c r="G57" s="102" t="s">
+        <v>955</v>
+      </c>
+      <c r="H57" s="82" t="s">
+        <v>920</v>
+      </c>
+      <c r="I57" s="102" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="60">
+      <c r="A58" s="105" t="s">
+        <v>904</v>
+      </c>
+      <c r="B58" s="103" t="s">
+        <v>905</v>
+      </c>
+      <c r="C58" s="139">
+        <v>1</v>
+      </c>
+      <c r="D58" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="E58" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="F58" s="106" t="s">
+        <v>987</v>
+      </c>
+      <c r="G58" s="102" t="s">
+        <v>956</v>
+      </c>
+      <c r="H58" s="82" t="s">
+        <v>957</v>
+      </c>
+      <c r="I58" s="102" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="30">
+      <c r="A59" s="105" t="s">
+        <v>904</v>
+      </c>
+      <c r="B59" s="103" t="s">
+        <v>906</v>
+      </c>
+      <c r="C59" s="139">
+        <v>1</v>
+      </c>
+      <c r="D59" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="E59" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="F59" s="106" t="s">
+        <v>987</v>
+      </c>
+      <c r="G59" s="102" t="s">
+        <v>982</v>
+      </c>
+      <c r="H59" s="82" t="s">
+        <v>959</v>
+      </c>
+      <c r="I59" s="102" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="60">
+      <c r="A60" s="105" t="s">
+        <v>904</v>
+      </c>
+      <c r="B60" s="103" t="s">
+        <v>907</v>
+      </c>
+      <c r="C60" s="139">
+        <v>1</v>
+      </c>
+      <c r="D60" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="E60" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="F60" s="106" t="s">
+        <v>987</v>
+      </c>
+      <c r="G60" s="106" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H60" s="129" t="s">
+        <v>1161</v>
+      </c>
+      <c r="I60" s="106" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="90">
+      <c r="A61" s="103" t="s">
+        <v>908</v>
+      </c>
+      <c r="B61" s="103" t="s">
+        <v>907</v>
+      </c>
+      <c r="C61" s="139">
+        <v>1</v>
+      </c>
+      <c r="D61" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="E61" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="F61" s="106" t="s">
+        <v>987</v>
+      </c>
+      <c r="G61" s="102" t="s">
         <v>634</v>
       </c>
-      <c r="G53" s="102" t="s">
-        <v>621</v>
-      </c>
-      <c r="H53" s="102" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="75">
-      <c r="A54" s="105" t="s">
-        <v>901</v>
-      </c>
-      <c r="B54" s="103" t="s">
-        <v>902</v>
-      </c>
-      <c r="C54" s="102" t="s">
+      <c r="H61" s="102" t="s">
+        <v>583</v>
+      </c>
+      <c r="I61" s="102" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="30">
+      <c r="A62" s="103" t="s">
+        <v>908</v>
+      </c>
+      <c r="B62" s="103" t="s">
+        <v>909</v>
+      </c>
+      <c r="C62" s="139">
+        <v>1</v>
+      </c>
+      <c r="D62" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="D54" s="102" t="s">
+      <c r="E62" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="E54" s="106" t="s">
-        <v>988</v>
-      </c>
-      <c r="F54" s="102" t="s">
-        <v>952</v>
-      </c>
-      <c r="G54" s="82" t="s">
-        <v>953</v>
-      </c>
-      <c r="H54" s="102" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="45">
-      <c r="A55" s="105" t="s">
-        <v>901</v>
-      </c>
-      <c r="B55" s="103" t="s">
-        <v>903</v>
-      </c>
-      <c r="C55" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="D55" s="102" t="s">
-        <v>80</v>
-      </c>
-      <c r="E55" s="106" t="s">
-        <v>988</v>
-      </c>
-      <c r="F55" s="106" t="s">
-        <v>1161</v>
-      </c>
-      <c r="G55" s="129" t="s">
-        <v>1162</v>
-      </c>
-      <c r="H55" s="106" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="90">
-      <c r="A56" s="105" t="s">
-        <v>904</v>
-      </c>
-      <c r="B56" s="103" t="s">
-        <v>902</v>
-      </c>
-      <c r="C56" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="D56" s="102" t="s">
-        <v>80</v>
-      </c>
-      <c r="E56" s="102" t="s">
-        <v>459</v>
-      </c>
-      <c r="F56" s="102" t="s">
-        <v>955</v>
-      </c>
-      <c r="G56" s="82" t="s">
-        <v>953</v>
-      </c>
-      <c r="H56" s="102" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="45">
-      <c r="A57" s="105" t="s">
-        <v>904</v>
-      </c>
-      <c r="B57" s="103" t="s">
-        <v>866</v>
-      </c>
-      <c r="C57" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="D57" s="102" t="s">
-        <v>80</v>
-      </c>
-      <c r="E57" s="102" t="s">
-        <v>459</v>
-      </c>
-      <c r="F57" s="102" t="s">
-        <v>956</v>
-      </c>
-      <c r="G57" s="82" t="s">
-        <v>921</v>
-      </c>
-      <c r="H57" s="102" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="60">
-      <c r="A58" s="105" t="s">
-        <v>905</v>
-      </c>
-      <c r="B58" s="103" t="s">
-        <v>906</v>
-      </c>
-      <c r="C58" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="D58" s="102" t="s">
-        <v>80</v>
-      </c>
-      <c r="E58" s="106" t="s">
-        <v>988</v>
-      </c>
-      <c r="F58" s="102" t="s">
-        <v>957</v>
-      </c>
-      <c r="G58" s="82" t="s">
-        <v>958</v>
-      </c>
-      <c r="H58" s="102" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="30">
-      <c r="A59" s="105" t="s">
-        <v>905</v>
-      </c>
-      <c r="B59" s="103" t="s">
-        <v>907</v>
-      </c>
-      <c r="C59" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="D59" s="102" t="s">
-        <v>80</v>
-      </c>
-      <c r="E59" s="106" t="s">
-        <v>988</v>
-      </c>
-      <c r="F59" s="102" t="s">
-        <v>983</v>
-      </c>
-      <c r="G59" s="82" t="s">
-        <v>960</v>
-      </c>
-      <c r="H59" s="102" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="60">
-      <c r="A60" s="105" t="s">
-        <v>905</v>
-      </c>
-      <c r="B60" s="103" t="s">
-        <v>908</v>
-      </c>
-      <c r="C60" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="D60" s="102" t="s">
-        <v>80</v>
-      </c>
-      <c r="E60" s="106" t="s">
-        <v>988</v>
-      </c>
-      <c r="F60" s="106" t="s">
+      <c r="F62" s="106" t="s">
+        <v>987</v>
+      </c>
+      <c r="G62" s="106" t="s">
         <v>1174</v>
       </c>
-      <c r="G60" s="129" t="s">
-        <v>1162</v>
-      </c>
-      <c r="H60" s="106" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="90">
-      <c r="A61" s="103" t="s">
-        <v>909</v>
-      </c>
-      <c r="B61" s="103" t="s">
-        <v>908</v>
-      </c>
-      <c r="C61" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="D61" s="102" t="s">
-        <v>80</v>
-      </c>
-      <c r="E61" s="106" t="s">
-        <v>988</v>
-      </c>
-      <c r="F61" s="102" t="s">
-        <v>635</v>
-      </c>
-      <c r="G61" s="102" t="s">
-        <v>584</v>
-      </c>
-      <c r="H61" s="102" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="30">
-      <c r="A62" s="103" t="s">
-        <v>909</v>
-      </c>
-      <c r="B62" s="103" t="s">
-        <v>910</v>
-      </c>
-      <c r="C62" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="D62" s="102" t="s">
-        <v>80</v>
-      </c>
-      <c r="E62" s="106" t="s">
-        <v>988</v>
-      </c>
-      <c r="F62" s="106" t="s">
+      <c r="H62" s="106" t="s">
         <v>1175</v>
       </c>
-      <c r="G62" s="106" t="s">
+      <c r="I62" s="106" t="s">
         <v>1176</v>
       </c>
-      <c r="H62" s="106" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63" s="103" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B63" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="102" t="s">
+      <c r="C63" s="139">
+        <v>1</v>
+      </c>
+      <c r="D63" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="D63" s="102" t="s">
+      <c r="E63" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="E63" s="102" t="s">
+      <c r="F63" s="102" t="s">
         <v>461</v>
       </c>
-      <c r="F63" s="102" t="s">
-        <v>837</v>
-      </c>
-      <c r="H63" s="102"/>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="G63" s="102" t="s">
+        <v>836</v>
+      </c>
+      <c r="I63" s="102"/>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64" s="103" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B64" s="103" t="s">
-        <v>565</v>
-      </c>
-      <c r="C64" s="102" t="s">
+        <v>564</v>
+      </c>
+      <c r="C64" s="139">
+        <v>1</v>
+      </c>
+      <c r="D64" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="D64" s="102" t="s">
+      <c r="E64" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="E64" s="107" t="s">
-        <v>989</v>
-      </c>
-      <c r="F64" s="102" t="s">
-        <v>836</v>
-      </c>
-      <c r="H64" s="102"/>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="F64" s="107" t="s">
+        <v>988</v>
+      </c>
+      <c r="G64" s="102" t="s">
+        <v>835</v>
+      </c>
+      <c r="I64" s="102"/>
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65" s="103" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B65" s="103" t="s">
-        <v>562</v>
-      </c>
-      <c r="C65" s="102" t="s">
+        <v>561</v>
+      </c>
+      <c r="C65" s="139">
+        <v>1</v>
+      </c>
+      <c r="D65" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="D65" s="102" t="s">
+      <c r="E65" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="E65" s="107" t="s">
-        <v>989</v>
-      </c>
-      <c r="F65" s="102" t="s">
-        <v>835</v>
-      </c>
-      <c r="H65" s="102"/>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="F65" s="107" t="s">
+        <v>988</v>
+      </c>
+      <c r="G65" s="102" t="s">
+        <v>834</v>
+      </c>
+      <c r="I65" s="102"/>
+    </row>
+    <row r="66" spans="1:19" ht="15.75" thickBot="1">
       <c r="A66" s="103" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B66" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="C66" s="102" t="s">
+      <c r="C66" s="139">
+        <v>1</v>
+      </c>
+      <c r="D66" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="D66" s="102" t="s">
+      <c r="E66" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="E66" s="101" t="s">
+      <c r="F66" s="101" t="s">
+        <v>966</v>
+      </c>
+      <c r="G66" s="102" t="s">
+        <v>833</v>
+      </c>
+      <c r="I66" s="102"/>
+      <c r="J66" s="140"/>
+      <c r="K66" s="140"/>
+      <c r="L66" s="140"/>
+      <c r="M66" s="140"/>
+      <c r="N66" s="140"/>
+      <c r="O66" s="140"/>
+      <c r="P66" s="140"/>
+      <c r="Q66" s="140"/>
+      <c r="R66" s="140"/>
+      <c r="S66" s="140"/>
+    </row>
+    <row r="67" spans="1:19">
+      <c r="A67" s="103" t="s">
+        <v>556</v>
+      </c>
+      <c r="B67" s="103" t="s">
+        <v>830</v>
+      </c>
+      <c r="C67" s="139">
+        <v>1</v>
+      </c>
+      <c r="D67" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="E67" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="F67" s="101" t="s">
+        <v>831</v>
+      </c>
+      <c r="G67" s="102" t="s">
+        <v>832</v>
+      </c>
+      <c r="I67" s="102"/>
+    </row>
+    <row r="68" spans="1:19">
+      <c r="A68" s="103" t="s">
+        <v>556</v>
+      </c>
+      <c r="B68" s="103" t="s">
+        <v>910</v>
+      </c>
+      <c r="C68" s="139">
+        <v>1</v>
+      </c>
+      <c r="D68" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="E68" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="F68" s="101" t="s">
+        <v>831</v>
+      </c>
+      <c r="G68" s="102" t="s">
         <v>967</v>
       </c>
-      <c r="F66" s="102" t="s">
-        <v>834</v>
-      </c>
-      <c r="H66" s="102"/>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="103" t="s">
-        <v>557</v>
-      </c>
-      <c r="B67" s="103" t="s">
-        <v>831</v>
-      </c>
-      <c r="C67" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="D67" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="E67" s="101" t="s">
-        <v>832</v>
-      </c>
-      <c r="F67" s="102" t="s">
-        <v>833</v>
-      </c>
-      <c r="H67" s="102"/>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="103" t="s">
-        <v>557</v>
-      </c>
-      <c r="B68" s="103" t="s">
-        <v>911</v>
-      </c>
-      <c r="C68" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="D68" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="E68" s="101" t="s">
-        <v>832</v>
-      </c>
-      <c r="F68" s="102" t="s">
-        <v>968</v>
-      </c>
-      <c r="H68" s="102"/>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68" s="102"/>
+    </row>
+    <row r="69" spans="1:19">
       <c r="A69" s="103" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B69" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="C69" s="102" t="s">
+      <c r="C69" s="139">
+        <v>1</v>
+      </c>
+      <c r="D69" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="D69" s="102" t="s">
+      <c r="E69" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="E69" s="107" t="s">
-        <v>989</v>
-      </c>
-      <c r="F69" s="102" t="s">
-        <v>969</v>
-      </c>
-      <c r="H69" s="102"/>
-    </row>
-    <row r="70" spans="1:8" ht="60">
+      <c r="F69" s="107" t="s">
+        <v>988</v>
+      </c>
+      <c r="G69" s="102" t="s">
+        <v>968</v>
+      </c>
+      <c r="I69" s="102"/>
+    </row>
+    <row r="70" spans="1:19" ht="60">
       <c r="A70" s="105" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B70" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="C70" s="102" t="s">
+      <c r="C70" s="139">
+        <v>1</v>
+      </c>
+      <c r="D70" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="D70" s="102" t="s">
-        <v>930</v>
-      </c>
       <c r="E70" s="102" t="s">
+        <v>929</v>
+      </c>
+      <c r="F70" s="102" t="s">
+        <v>991</v>
+      </c>
+      <c r="G70" s="102" t="s">
+        <v>969</v>
+      </c>
+      <c r="H70" s="82" t="s">
+        <v>970</v>
+      </c>
+      <c r="I70" s="102" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="30">
+      <c r="A71" s="105" t="s">
+        <v>911</v>
+      </c>
+      <c r="B71" s="103" t="s">
+        <v>564</v>
+      </c>
+      <c r="C71" s="139">
+        <v>1</v>
+      </c>
+      <c r="D71" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="E71" s="102" t="s">
+        <v>929</v>
+      </c>
+      <c r="F71" s="106" t="s">
         <v>992</v>
       </c>
-      <c r="F70" s="102" t="s">
-        <v>970</v>
-      </c>
-      <c r="G70" s="82" t="s">
-        <v>971</v>
-      </c>
-      <c r="H70" s="102" t="s">
+      <c r="G71" s="106" t="s">
+        <v>1170</v>
+      </c>
+      <c r="H71" s="129" t="s">
+        <v>1171</v>
+      </c>
+      <c r="I71" s="106" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
+      <c r="A72" s="105" t="s">
+        <v>911</v>
+      </c>
+      <c r="B72" s="103" t="s">
+        <v>561</v>
+      </c>
+      <c r="C72" s="139">
+        <v>1</v>
+      </c>
+      <c r="D72" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="E72" s="102" t="s">
+        <v>929</v>
+      </c>
+      <c r="F72" s="106" t="s">
+        <v>992</v>
+      </c>
+      <c r="G72" s="102" t="s">
         <v>972</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" ht="30">
-      <c r="A71" s="105" t="s">
-        <v>912</v>
-      </c>
-      <c r="B71" s="103" t="s">
-        <v>565</v>
-      </c>
-      <c r="C71" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="D71" s="102" t="s">
-        <v>930</v>
-      </c>
-      <c r="E71" s="106" t="s">
-        <v>993</v>
-      </c>
-      <c r="F71" s="106" t="s">
-        <v>1171</v>
-      </c>
-      <c r="G71" s="129" t="s">
-        <v>1172</v>
-      </c>
-      <c r="H71" s="106" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="105" t="s">
-        <v>912</v>
-      </c>
-      <c r="B72" s="103" t="s">
-        <v>562</v>
-      </c>
-      <c r="C72" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="D72" s="102" t="s">
-        <v>930</v>
-      </c>
-      <c r="E72" s="106" t="s">
-        <v>993</v>
-      </c>
-      <c r="F72" s="102" t="s">
+      <c r="H72" s="82" t="s">
+        <v>443</v>
+      </c>
+      <c r="I72" s="102" t="s">
         <v>973</v>
       </c>
-      <c r="G72" s="82" t="s">
-        <v>443</v>
-      </c>
-      <c r="H72" s="102" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="60">
+    </row>
+    <row r="73" spans="1:19" ht="60">
       <c r="A73" s="105" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B73" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="C73" s="102" t="s">
+      <c r="C73" s="139">
+        <v>1</v>
+      </c>
+      <c r="D73" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="D73" s="102" t="s">
-        <v>930</v>
-      </c>
       <c r="E73" s="102" t="s">
-        <v>994</v>
-      </c>
-      <c r="F73" s="106" t="s">
-        <v>1170</v>
-      </c>
-      <c r="G73" s="129" t="s">
+        <v>929</v>
+      </c>
+      <c r="F73" s="102" t="s">
+        <v>993</v>
+      </c>
+      <c r="G73" s="106" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H73" s="129" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I73" s="106" t="s">
         <v>1165</v>
       </c>
-      <c r="H73" s="106" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+    </row>
+    <row r="74" spans="1:19">
       <c r="A74" s="105" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B74" s="103" t="s">
         <v>112</v>
       </c>
-      <c r="C74" s="102" t="s">
+      <c r="C74" s="139">
+        <v>1</v>
+      </c>
+      <c r="D74" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="D74" s="102" t="s">
-        <v>930</v>
-      </c>
-      <c r="E74" s="106" t="s">
-        <v>995</v>
-      </c>
-      <c r="F74" s="102" t="s">
-        <v>975</v>
-      </c>
-      <c r="G74" s="82" t="s">
+      <c r="E74" s="102" t="s">
+        <v>929</v>
+      </c>
+      <c r="F74" s="106" t="s">
+        <v>994</v>
+      </c>
+      <c r="G74" s="102" t="s">
+        <v>974</v>
+      </c>
+      <c r="H74" s="82" t="s">
         <v>438</v>
       </c>
-      <c r="H74" s="57">
+      <c r="I74" s="57">
         <v>969696</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="75">
+    <row r="75" spans="1:19" ht="75">
       <c r="A75" s="105" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B75" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="C75" s="102" t="s">
+      <c r="C75" s="139">
+        <v>1</v>
+      </c>
+      <c r="D75" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="D75" s="102" t="s">
-        <v>930</v>
-      </c>
-      <c r="E75" s="106" t="s">
-        <v>995</v>
+      <c r="E75" s="102" t="s">
+        <v>929</v>
       </c>
       <c r="F75" s="106" t="s">
+        <v>994</v>
+      </c>
+      <c r="G75" s="106" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H75" s="129" t="s">
         <v>1164</v>
       </c>
-      <c r="G75" s="129" t="s">
+      <c r="I75" s="106" t="s">
         <v>1165</v>
       </c>
-      <c r="H75" s="106" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="60">
+    </row>
+    <row r="76" spans="1:19" ht="60.75" thickBot="1">
       <c r="A76" s="105" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B76" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="C76" s="102" t="s">
+      <c r="C76" s="139">
+        <v>1</v>
+      </c>
+      <c r="D76" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="D76" s="102" t="s">
-        <v>930</v>
-      </c>
-      <c r="E76" s="106" t="s">
-        <v>993</v>
+      <c r="E76" s="102" t="s">
+        <v>929</v>
       </c>
       <c r="F76" s="106" t="s">
+        <v>992</v>
+      </c>
+      <c r="G76" s="106" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H76" s="129" t="s">
         <v>1167</v>
       </c>
-      <c r="G76" s="129" t="s">
+      <c r="I76" s="106" t="s">
         <v>1168</v>
       </c>
-      <c r="H76" s="106" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="J76" s="140"/>
+      <c r="K76" s="140"/>
+      <c r="L76" s="140"/>
+      <c r="M76" s="140"/>
+      <c r="N76" s="140"/>
+      <c r="O76" s="140"/>
+      <c r="P76" s="140"/>
+      <c r="Q76" s="140"/>
+      <c r="R76" s="140"/>
+      <c r="S76" s="140"/>
+    </row>
+    <row r="77" spans="1:19">
       <c r="A77" s="105" t="s">
+        <v>912</v>
+      </c>
+      <c r="B77" s="103" t="s">
         <v>913</v>
       </c>
-      <c r="B77" s="103" t="s">
+      <c r="C77" s="139">
+        <v>1</v>
+      </c>
+      <c r="D77" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="E77" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="F77" s="102" t="s">
+        <v>995</v>
+      </c>
+      <c r="G77" s="102" t="s">
+        <v>975</v>
+      </c>
+      <c r="I77" s="102"/>
+    </row>
+    <row r="78" spans="1:19" ht="30">
+      <c r="A78" s="105" t="s">
+        <v>912</v>
+      </c>
+      <c r="B78" s="103" t="s">
         <v>914</v>
       </c>
-      <c r="C77" s="102" t="s">
+      <c r="C78" s="139">
+        <v>1</v>
+      </c>
+      <c r="D78" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="E78" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="F78" s="102" t="s">
+        <v>996</v>
+      </c>
+      <c r="G78" s="102" t="s">
+        <v>979</v>
+      </c>
+      <c r="H78" s="82" t="s">
+        <v>980</v>
+      </c>
+      <c r="I78" s="102" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19">
+      <c r="A79" s="105" t="s">
+        <v>912</v>
+      </c>
+      <c r="B79" s="103" t="s">
+        <v>915</v>
+      </c>
+      <c r="C79" s="139">
+        <v>1</v>
+      </c>
+      <c r="D79" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="D77" s="102" t="s">
+      <c r="E79" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="E77" s="102" t="s">
-        <v>996</v>
-      </c>
-      <c r="F77" s="102" t="s">
+      <c r="F79" s="102" t="s">
+        <v>997</v>
+      </c>
+      <c r="G79" s="102" t="s">
         <v>976</v>
       </c>
-      <c r="H77" s="102"/>
-    </row>
-    <row r="78" spans="1:8" ht="30">
-      <c r="A78" s="105" t="s">
-        <v>913</v>
-      </c>
-      <c r="B78" s="103" t="s">
-        <v>915</v>
-      </c>
-      <c r="C78" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="D78" s="102" t="s">
+      <c r="I79" s="102"/>
+    </row>
+    <row r="80" spans="1:19">
+      <c r="A80" s="105" t="s">
+        <v>912</v>
+      </c>
+      <c r="B80" s="103" t="s">
+        <v>916</v>
+      </c>
+      <c r="C80" s="139">
+        <v>1</v>
+      </c>
+      <c r="D80" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="E80" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="E78" s="102" t="s">
+      <c r="F80" s="102" t="s">
         <v>997</v>
       </c>
-      <c r="F78" s="102" t="s">
-        <v>980</v>
-      </c>
-      <c r="G78" s="82" t="s">
-        <v>981</v>
-      </c>
-      <c r="H78" s="102" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="105" t="s">
-        <v>913</v>
-      </c>
-      <c r="B79" s="103" t="s">
-        <v>916</v>
-      </c>
-      <c r="C79" s="102" t="s">
+      <c r="G80" s="102" t="s">
+        <v>977</v>
+      </c>
+      <c r="I80" s="102"/>
+    </row>
+    <row r="81" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A81" s="105" t="s">
+        <v>912</v>
+      </c>
+      <c r="B81" s="103" t="s">
+        <v>917</v>
+      </c>
+      <c r="C81" s="139">
+        <v>1</v>
+      </c>
+      <c r="D81" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="D79" s="102" t="s">
+      <c r="E81" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="E79" s="102" t="s">
-        <v>998</v>
-      </c>
-      <c r="F79" s="102" t="s">
-        <v>977</v>
-      </c>
-      <c r="H79" s="102"/>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="105" t="s">
-        <v>913</v>
-      </c>
-      <c r="B80" s="103" t="s">
-        <v>917</v>
-      </c>
-      <c r="C80" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="D80" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="E80" s="102" t="s">
-        <v>998</v>
-      </c>
-      <c r="F80" s="102" t="s">
+      <c r="F81" s="102" t="s">
+        <v>997</v>
+      </c>
+      <c r="G81" s="102" t="s">
         <v>978</v>
       </c>
-      <c r="H80" s="102"/>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="105" t="s">
-        <v>913</v>
-      </c>
-      <c r="B81" s="103" t="s">
-        <v>918</v>
-      </c>
-      <c r="C81" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="D81" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="E81" s="102" t="s">
-        <v>998</v>
-      </c>
-      <c r="F81" s="102" t="s">
-        <v>979</v>
-      </c>
-      <c r="H81" s="102"/>
+      <c r="I81" s="102"/>
+      <c r="J81" s="140"/>
+      <c r="K81" s="140"/>
+      <c r="L81" s="140"/>
+      <c r="M81" s="140"/>
+      <c r="N81" s="140"/>
+      <c r="O81" s="140"/>
+      <c r="P81" s="140"/>
+      <c r="Q81" s="140"/>
+      <c r="R81" s="140"/>
+      <c r="S81" s="140"/>
+    </row>
+    <row r="96" spans="1:19" ht="15.75" thickBot="1">
+      <c r="J96" s="140"/>
+      <c r="K96" s="140"/>
+      <c r="L96" s="140"/>
+      <c r="M96" s="140"/>
+      <c r="N96" s="140"/>
+      <c r="O96" s="140"/>
+      <c r="P96" s="140"/>
+      <c r="Q96" s="140"/>
+      <c r="R96" s="140"/>
+      <c r="S96" s="140"/>
+    </row>
+    <row r="101" spans="10:19" ht="15.75" thickBot="1">
+      <c r="J101" s="140"/>
+      <c r="K101" s="140"/>
+      <c r="L101" s="140"/>
+      <c r="M101" s="140"/>
+      <c r="N101" s="140"/>
+      <c r="O101" s="140"/>
+      <c r="P101" s="140"/>
+      <c r="Q101" s="140"/>
+      <c r="R101" s="140"/>
+      <c r="S101" s="140"/>
+    </row>
+    <row r="105" spans="10:19" ht="15.75" thickBot="1">
+      <c r="J105" s="140"/>
+      <c r="K105" s="140"/>
+      <c r="L105" s="140"/>
+      <c r="M105" s="140"/>
+      <c r="N105" s="140"/>
+      <c r="O105" s="140"/>
+      <c r="P105" s="140"/>
+      <c r="Q105" s="140"/>
+      <c r="R105" s="140"/>
+      <c r="S105" s="140"/>
+    </row>
+    <row r="111" spans="10:19" ht="15.75" thickBot="1">
+      <c r="J111" s="140"/>
+      <c r="K111" s="140"/>
+      <c r="L111" s="140"/>
+      <c r="M111" s="140"/>
+      <c r="N111" s="140"/>
+      <c r="O111" s="140"/>
+      <c r="P111" s="140"/>
+      <c r="Q111" s="140"/>
+      <c r="R111" s="140"/>
+      <c r="S111" s="140"/>
+    </row>
+    <row r="114" spans="10:19" ht="15.75" thickBot="1">
+      <c r="J114" s="140"/>
+      <c r="K114" s="140"/>
+      <c r="L114" s="140"/>
+      <c r="M114" s="140"/>
+      <c r="N114" s="140"/>
+      <c r="O114" s="140"/>
+      <c r="P114" s="140"/>
+      <c r="Q114" s="140"/>
+      <c r="R114" s="140"/>
+      <c r="S114" s="140"/>
+    </row>
+    <row r="127" spans="10:19" ht="15.75" thickBot="1">
+      <c r="J127" s="140"/>
+      <c r="K127" s="140"/>
+      <c r="L127" s="140"/>
+      <c r="M127" s="140"/>
+      <c r="N127" s="140"/>
+      <c r="O127" s="140"/>
+      <c r="P127" s="140"/>
+      <c r="Q127" s="140"/>
+      <c r="R127" s="140"/>
+      <c r="S127" s="140"/>
+    </row>
+    <row r="139" spans="10:19" ht="15.75" thickBot="1">
+      <c r="J139" s="140"/>
+      <c r="K139" s="140"/>
+      <c r="L139" s="140"/>
+      <c r="M139" s="140"/>
+      <c r="N139" s="140"/>
+      <c r="O139" s="140"/>
+      <c r="P139" s="140"/>
+      <c r="Q139" s="140"/>
+      <c r="R139" s="140"/>
+      <c r="S139" s="140"/>
+    </row>
+    <row r="149" spans="10:19" ht="15.75" thickBot="1">
+      <c r="J149" s="140"/>
+      <c r="K149" s="140"/>
+      <c r="L149" s="140"/>
+      <c r="M149" s="140"/>
+      <c r="N149" s="140"/>
+      <c r="O149" s="140"/>
+      <c r="P149" s="140"/>
+      <c r="Q149" s="140"/>
+      <c r="R149" s="140"/>
+      <c r="S149" s="140"/>
+    </row>
+    <row r="155" spans="10:19" ht="15.75" thickBot="1">
+      <c r="J155" s="140"/>
+      <c r="K155" s="140"/>
+      <c r="L155" s="140"/>
+      <c r="M155" s="140"/>
+      <c r="N155" s="140"/>
+      <c r="O155" s="140"/>
+      <c r="P155" s="140"/>
+      <c r="Q155" s="140"/>
+      <c r="R155" s="140"/>
+      <c r="S155" s="140"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:C81">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -26310,27 +26986,27 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
-        <v>1097</v>
+      <c r="A2" s="26" t="s">
+        <v>1096</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>88</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="26" t="s">
+        <v>998</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="26" t="s">
         <v>999</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B4" s="10" t="s">
         <v>1140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="10" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>1141</v>
       </c>
     </row>
   </sheetData>
@@ -26343,7 +27019,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
@@ -26374,7 +27052,7 @@
     </row>
     <row r="2" spans="1:5" ht="45">
       <c r="A2" s="4" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B2" s="4">
         <v>2030</v>
@@ -26388,12 +27066,12 @@
         <v>707.22600000000011</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="75">
       <c r="A3" s="4" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B3" s="4">
         <v>2030</v>
@@ -26407,12 +27085,12 @@
         <v>580.28800000000001</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30">
       <c r="A4" s="4" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B4" s="4">
         <v>2050</v>
@@ -26426,12 +27104,12 @@
         <v>275.26039978737401</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="130" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B7" s="131"/>
       <c r="C7" s="131"/>
@@ -26440,12 +27118,12 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="10" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="50" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -26453,12 +27131,12 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="10" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="10" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -26466,22 +27144,22 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="10" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="10" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="10" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="10" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -26489,12 +27167,12 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="10" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="10" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -26502,7 +27180,7 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="10" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -26510,22 +27188,22 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="10" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="10" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="10" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="10" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -26533,27 +27211,27 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="10" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="10" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="10" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="10" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="10" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -26561,32 +27239,32 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="10" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="10" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="10" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="10" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="10" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="10" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -26594,12 +27272,12 @@
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="10" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="10" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="44" spans="1:1">
@@ -26607,17 +27285,17 @@
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="10" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="10" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="10" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="48" spans="1:1">
@@ -26625,7 +27303,7 @@
     </row>
     <row r="49" spans="1:5" ht="15.75" thickBot="1">
       <c r="A49" s="14" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1">
@@ -26633,7 +27311,7 @@
         <v>906.7</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -26645,7 +27323,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="10" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -26654,7 +27332,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="10" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B53" s="18">
         <v>0.22</v>
@@ -26665,7 +27343,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="24" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B54" s="18">
         <v>0.36</v>
@@ -26683,7 +27361,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="10" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -26692,28 +27370,28 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="10" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B57" s="132">
         <f>A$50*(1-B53)</f>
         <v>707.22600000000011</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="24" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B58" s="132">
         <f>A$50*(1-B54)</f>
         <v>580.28800000000001</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
@@ -26734,7 +27412,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="130" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B61" s="131"/>
       <c r="C61" s="131"/>
@@ -26743,7 +27421,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="10" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -26752,7 +27430,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="50" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -26768,7 +27446,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="24" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -26784,7 +27462,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="10" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -26793,7 +27471,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="10" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -26802,7 +27480,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="50" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -26818,7 +27496,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="10" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -26827,7 +27505,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="10" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -26836,7 +27514,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="10" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -26852,7 +27530,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="10" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -26864,7 +27542,7 @@
         <v>536410.97100000002</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
@@ -26879,7 +27557,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="10" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -26891,10 +27569,10 @@
         <v>-4278.9770122567843</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D79" s="10"/>
       <c r="E79" s="10"/>
@@ -26904,10 +27582,10 @@
         <v>10958.490077151</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D80" s="10"/>
       <c r="E80" s="10"/>
@@ -26917,10 +27595,10 @@
         <v>5602.3630383443797</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D81" s="10"/>
       <c r="E81" s="10"/>
@@ -26930,10 +27608,10 @@
         <v>171.63094871223001</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
@@ -26943,10 +27621,10 @@
         <v>1606.137033003313</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D83" s="10"/>
       <c r="E83" s="10"/>
@@ -26956,10 +27634,10 @@
         <v>50.184489793911389</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
@@ -26970,10 +27648,10 @@
         <v>14109.828574748051</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D85" s="10"/>
       <c r="E85" s="10"/>
@@ -26987,7 +27665,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="10" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -27000,7 +27678,7 @@
         <v>550520.79957474803</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
@@ -27012,7 +27690,7 @@
         <v>550.52079957474803</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
@@ -27027,7 +27705,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="10" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B91" s="18">
         <v>0.5</v>
@@ -27045,14 +27723,14 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="10" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B93" s="132">
         <f>A89*B91</f>
         <v>275.26039978737401</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D93" s="10"/>
       <c r="E93" s="10"/>
@@ -27079,7 +27757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AM197"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -27106,13 +27784,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="138" t="s">
@@ -27181,13 +27859,13 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="134" t="s">
+      <c r="A60" s="137" t="s">
         <v>205</v>
       </c>
-      <c r="B60" s="134"/>
-      <c r="C60" s="134"/>
-      <c r="D60" s="134"/>
-      <c r="E60" s="134"/>
+      <c r="B60" s="137"/>
+      <c r="C60" s="137"/>
+      <c r="D60" s="137"/>
+      <c r="E60" s="137"/>
     </row>
     <row r="85" spans="1:39" s="13" customFormat="1">
       <c r="A85" s="10" t="s">
@@ -27292,13 +27970,13 @@
       </c>
     </row>
     <row r="89" spans="1:39">
-      <c r="A89" s="134" t="s">
+      <c r="A89" s="137" t="s">
         <v>206</v>
       </c>
-      <c r="B89" s="134"/>
-      <c r="C89" s="134"/>
-      <c r="D89" s="134"/>
-      <c r="E89" s="134"/>
+      <c r="B89" s="137"/>
+      <c r="C89" s="137"/>
+      <c r="D89" s="137"/>
+      <c r="E89" s="137"/>
     </row>
     <row r="90" spans="1:39">
       <c r="A90" s="10">
@@ -27385,13 +28063,13 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="134" t="s">
+      <c r="A98" s="137" t="s">
         <v>207</v>
       </c>
-      <c r="B98" s="134"/>
-      <c r="C98" s="134"/>
-      <c r="D98" s="134"/>
-      <c r="E98" s="134"/>
+      <c r="B98" s="137"/>
+      <c r="C98" s="137"/>
+      <c r="D98" s="137"/>
+      <c r="E98" s="137"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="18">
@@ -27475,13 +28153,13 @@
       <c r="A108" s="21"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="134" t="s">
+      <c r="A109" s="137" t="s">
         <v>209</v>
       </c>
-      <c r="B109" s="134"/>
-      <c r="C109" s="134"/>
-      <c r="D109" s="134"/>
-      <c r="E109" s="134"/>
+      <c r="B109" s="137"/>
+      <c r="C109" s="137"/>
+      <c r="D109" s="137"/>
+      <c r="E109" s="137"/>
     </row>
     <row r="110" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="111" spans="1:5" ht="15.75" thickBot="1">
@@ -27494,13 +28172,13 @@
       </c>
     </row>
     <row r="113" spans="1:14">
-      <c r="A113" s="134" t="s">
+      <c r="A113" s="137" t="s">
         <v>208</v>
       </c>
-      <c r="B113" s="134"/>
-      <c r="C113" s="134"/>
-      <c r="D113" s="134"/>
-      <c r="E113" s="134"/>
+      <c r="B113" s="137"/>
+      <c r="C113" s="137"/>
+      <c r="D113" s="137"/>
+      <c r="E113" s="137"/>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="18">
@@ -27581,13 +28259,13 @@
       </c>
     </row>
     <row r="124" spans="1:14">
-      <c r="A124" s="134" t="s">
+      <c r="A124" s="137" t="s">
         <v>494</v>
       </c>
-      <c r="B124" s="134"/>
-      <c r="C124" s="134"/>
-      <c r="D124" s="134"/>
-      <c r="E124" s="134"/>
+      <c r="B124" s="137"/>
+      <c r="C124" s="137"/>
+      <c r="D124" s="137"/>
+      <c r="E124" s="137"/>
       <c r="L124" s="22"/>
     </row>
     <row r="125" spans="1:14">
@@ -27678,13 +28356,13 @@
       <c r="C133" s="16"/>
     </row>
     <row r="134" spans="1:14">
-      <c r="A134" s="134" t="s">
+      <c r="A134" s="137" t="s">
         <v>118</v>
       </c>
-      <c r="B134" s="134"/>
-      <c r="C134" s="134"/>
-      <c r="D134" s="134"/>
-      <c r="E134" s="134"/>
+      <c r="B134" s="137"/>
+      <c r="C134" s="137"/>
+      <c r="D134" s="137"/>
+      <c r="E134" s="137"/>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="28" t="s">
@@ -27699,25 +28377,25 @@
     </row>
     <row r="136" spans="1:14" ht="15.75">
       <c r="A136" s="30"/>
-      <c r="B136" s="135" t="s">
+      <c r="B136" s="134" t="s">
         <v>514</v>
       </c>
-      <c r="C136" s="136"/>
-      <c r="D136" s="136"/>
-      <c r="E136" s="137"/>
+      <c r="C136" s="135"/>
+      <c r="D136" s="135"/>
+      <c r="E136" s="136"/>
       <c r="F136" s="29"/>
       <c r="G136" s="29"/>
     </row>
     <row r="137" spans="1:14" ht="15.75">
       <c r="A137" s="31"/>
-      <c r="B137" s="135" t="s">
+      <c r="B137" s="134" t="s">
         <v>515</v>
       </c>
-      <c r="C137" s="137"/>
-      <c r="D137" s="135" t="s">
+      <c r="C137" s="136"/>
+      <c r="D137" s="134" t="s">
         <v>516</v>
       </c>
-      <c r="E137" s="137"/>
+      <c r="E137" s="136"/>
       <c r="F137" s="29"/>
       <c r="G137" s="29"/>
     </row>
@@ -28264,13 +28942,13 @@
       <c r="G163" s="29"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="134" t="s">
+      <c r="A165" s="137" t="s">
         <v>212</v>
       </c>
-      <c r="B165" s="134"/>
-      <c r="C165" s="134"/>
-      <c r="D165" s="134"/>
-      <c r="E165" s="134"/>
+      <c r="B165" s="137"/>
+      <c r="C165" s="137"/>
+      <c r="D165" s="137"/>
+      <c r="E165" s="137"/>
     </row>
     <row r="166" spans="1:7" ht="15.75" thickBot="1">
       <c r="A166" s="24" t="s">
@@ -28293,10 +28971,10 @@
       <c r="B168" s="47"/>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="134" t="s">
+      <c r="A169" s="137" t="s">
         <v>502</v>
       </c>
-      <c r="B169" s="134"/>
+      <c r="B169" s="137"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="24" t="s">
@@ -28328,13 +29006,13 @@
       <c r="B173" s="47"/>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="134" t="s">
+      <c r="A174" s="137" t="s">
         <v>222</v>
       </c>
-      <c r="B174" s="134"/>
-      <c r="C174" s="134"/>
-      <c r="D174" s="134"/>
-      <c r="E174" s="134"/>
+      <c r="B174" s="137"/>
+      <c r="C174" s="137"/>
+      <c r="D174" s="137"/>
+      <c r="E174" s="137"/>
     </row>
     <row r="175" spans="1:7" ht="15.75" thickBot="1">
       <c r="A175" s="24" t="s">
@@ -28354,13 +29032,13 @@
       </c>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="134" t="s">
+      <c r="A178" s="137" t="s">
         <v>215</v>
       </c>
-      <c r="B178" s="134"/>
-      <c r="C178" s="134"/>
-      <c r="D178" s="134"/>
-      <c r="E178" s="134"/>
+      <c r="B178" s="137"/>
+      <c r="C178" s="137"/>
+      <c r="D178" s="137"/>
+      <c r="E178" s="137"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="26" t="s">
@@ -28388,17 +29066,17 @@
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="134" t="s">
+      <c r="A183" s="137" t="s">
         <v>217</v>
       </c>
-      <c r="B183" s="134"/>
-      <c r="C183" s="134"/>
-      <c r="D183" s="134"/>
-      <c r="E183" s="134"/>
+      <c r="B183" s="137"/>
+      <c r="C183" s="137"/>
+      <c r="D183" s="137"/>
+      <c r="E183" s="137"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="24" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B184" s="92">
         <v>1.2E-2</v>
@@ -28406,7 +29084,7 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="24" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B185" s="92">
         <v>2.4E-2</v>
@@ -28414,7 +29092,7 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="24" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B186" s="10">
         <f>2050-2018+1</f>
@@ -28423,7 +29101,7 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="24" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B187" s="16">
         <f>(1-B184)^B186</f>
@@ -28432,7 +29110,7 @@
     </row>
     <row r="188" spans="1:5" ht="15.75" thickBot="1">
       <c r="A188" s="24" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B188" s="16">
         <f>(1-B185)^B186</f>
@@ -28441,7 +29119,7 @@
     </row>
     <row r="189" spans="1:5" ht="15.75" thickBot="1">
       <c r="A189" s="24" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B189" s="20">
         <f>(B187-B188)/B187</f>
@@ -28449,13 +29127,13 @@
       </c>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="134" t="s">
+      <c r="A191" s="137" t="s">
         <v>234</v>
       </c>
-      <c r="B191" s="134"/>
-      <c r="C191" s="134"/>
-      <c r="D191" s="134"/>
-      <c r="E191" s="134"/>
+      <c r="B191" s="137"/>
+      <c r="C191" s="137"/>
+      <c r="D191" s="137"/>
+      <c r="E191" s="137"/>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="22" t="s">
@@ -28515,6 +29193,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A191:E191"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="A169:B169"/>
     <mergeCell ref="B136:E136"/>
     <mergeCell ref="B137:C137"/>
     <mergeCell ref="D137:E137"/>
@@ -28529,12 +29213,6 @@
     <mergeCell ref="A113:E113"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A191:E191"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="A169:B169"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -28546,9 +29224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75"/>
   <cols>
@@ -28564,7 +29240,7 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="124" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C1" s="123"/>
       <c r="D1" s="123">
@@ -28599,10 +29275,10 @@
       </c>
       <c r="N1" s="123"/>
       <c r="Q1" s="114" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="R1" s="114" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -28642,19 +29318,19 @@
       </c>
       <c r="N2" s="123"/>
       <c r="O2" s="114" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="P2" s="114" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="Q2" s="114" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="R2" s="114" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="S2" s="114" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -28662,7 +29338,7 @@
         <v>148</v>
       </c>
       <c r="B3" s="114" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C3" s="114">
         <v>29.63</v>
@@ -28714,13 +29390,13 @@
         <v>4.5302148271060272E-3</v>
       </c>
       <c r="S3" s="114" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="115"/>
       <c r="C4" s="114" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D4" s="114">
         <f t="shared" ref="D4:M4" si="0">D3/$C$3*100</f>
@@ -28771,7 +29447,7 @@
         <v>149</v>
       </c>
       <c r="B6" s="114" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C6" s="114">
         <v>2.1800000000000002</v>
@@ -28823,13 +29499,13 @@
         <v>0.19043628222971321</v>
       </c>
       <c r="S6" s="114" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="115"/>
       <c r="C7" s="114" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D7" s="114">
         <f t="shared" ref="D7:M7" si="1">D6/$C$3*100</f>
@@ -28887,32 +29563,32 @@
         <v>33</v>
       </c>
       <c r="B10" s="114" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C10" s="114" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D10" s="114">
         <v>181</v>
       </c>
       <c r="E10" s="114" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="I10" s="120" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="115"/>
       <c r="C11" s="114" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D11" s="118">
         <f>SUM(D14:P14)/1000</f>
         <v>157.92479931999998</v>
       </c>
       <c r="E11" s="114" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F11" s="119"/>
       <c r="G11" s="119">
@@ -28920,26 +29596,26 @@
         <v>104.23036755119999</v>
       </c>
       <c r="H11" s="114" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="I11" s="119">
         <f>G11*0.14</f>
         <v>14.592251457168</v>
       </c>
       <c r="J11" s="114" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="115"/>
       <c r="C12" s="114" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D12" s="118">
         <v>1600</v>
       </c>
       <c r="E12" s="114" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F12" s="117">
         <f>D10/(D12*0.8)</f>
@@ -28949,43 +29625,43 @@
     <row r="13" spans="1:19">
       <c r="A13" s="115"/>
       <c r="D13" s="114" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E13" s="114" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F13" s="114" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G13" s="114" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H13" s="114" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="I13" s="114" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="J13" s="114" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="K13" s="114" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="L13" s="114" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="M13" s="114" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="N13" s="114" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="O13" s="114" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="P13" s="114" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="14" spans="1:19">

--- a/WebAppData.xlsx
+++ b/WebAppData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swenzel\Dropbox (Energy Innovation)\My PC (energy044)\Documents\GitHub_Repositories\eps-mexico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB80A60-4154-425B-83DA-C8395D46A275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A79ECF-1FA7-40E2-9107-8B7651639062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12600" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="846" activeTab="2" xr2:uid="{7F8E5A4A-C51A-49F4-869D-101A5B79EC05}"/>
+    <workbookView xWindow="12600" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="846" activeTab="1" xr2:uid="{7F8E5A4A-C51A-49F4-869D-101A5B79EC05}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="10" r:id="rId1"/>
@@ -3214,9 +3214,6 @@
     <t>Export data from National Energy Balance 2016</t>
   </si>
   <si>
-    <t>**Description:** This policy increases or decreases the amount of electricity exported from Mexico to the United States, Belize and Guatemala.  It does not cause the construction or removal of transmission lines linking these countries. // **Guidance for setting values:** From 2010 to 2016 electricity exports have grown at 6% p.a. from 22 to 31 PJ.</t>
-  </si>
-  <si>
     <t>**Description:** This policy represents regulations that cause more demand response (DR) capacity to be added to the electric grid.  Demand response provides flexibility that allows for the integration of more wind and solar PV, if the electricity system is flexibility-constrained. // **Guidance for setting values:** This lever adds additional demand response capacity on top of Reference case values.</t>
   </si>
   <si>
@@ -3832,12 +3829,6 @@
     <t>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years). This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  The average capacity factor of new turbines in the BAU case is roughly 43%, so an improvement to 53% might be represented as an 18% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</t>
   </si>
   <si>
-    <t>**Description:** This policy causes the specified quantity of otherwise non-retiring capacity of the selected type(s) to be retired each year. // **Guidance for setting values:** // **Hard Coal:** PRODESEN's schedule has 1400 MW of coal capacity retirement in 2029-2030. Additional retirement projects up to 2800 MW retired by 2050 in the reference scenario. An "Accelerated Coal Retirement" policy should not exceed existing coal capacity (5387MW) plus any added by the model.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy increases or decreases the amount of electricity imported to Mexico from surrounding nations.  It does not cause the construction or removal of transmission lines linking these countries. // **Guidance for setting values:** From 2010 to 2016 electricity imports have grown from what have been a fairly constant 1.5 PJ to 12 PJ by 2016, although electricity imports are still 40% of exports (31 PJ).</t>
-  </si>
-  <si>
     <t>**Description:** This policy prevents new capacity of the selected type(s) from being built or deployed.</t>
   </si>
   <si>
@@ -3850,18 +3841,12 @@
     <t xml:space="preserve">**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** Some studies have shown that applying New Appliance/Equipment Efficiency Standards and Building Efficiency Codes could reduce around 30% in whole-building energy use relative to Reference in a period of 15 years. </t>
   </si>
   <si>
-    <t>**Description:** This policy replaces the specified fraction of newly sold non-electric building components of the selected type(s) in buildings of the selected type(s) with electricity-using components. // **Guidance for setting values:** // **Urban Residential:** In the Reference case, the share of electricity among fuels used by urban and rural residential buildings is 28% in Mexico.  // **Rural Residential:** In the Reference case, the share of electricity among fuels used by urban and rural residential buildings is 28% in Mexico.  // **Commercial:** In the Reference case, the share of electricity among fuels used by commercial buildings is 50% in Mexico.</t>
-  </si>
-  <si>
     <t xml:space="preserve">**Description:** Transportation Demand Management (TDM) represents a set of policies aimed at reducing demand for certain modes of travel. Passenger Transportation Demand Management (TDM) is aimed at reducing demand for passenger travel, especially in private automobiles.  These policies can include improved public transit systems, more walking and bike paths, zoning for higher density along transit corridors, zoning for mixed-use developments, roadway and congestion pricing, and increased parking fees.  Freight Transportation Demand Management (TDM) represents a set of policies aimed primarily at shifting freight from trucks to rail.  We use the International Energy Agency's BLUE Shifts scenario (from the 2009 report "Transport, Energy, and CO2: Moving Toward Sustainability") to represent passenger TDM policies as a whole. // **Guidance for setting values:** A value of "100%" fully implements the IEA's BLUE Shifts scenario by 2050, which is in line with IEA expectations (since their scenario assumes implementation by 2050). </t>
   </si>
   <si>
     <t>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **Aircraft:** Mexico currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 29% from 2017-2050 in the Reference case. // **Rail:** Mexico currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 26% from 2017-2050 in the BAU case. // **Ships:** Mexico currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 30% from 2017-2050 in the Refrence case. // **Motorbikes:** Mexico currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</t>
   </si>
   <si>
-    <t>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric vehicles for the selected type(s).  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Mexico there is no federal subsidy for electric vehicle. In countries like the U.S. they offer a federal subsidy for up to $7,500 for qualifying electric vehicles, which represents 20% of the MSRP of a 2017 Chevrolet Bolt EV or 21% of the MSRP of a Tesla Model 3.</t>
-  </si>
-  <si>
     <t>**Description:** This policy requires the specified percentage of newly sold vehicles of the selected type(s) to consist of battery electric vehicles. If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect. Manufactures may meet a sales standard through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Mexico does not have a scheme for EV sales mandate, nevertheless this lever can be used to simulate an accelerated deployment of EVs.</t>
   </si>
   <si>
@@ -3872,6 +3857,21 @@
   </si>
   <si>
     <t>This tab contains information about each policy that does not vary by subscripted element of that policy.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric passenger LDVs.  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Mexico there is no federal subsidy for electric vehicle. In countries like the U.S. they offer a federal subsidy for up to $7,500 for qualifying electric vehicles, which represents 20% of the MSRP of a 2017 Chevrolet Bolt EV or 21% of the MSRP of a Tesla Model 3.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy replaces the specified fraction of newly sold non-electric building components in buildings of the selected type(s) with electricity-using components. // **Guidance for setting values:** // **Urban Residential:** In the Reference case, the share of electricity among fuels used by urban and rural residential buildings is 28% in Mexico.  // **Rural Residential:** In the Reference case, the share of electricity among fuels used by urban and rural residential buildings is 28% in Mexico.  // **Commercial:** In the Reference case, the share of electricity among fuels used by commercial buildings is 50% in Mexico.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy increases or decreases the amount of electricity exported from Mexico to the United States.  It does not cause the construction or removal of transmission lines linking these countries. // **Guidance for setting values:** From 2010 to 2016 electricity exports have grown at 6% p.a. from 22 to 31 PJ.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy increases or decreases the amount of electricity imported to Mexico from the United States.  It does not cause the construction or removal of transmission lines linking these countries. // **Guidance for setting values:** From 2010 to 2016 electricity imports have grown from what have been a fairly constant 1.5 PJ to 12 PJ by 2016, although electricity imports are still 40% of exports (31 PJ).</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the specified quantity of otherwise non-retiring coal capacity to be retired each year. // **Guidance for setting values:** // **Hard Coal:** PRODESEN's schedule has 1400 MW of coal capacity retirement in 2029-2030. Additional retirement projects up to 2800 MW retired by 2050 in the reference scenario. An "Accelerated Coal Retirement" policy should not exceed existing coal capacity (5387MW) plus any added by the model.</t>
   </si>
 </sst>
 </file>
@@ -4901,6 +4901,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4915,9 +4918,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
@@ -5806,8 +5806,8 @@
   </sheetPr>
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="F23" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -5825,7 +5825,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A1" s="147" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="B1" s="145"/>
       <c r="C1" s="145"/>
@@ -5839,7 +5839,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A2" s="146" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="B2" s="145"/>
       <c r="C2" s="145"/>
@@ -5888,16 +5888,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>987</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>988</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>989</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>990</v>
       </c>
       <c r="F4" s="123">
         <v>0</v>
@@ -5909,10 +5909,10 @@
         <v>0.02</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="J4" s="148" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.75">
@@ -5976,7 +5976,7 @@
         <v>600</v>
       </c>
       <c r="J6" s="148" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
@@ -6040,7 +6040,7 @@
         <v>559</v>
       </c>
       <c r="J8" s="148" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="117.25" customHeight="1" x14ac:dyDescent="0.75">
@@ -6073,7 +6073,7 @@
         <v>131</v>
       </c>
       <c r="J9" s="148" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="41" customHeight="1" x14ac:dyDescent="0.75">
@@ -6105,7 +6105,7 @@
         <v>607</v>
       </c>
       <c r="J10" s="148" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="87.5" customHeight="1" x14ac:dyDescent="0.75">
@@ -6137,7 +6137,7 @@
         <v>45</v>
       </c>
       <c r="J11" s="148" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="73.75" customHeight="1" x14ac:dyDescent="0.75">
@@ -6169,7 +6169,7 @@
         <v>133</v>
       </c>
       <c r="J12" s="148" t="s">
-        <v>1130</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="76.75" customHeight="1" x14ac:dyDescent="0.75">
@@ -6202,7 +6202,7 @@
         <v>39</v>
       </c>
       <c r="J13" s="148" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="43" customHeight="1" x14ac:dyDescent="0.75">
@@ -6234,7 +6234,7 @@
         <v>36</v>
       </c>
       <c r="J14" s="148" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.75">
@@ -6267,7 +6267,7 @@
         <v>327</v>
       </c>
       <c r="J15" s="148" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="49.25" customHeight="1" x14ac:dyDescent="0.75">
@@ -6299,7 +6299,7 @@
         <v>334</v>
       </c>
       <c r="J16" s="148" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.75">
@@ -6364,7 +6364,7 @@
         <v>44</v>
       </c>
       <c r="J18" s="148" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
@@ -6396,7 +6396,7 @@
         <v>36</v>
       </c>
       <c r="J19" s="148" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
@@ -6428,7 +6428,7 @@
         <v>36</v>
       </c>
       <c r="J20" s="148" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="51.25" customHeight="1" x14ac:dyDescent="0.75">
@@ -6460,7 +6460,7 @@
         <v>339</v>
       </c>
       <c r="J21" s="148" t="s">
-        <v>918</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
@@ -6492,7 +6492,7 @@
         <v>340</v>
       </c>
       <c r="J22" s="148" t="s">
-        <v>1125</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
@@ -6546,7 +6546,7 @@
         <v>42</v>
       </c>
       <c r="J24" s="148" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="61" customHeight="1" x14ac:dyDescent="0.75">
@@ -6578,7 +6578,7 @@
         <v>237</v>
       </c>
       <c r="J25" s="148" t="s">
-        <v>1124</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
@@ -6610,7 +6610,7 @@
         <v>37</v>
       </c>
       <c r="J26" s="148" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
@@ -6643,7 +6643,7 @@
         <v>153</v>
       </c>
       <c r="J27" s="148" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
@@ -6747,7 +6747,7 @@
         <v>322</v>
       </c>
       <c r="J31" s="148" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.75">
@@ -6779,7 +6779,7 @@
         <v>774</v>
       </c>
       <c r="J32" s="149" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="71.5" customHeight="1" x14ac:dyDescent="0.75">
@@ -6811,7 +6811,7 @@
         <v>315</v>
       </c>
       <c r="J33" s="148" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
@@ -6844,7 +6844,7 @@
         <v>43</v>
       </c>
       <c r="J34" s="148" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
@@ -6876,7 +6876,7 @@
         <v>179</v>
       </c>
       <c r="J35" s="148" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
@@ -6908,7 +6908,7 @@
         <v>42</v>
       </c>
       <c r="J36" s="148" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="63.25" customHeight="1" x14ac:dyDescent="0.75">
@@ -6940,7 +6940,7 @@
         <v>42</v>
       </c>
       <c r="J37" s="148" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
@@ -6972,7 +6972,7 @@
         <v>42</v>
       </c>
       <c r="J38" s="148" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="69.25" customHeight="1" x14ac:dyDescent="0.75">
@@ -7005,7 +7005,7 @@
         <v>39</v>
       </c>
       <c r="J39" s="148" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="34" customHeight="1" x14ac:dyDescent="0.75">
@@ -7037,7 +7037,7 @@
         <v>42</v>
       </c>
       <c r="J40" s="148" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.75">
@@ -7069,7 +7069,7 @@
         <v>38</v>
       </c>
       <c r="J41" s="148" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="76" customHeight="1" x14ac:dyDescent="0.75">
@@ -7101,7 +7101,7 @@
         <v>399</v>
       </c>
       <c r="J42" s="148" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="65.900000000000006" customHeight="1" x14ac:dyDescent="0.75">
@@ -7133,7 +7133,7 @@
         <v>42</v>
       </c>
       <c r="J43" s="148" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
@@ -7165,7 +7165,7 @@
         <v>42</v>
       </c>
       <c r="J44" s="148" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
@@ -7197,7 +7197,7 @@
         <v>42</v>
       </c>
       <c r="J45" s="148" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
@@ -7229,7 +7229,7 @@
         <v>42</v>
       </c>
       <c r="J46" s="148" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.75">
@@ -7261,7 +7261,7 @@
         <v>42</v>
       </c>
       <c r="J47" s="148" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.75">
@@ -7337,7 +7337,7 @@
         <v>42</v>
       </c>
       <c r="J50" s="148" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="48.5" customHeight="1" x14ac:dyDescent="0.75">
@@ -7369,7 +7369,7 @@
         <v>42</v>
       </c>
       <c r="J51" s="148" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="46.25" customHeight="1" x14ac:dyDescent="0.75">
@@ -7401,7 +7401,7 @@
         <v>42</v>
       </c>
       <c r="J52" s="148" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
@@ -7433,7 +7433,7 @@
         <v>42</v>
       </c>
       <c r="J53" s="148" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="53.75" customHeight="1" x14ac:dyDescent="0.75">
@@ -7487,7 +7487,7 @@
         <v>42</v>
       </c>
       <c r="J55" s="148" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
@@ -7551,7 +7551,7 @@
         <v>38</v>
       </c>
       <c r="J57" s="149" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
@@ -7583,7 +7583,7 @@
         <v>42</v>
       </c>
       <c r="J58" s="148" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
@@ -7615,7 +7615,7 @@
         <v>177</v>
       </c>
       <c r="J59" s="148" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
@@ -7647,7 +7647,7 @@
         <v>180</v>
       </c>
       <c r="J60" s="149" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
@@ -7701,7 +7701,7 @@
         <v>181</v>
       </c>
       <c r="J62" s="148" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="95.25" customHeight="1" x14ac:dyDescent="0.75">
@@ -7733,7 +7733,7 @@
         <v>40</v>
       </c>
       <c r="J63" s="135" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
@@ -7765,7 +7765,7 @@
         <v>40</v>
       </c>
       <c r="J64" s="135" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
@@ -7797,7 +7797,7 @@
         <v>40</v>
       </c>
       <c r="J65" s="135" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.75">
@@ -7829,7 +7829,7 @@
         <v>40</v>
       </c>
       <c r="J66" s="135" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="47.4" customHeight="1" x14ac:dyDescent="0.75">
@@ -7861,7 +7861,7 @@
         <v>40</v>
       </c>
       <c r="J67" s="135" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.75">
@@ -7893,7 +7893,7 @@
         <v>41</v>
       </c>
       <c r="J68" s="135" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="43" customHeight="1" x14ac:dyDescent="0.75">
@@ -7925,7 +7925,7 @@
         <v>41</v>
       </c>
       <c r="J69" s="135" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="46.25" customHeight="1" x14ac:dyDescent="0.75">
@@ -7957,7 +7957,7 @@
         <v>41</v>
       </c>
       <c r="J70" s="135" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
@@ -7989,7 +7989,7 @@
         <v>41</v>
       </c>
       <c r="J71" s="135" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
@@ -8021,7 +8021,7 @@
         <v>41</v>
       </c>
       <c r="J72" s="135" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
@@ -8369,8 +8369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -8466,10 +8466,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="103" t="s">
+        <v>986</v>
+      </c>
+      <c r="C2" s="103" t="s">
         <v>987</v>
-      </c>
-      <c r="C2" s="103" t="s">
-        <v>988</v>
       </c>
       <c r="D2" s="103" t="s">
         <v>48</v>
@@ -8486,10 +8486,10 @@
         <v>54</v>
       </c>
       <c r="J2" s="103" t="s">
+        <v>988</v>
+      </c>
+      <c r="K2" s="103" t="s">
         <v>989</v>
-      </c>
-      <c r="K2" s="103" t="s">
-        <v>990</v>
       </c>
       <c r="L2" s="151">
         <v>0</v>
@@ -8501,17 +8501,17 @@
         <v>0.02</v>
       </c>
       <c r="O2" s="103" t="s">
-        <v>991</v>
-      </c>
-      <c r="P2" s="161" t="str">
+        <v>990</v>
+      </c>
+      <c r="P2" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C2,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents strengthening the standards for regulated pollutants other than greenhouse gases (such as NOx or particulate matter) emitted by the selected vehicle type(s).  Conventional pollutants' most important, harmful impacts are on human health rather than on climate change. // **Guidance for setting values:** In the United States, since 1997, the 24-hour national ambient air quality standard (NAAQS) for PM2.5, the most harmful type of particulate for human health, declined from 65 µg/m^3 to 35 µg/m^3, a reduction of 46%.</v>
       </c>
       <c r="Q2" s="77" t="s">
+        <v>991</v>
+      </c>
+      <c r="R2" s="152" t="s">
         <v>992</v>
-      </c>
-      <c r="R2" s="152" t="s">
-        <v>993</v>
       </c>
       <c r="S2" s="103"/>
       <c r="T2" s="103"/>
@@ -8567,7 +8567,7 @@
         <f t="shared" si="1"/>
         <v>% reduction in emissions</v>
       </c>
-      <c r="P3" s="161" t="str">
+      <c r="P3" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C3,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents strengthening the standards for regulated pollutants other than greenhouse gases (such as NOx or particulate matter) emitted by the selected vehicle type(s).  Conventional pollutants' most important, harmful impacts are on human health rather than on climate change. // **Guidance for setting values:** In the United States, since 1997, the 24-hour national ambient air quality standard (NAAQS) for PM2.5, the most harmful type of particulate for human health, declined from 65 µg/m^3 to 35 µg/m^3, a reduction of 46%.</v>
       </c>
@@ -8633,7 +8633,7 @@
         <f t="shared" si="1"/>
         <v>% reduction in emissions</v>
       </c>
-      <c r="P4" s="161" t="str">
+      <c r="P4" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C4,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents strengthening the standards for regulated pollutants other than greenhouse gases (such as NOx or particulate matter) emitted by the selected vehicle type(s).  Conventional pollutants' most important, harmful impacts are on human health rather than on climate change. // **Guidance for setting values:** In the United States, since 1997, the 24-hour national ambient air quality standard (NAAQS) for PM2.5, the most harmful type of particulate for human health, declined from 65 µg/m^3 to 35 µg/m^3, a reduction of 46%.</v>
       </c>
@@ -8699,7 +8699,7 @@
         <f t="shared" si="1"/>
         <v>% reduction in emissions</v>
       </c>
-      <c r="P5" s="161" t="str">
+      <c r="P5" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C5,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents strengthening the standards for regulated pollutants other than greenhouse gases (such as NOx or particulate matter) emitted by the selected vehicle type(s).  Conventional pollutants' most important, harmful impacts are on human health rather than on climate change. // **Guidance for setting values:** In the United States, since 1997, the 24-hour national ambient air quality standard (NAAQS) for PM2.5, the most harmful type of particulate for human health, declined from 65 µg/m^3 to 35 µg/m^3, a reduction of 46%.</v>
       </c>
@@ -8765,7 +8765,7 @@
         <f t="shared" si="1"/>
         <v>% reduction in emissions</v>
       </c>
-      <c r="P6" s="161" t="str">
+      <c r="P6" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C6,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents strengthening the standards for regulated pollutants other than greenhouse gases (such as NOx or particulate matter) emitted by the selected vehicle type(s).  Conventional pollutants' most important, harmful impacts are on human health rather than on climate change. // **Guidance for setting values:** In the United States, since 1997, the 24-hour national ambient air quality standard (NAAQS) for PM2.5, the most harmful type of particulate for human health, declined from 65 µg/m^3 to 35 µg/m^3, a reduction of 46%.</v>
       </c>
@@ -8831,7 +8831,7 @@
         <f t="shared" si="1"/>
         <v>% reduction in emissions</v>
       </c>
-      <c r="P7" s="161" t="str">
+      <c r="P7" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C7,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents strengthening the standards for regulated pollutants other than greenhouse gases (such as NOx or particulate matter) emitted by the selected vehicle type(s).  Conventional pollutants' most important, harmful impacts are on human health rather than on climate change. // **Guidance for setting values:** In the United States, since 1997, the 24-hour national ambient air quality standard (NAAQS) for PM2.5, the most harmful type of particulate for human health, declined from 65 µg/m^3 to 35 µg/m^3, a reduction of 46%.</v>
       </c>
@@ -8884,7 +8884,7 @@
       <c r="O8" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="P8" s="161" t="str">
+      <c r="P8" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C8,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents a variety of non-monetary benefits that government may provide to users of battery electric passenger LDVs.  Examples include access to high-occupancy vehicle (HOV) lanes even when driven by a single person, access to parking spaces reserved for electric vehicles, building out a more extensive network of charging sations, requiring developers of projects that include off-street parking to provide charging stations, etc.</v>
       </c>
@@ -8944,7 +8944,7 @@
       <c r="O9" s="56" t="s">
         <v>600</v>
       </c>
-      <c r="P9" s="161" t="str">
+      <c r="P9" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C9,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy requires the specified percentage of newly sold vehicles of the selected type(s) to consist of battery electric vehicles. If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect. Manufactures may meet a sales standard through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Mexico does not have a scheme for EV sales mandate, nevertheless this lever can be used to simulate an accelerated deployment of EVs.</v>
       </c>
@@ -9015,7 +9015,7 @@
         <f t="shared" si="5"/>
         <v>% of new vehicles sold</v>
       </c>
-      <c r="P10" s="161" t="str">
+      <c r="P10" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C10,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy requires the specified percentage of newly sold vehicles of the selected type(s) to consist of battery electric vehicles. If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect. Manufactures may meet a sales standard through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Mexico does not have a scheme for EV sales mandate, nevertheless this lever can be used to simulate an accelerated deployment of EVs.</v>
       </c>
@@ -9086,7 +9086,7 @@
         <f t="shared" si="5"/>
         <v>% of new vehicles sold</v>
       </c>
-      <c r="P11" s="161" t="str">
+      <c r="P11" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C11,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy requires the specified percentage of newly sold vehicles of the selected type(s) to consist of battery electric vehicles. If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect. Manufactures may meet a sales standard through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Mexico does not have a scheme for EV sales mandate, nevertheless this lever can be used to simulate an accelerated deployment of EVs.</v>
       </c>
@@ -9159,7 +9159,7 @@
         <f t="shared" si="5"/>
         <v>% of new vehicles sold</v>
       </c>
-      <c r="P12" s="161" t="str">
+      <c r="P12" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C12,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy requires the specified percentage of newly sold vehicles of the selected type(s) to consist of battery electric vehicles. If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect. Manufactures may meet a sales standard through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Mexico does not have a scheme for EV sales mandate, nevertheless this lever can be used to simulate an accelerated deployment of EVs.</v>
       </c>
@@ -9216,7 +9216,7 @@
       <c r="M13" s="90"/>
       <c r="N13" s="90"/>
       <c r="O13" s="56"/>
-      <c r="P13" s="161" t="str">
+      <c r="P13" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C13,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy requires the specified percentage of newly sold vehicles of the selected type(s) to consist of battery electric vehicles. If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect. Manufactures may meet a sales standard through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Mexico does not have a scheme for EV sales mandate, nevertheless this lever can be used to simulate an accelerated deployment of EVs.</v>
       </c>
@@ -9267,7 +9267,7 @@
       <c r="M14" s="90"/>
       <c r="N14" s="90"/>
       <c r="O14" s="56"/>
-      <c r="P14" s="161" t="str">
+      <c r="P14" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C14,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy requires the specified percentage of newly sold vehicles of the selected type(s) to consist of battery electric vehicles. If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect. Manufactures may meet a sales standard through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Mexico does not have a scheme for EV sales mandate, nevertheless this lever can be used to simulate an accelerated deployment of EVs.</v>
       </c>
@@ -9318,7 +9318,7 @@
       <c r="M15" s="90"/>
       <c r="N15" s="90"/>
       <c r="O15" s="56"/>
-      <c r="P15" s="161" t="str">
+      <c r="P15" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C15,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy requires the specified percentage of newly sold vehicles of the selected type(s) to consist of battery electric vehicles. If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect. Manufactures may meet a sales standard through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Mexico does not have a scheme for EV sales mandate, nevertheless this lever can be used to simulate an accelerated deployment of EVs.</v>
       </c>
@@ -9369,7 +9369,7 @@
       <c r="M16" s="90"/>
       <c r="N16" s="90"/>
       <c r="O16" s="56"/>
-      <c r="P16" s="161" t="str">
+      <c r="P16" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C16,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy requires the specified percentage of newly sold vehicles of the selected type(s) to consist of battery electric vehicles. If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect. Manufactures may meet a sales standard through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Mexico does not have a scheme for EV sales mandate, nevertheless this lever can be used to simulate an accelerated deployment of EVs.</v>
       </c>
@@ -9420,7 +9420,7 @@
       <c r="M17" s="90"/>
       <c r="N17" s="90"/>
       <c r="O17" s="56"/>
-      <c r="P17" s="161" t="str">
+      <c r="P17" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C17,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy requires the specified percentage of newly sold vehicles of the selected type(s) to consist of battery electric vehicles. If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect. Manufactures may meet a sales standard through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Mexico does not have a scheme for EV sales mandate, nevertheless this lever can be used to simulate an accelerated deployment of EVs.</v>
       </c>
@@ -9471,7 +9471,7 @@
       <c r="M18" s="90"/>
       <c r="N18" s="90"/>
       <c r="O18" s="56"/>
-      <c r="P18" s="161" t="str">
+      <c r="P18" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C18,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy requires the specified percentage of newly sold vehicles of the selected type(s) to consist of battery electric vehicles. If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect. Manufactures may meet a sales standard through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Mexico does not have a scheme for EV sales mandate, nevertheless this lever can be used to simulate an accelerated deployment of EVs.</v>
       </c>
@@ -9536,7 +9536,7 @@
         <f t="shared" si="9"/>
         <v>% of new vehicles sold</v>
       </c>
-      <c r="P19" s="161" t="str">
+      <c r="P19" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C19,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy requires the specified percentage of newly sold vehicles of the selected type(s) to consist of battery electric vehicles. If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect. Manufactures may meet a sales standard through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Mexico does not have a scheme for EV sales mandate, nevertheless this lever can be used to simulate an accelerated deployment of EVs.</v>
       </c>
@@ -9593,7 +9593,7 @@
       <c r="M20" s="90"/>
       <c r="N20" s="90"/>
       <c r="O20" s="56"/>
-      <c r="P20" s="161" t="str">
+      <c r="P20" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C20,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy requires the specified percentage of newly sold vehicles of the selected type(s) to consist of battery electric vehicles. If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect. Manufactures may meet a sales standard through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Mexico does not have a scheme for EV sales mandate, nevertheless this lever can be used to simulate an accelerated deployment of EVs.</v>
       </c>
@@ -9649,9 +9649,9 @@
       <c r="O21" s="77" t="s">
         <v>587</v>
       </c>
-      <c r="P21" s="161" t="str">
+      <c r="P21" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C21,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric vehicles for the selected type(s).  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Mexico there is no federal subsidy for electric vehicle. In countries like the U.S. they offer a federal subsidy for up to $7,500 for qualifying electric vehicles, which represents 20% of the MSRP of a 2017 Chevrolet Bolt EV or 21% of the MSRP of a Tesla Model 3.</v>
+        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric passenger LDVs.  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Mexico there is no federal subsidy for electric vehicle. In countries like the U.S. they offer a federal subsidy for up to $7,500 for qualifying electric vehicles, which represents 20% of the MSRP of a 2017 Chevrolet Bolt EV or 21% of the MSRP of a Tesla Model 3.</v>
       </c>
       <c r="Q21" s="77" t="s">
         <v>588</v>
@@ -9706,9 +9706,9 @@
       <c r="M22" s="80"/>
       <c r="N22" s="80"/>
       <c r="O22" s="80"/>
-      <c r="P22" s="161" t="str">
+      <c r="P22" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C22,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric vehicles for the selected type(s).  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Mexico there is no federal subsidy for electric vehicle. In countries like the U.S. they offer a federal subsidy for up to $7,500 for qualifying electric vehicles, which represents 20% of the MSRP of a 2017 Chevrolet Bolt EV or 21% of the MSRP of a Tesla Model 3.</v>
+        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric passenger LDVs.  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Mexico there is no federal subsidy for electric vehicle. In countries like the U.S. they offer a federal subsidy for up to $7,500 for qualifying electric vehicles, which represents 20% of the MSRP of a 2017 Chevrolet Bolt EV or 21% of the MSRP of a Tesla Model 3.</v>
       </c>
       <c r="Q22" s="80"/>
       <c r="R22" s="80"/>
@@ -9757,9 +9757,9 @@
       <c r="M23" s="80"/>
       <c r="N23" s="80"/>
       <c r="O23" s="80"/>
-      <c r="P23" s="161" t="str">
+      <c r="P23" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C23,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric vehicles for the selected type(s).  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Mexico there is no federal subsidy for electric vehicle. In countries like the U.S. they offer a federal subsidy for up to $7,500 for qualifying electric vehicles, which represents 20% of the MSRP of a 2017 Chevrolet Bolt EV or 21% of the MSRP of a Tesla Model 3.</v>
+        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric passenger LDVs.  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Mexico there is no federal subsidy for electric vehicle. In countries like the U.S. they offer a federal subsidy for up to $7,500 for qualifying electric vehicles, which represents 20% of the MSRP of a 2017 Chevrolet Bolt EV or 21% of the MSRP of a Tesla Model 3.</v>
       </c>
       <c r="Q23" s="80"/>
       <c r="R23" s="80"/>
@@ -9808,9 +9808,9 @@
       <c r="M24" s="80"/>
       <c r="N24" s="80"/>
       <c r="O24" s="80"/>
-      <c r="P24" s="161" t="str">
+      <c r="P24" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C24,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric vehicles for the selected type(s).  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Mexico there is no federal subsidy for electric vehicle. In countries like the U.S. they offer a federal subsidy for up to $7,500 for qualifying electric vehicles, which represents 20% of the MSRP of a 2017 Chevrolet Bolt EV or 21% of the MSRP of a Tesla Model 3.</v>
+        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric passenger LDVs.  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Mexico there is no federal subsidy for electric vehicle. In countries like the U.S. they offer a federal subsidy for up to $7,500 for qualifying electric vehicles, which represents 20% of the MSRP of a 2017 Chevrolet Bolt EV or 21% of the MSRP of a Tesla Model 3.</v>
       </c>
       <c r="Q24" s="80"/>
       <c r="R24" s="80"/>
@@ -9859,9 +9859,9 @@
       <c r="M25" s="80"/>
       <c r="N25" s="80"/>
       <c r="O25" s="80"/>
-      <c r="P25" s="161" t="str">
+      <c r="P25" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C25,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric vehicles for the selected type(s).  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Mexico there is no federal subsidy for electric vehicle. In countries like the U.S. they offer a federal subsidy for up to $7,500 for qualifying electric vehicles, which represents 20% of the MSRP of a 2017 Chevrolet Bolt EV or 21% of the MSRP of a Tesla Model 3.</v>
+        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric passenger LDVs.  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Mexico there is no federal subsidy for electric vehicle. In countries like the U.S. they offer a federal subsidy for up to $7,500 for qualifying electric vehicles, which represents 20% of the MSRP of a 2017 Chevrolet Bolt EV or 21% of the MSRP of a Tesla Model 3.</v>
       </c>
       <c r="Q25" s="80"/>
       <c r="R25" s="80"/>
@@ -9910,9 +9910,9 @@
       <c r="M26" s="80"/>
       <c r="N26" s="80"/>
       <c r="O26" s="80"/>
-      <c r="P26" s="161" t="str">
+      <c r="P26" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C26,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric vehicles for the selected type(s).  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Mexico there is no federal subsidy for electric vehicle. In countries like the U.S. they offer a federal subsidy for up to $7,500 for qualifying electric vehicles, which represents 20% of the MSRP of a 2017 Chevrolet Bolt EV or 21% of the MSRP of a Tesla Model 3.</v>
+        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric passenger LDVs.  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Mexico there is no federal subsidy for electric vehicle. In countries like the U.S. they offer a federal subsidy for up to $7,500 for qualifying electric vehicles, which represents 20% of the MSRP of a 2017 Chevrolet Bolt EV or 21% of the MSRP of a Tesla Model 3.</v>
       </c>
       <c r="Q26" s="80"/>
       <c r="R26" s="80"/>
@@ -9961,9 +9961,9 @@
       <c r="M27" s="80"/>
       <c r="N27" s="80"/>
       <c r="O27" s="80"/>
-      <c r="P27" s="161" t="str">
+      <c r="P27" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C27,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric vehicles for the selected type(s).  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Mexico there is no federal subsidy for electric vehicle. In countries like the U.S. they offer a federal subsidy for up to $7,500 for qualifying electric vehicles, which represents 20% of the MSRP of a 2017 Chevrolet Bolt EV or 21% of the MSRP of a Tesla Model 3.</v>
+        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric passenger LDVs.  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Mexico there is no federal subsidy for electric vehicle. In countries like the U.S. they offer a federal subsidy for up to $7,500 for qualifying electric vehicles, which represents 20% of the MSRP of a 2017 Chevrolet Bolt EV or 21% of the MSRP of a Tesla Model 3.</v>
       </c>
       <c r="Q27" s="80"/>
       <c r="R27" s="80"/>
@@ -10012,9 +10012,9 @@
       <c r="M28" s="80"/>
       <c r="N28" s="80"/>
       <c r="O28" s="80"/>
-      <c r="P28" s="161" t="str">
+      <c r="P28" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C28,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric vehicles for the selected type(s).  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Mexico there is no federal subsidy for electric vehicle. In countries like the U.S. they offer a federal subsidy for up to $7,500 for qualifying electric vehicles, which represents 20% of the MSRP of a 2017 Chevrolet Bolt EV or 21% of the MSRP of a Tesla Model 3.</v>
+        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric passenger LDVs.  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Mexico there is no federal subsidy for electric vehicle. In countries like the U.S. they offer a federal subsidy for up to $7,500 for qualifying electric vehicles, which represents 20% of the MSRP of a 2017 Chevrolet Bolt EV or 21% of the MSRP of a Tesla Model 3.</v>
       </c>
       <c r="Q28" s="80"/>
       <c r="R28" s="80"/>
@@ -10063,9 +10063,9 @@
       <c r="M29" s="80"/>
       <c r="N29" s="80"/>
       <c r="O29" s="80"/>
-      <c r="P29" s="161" t="str">
+      <c r="P29" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C29,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric vehicles for the selected type(s).  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Mexico there is no federal subsidy for electric vehicle. In countries like the U.S. they offer a federal subsidy for up to $7,500 for qualifying electric vehicles, which represents 20% of the MSRP of a 2017 Chevrolet Bolt EV or 21% of the MSRP of a Tesla Model 3.</v>
+        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric passenger LDVs.  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Mexico there is no federal subsidy for electric vehicle. In countries like the U.S. they offer a federal subsidy for up to $7,500 for qualifying electric vehicles, which represents 20% of the MSRP of a 2017 Chevrolet Bolt EV or 21% of the MSRP of a Tesla Model 3.</v>
       </c>
       <c r="Q29" s="80"/>
       <c r="R29" s="80"/>
@@ -10114,9 +10114,9 @@
       <c r="M30" s="80"/>
       <c r="N30" s="80"/>
       <c r="O30" s="80"/>
-      <c r="P30" s="161" t="str">
+      <c r="P30" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C30,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric vehicles for the selected type(s).  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Mexico there is no federal subsidy for electric vehicle. In countries like the U.S. they offer a federal subsidy for up to $7,500 for qualifying electric vehicles, which represents 20% of the MSRP of a 2017 Chevrolet Bolt EV or 21% of the MSRP of a Tesla Model 3.</v>
+        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric passenger LDVs.  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Mexico there is no federal subsidy for electric vehicle. In countries like the U.S. they offer a federal subsidy for up to $7,500 for qualifying electric vehicles, which represents 20% of the MSRP of a 2017 Chevrolet Bolt EV or 21% of the MSRP of a Tesla Model 3.</v>
       </c>
       <c r="Q30" s="80"/>
       <c r="R30" s="80"/>
@@ -10165,9 +10165,9 @@
       <c r="M31" s="80"/>
       <c r="N31" s="80"/>
       <c r="O31" s="80"/>
-      <c r="P31" s="161" t="str">
+      <c r="P31" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C31,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric vehicles for the selected type(s).  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Mexico there is no federal subsidy for electric vehicle. In countries like the U.S. they offer a federal subsidy for up to $7,500 for qualifying electric vehicles, which represents 20% of the MSRP of a 2017 Chevrolet Bolt EV or 21% of the MSRP of a Tesla Model 3.</v>
+        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric passenger LDVs.  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Mexico there is no federal subsidy for electric vehicle. In countries like the U.S. they offer a federal subsidy for up to $7,500 for qualifying electric vehicles, which represents 20% of the MSRP of a 2017 Chevrolet Bolt EV or 21% of the MSRP of a Tesla Model 3.</v>
       </c>
       <c r="Q31" s="80"/>
       <c r="R31" s="80"/>
@@ -10216,9 +10216,9 @@
       <c r="M32" s="80"/>
       <c r="N32" s="80"/>
       <c r="O32" s="80"/>
-      <c r="P32" s="161" t="str">
+      <c r="P32" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C32,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric vehicles for the selected type(s).  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Mexico there is no federal subsidy for electric vehicle. In countries like the U.S. they offer a federal subsidy for up to $7,500 for qualifying electric vehicles, which represents 20% of the MSRP of a 2017 Chevrolet Bolt EV or 21% of the MSRP of a Tesla Model 3.</v>
+        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric passenger LDVs.  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Mexico there is no federal subsidy for electric vehicle. In countries like the U.S. they offer a federal subsidy for up to $7,500 for qualifying electric vehicles, which represents 20% of the MSRP of a 2017 Chevrolet Bolt EV or 21% of the MSRP of a Tesla Model 3.</v>
       </c>
       <c r="Q32" s="80"/>
       <c r="R32" s="80"/>
@@ -10264,7 +10264,7 @@
       <c r="O33" s="56" t="s">
         <v>559</v>
       </c>
-      <c r="P33" s="161" t="str">
+      <c r="P33" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C33,'Policy Characteristics'!$C:$C,0))</f>
         <v xml:space="preserve">**Description:** This policy implements a fee on sales of inefficient light-duty vehicles (LDVs; namely cars and SUVs) that is rebated to buyers of efficient LDVs.  The feebate policy is revenue-neutral, as the pivot point (the efficiency level that incurs neither a rebate nor a fee) is set such that the total of all fees equals the total of all rebates. // **Guidance for setting values:** The feebate is set as a fraction of the global best practice feebate rate.  The global best practice feebate rate is $850usd per (100 L/km), which equates to a $850usd fee on an LDV that gets 8.5 km/L if the pivot point is 10 km/L. </v>
       </c>
@@ -10316,7 +10316,7 @@
       </c>
       <c r="L34" s="2"/>
       <c r="O34" s="2"/>
-      <c r="P34" s="161" t="str">
+      <c r="P34" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C34,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **Aircraft:** Mexico currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 29% from 2017-2050 in the Reference case. // **Rail:** Mexico currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 26% from 2017-2050 in the BAU case. // **Ships:** Mexico currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 30% from 2017-2050 in the Refrence case. // **Motorbikes:** Mexico currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -10325,7 +10325,7 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
       <c r="U34" s="109" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="132.75" x14ac:dyDescent="0.75">
@@ -10369,7 +10369,7 @@
       <c r="M35" s="62"/>
       <c r="N35" s="62"/>
       <c r="O35" s="56"/>
-      <c r="P35" s="161" t="str">
+      <c r="P35" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C35,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **Aircraft:** Mexico currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 29% from 2017-2050 in the Reference case. // **Rail:** Mexico currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 26% from 2017-2050 in the BAU case. // **Ships:** Mexico currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 30% from 2017-2050 in the Refrence case. // **Motorbikes:** Mexico currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -10431,7 +10431,7 @@
       <c r="O36" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="P36" s="161" t="str">
+      <c r="P36" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C36,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **Aircraft:** Mexico currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 29% from 2017-2050 in the Reference case. // **Rail:** Mexico currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 26% from 2017-2050 in the BAU case. // **Ships:** Mexico currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 30% from 2017-2050 in the Refrence case. // **Motorbikes:** Mexico currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -10501,7 +10501,7 @@
       <c r="O37" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="P37" s="161" t="str">
+      <c r="P37" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C37,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **Aircraft:** Mexico currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 29% from 2017-2050 in the Reference case. // **Rail:** Mexico currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 26% from 2017-2050 in the BAU case. // **Ships:** Mexico currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 30% from 2017-2050 in the Refrence case. // **Motorbikes:** Mexico currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -10560,7 +10560,7 @@
       <c r="M38" s="62"/>
       <c r="N38" s="62"/>
       <c r="O38" s="56"/>
-      <c r="P38" s="161" t="str">
+      <c r="P38" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C38,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **Aircraft:** Mexico currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 29% from 2017-2050 in the Reference case. // **Rail:** Mexico currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 26% from 2017-2050 in the BAU case. // **Ships:** Mexico currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 30% from 2017-2050 in the Refrence case. // **Motorbikes:** Mexico currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -10611,7 +10611,7 @@
       <c r="M39" s="62"/>
       <c r="N39" s="62"/>
       <c r="O39" s="56"/>
-      <c r="P39" s="161" t="str">
+      <c r="P39" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C39,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **Aircraft:** Mexico currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 29% from 2017-2050 in the Reference case. // **Rail:** Mexico currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 26% from 2017-2050 in the BAU case. // **Ships:** Mexico currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 30% from 2017-2050 in the Refrence case. // **Motorbikes:** Mexico currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -10660,7 +10660,7 @@
       </c>
       <c r="L40" s="2"/>
       <c r="O40" s="2"/>
-      <c r="P40" s="161" t="str">
+      <c r="P40" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C40,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **Aircraft:** Mexico currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 29% from 2017-2050 in the Reference case. // **Rail:** Mexico currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 26% from 2017-2050 in the BAU case. // **Ships:** Mexico currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 30% from 2017-2050 in the Refrence case. // **Motorbikes:** Mexico currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -10711,7 +10711,7 @@
       <c r="M41" s="65"/>
       <c r="N41" s="64"/>
       <c r="O41" s="58"/>
-      <c r="P41" s="161" t="str">
+      <c r="P41" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C41,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **Aircraft:** Mexico currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 29% from 2017-2050 in the Reference case. // **Rail:** Mexico currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 26% from 2017-2050 in the BAU case. // **Ships:** Mexico currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 30% from 2017-2050 in the Refrence case. // **Motorbikes:** Mexico currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -10762,7 +10762,7 @@
       <c r="M42" s="65"/>
       <c r="N42" s="64"/>
       <c r="O42" s="58"/>
-      <c r="P42" s="161" t="str">
+      <c r="P42" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C42,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **Aircraft:** Mexico currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 29% from 2017-2050 in the Reference case. // **Rail:** Mexico currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 26% from 2017-2050 in the BAU case. // **Ships:** Mexico currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 30% from 2017-2050 in the Refrence case. // **Motorbikes:** Mexico currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -10827,7 +10827,7 @@
         <f>O$36</f>
         <v>% increase in miles/gal</v>
       </c>
-      <c r="P43" s="161" t="str">
+      <c r="P43" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C43,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **Aircraft:** Mexico currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 29% from 2017-2050 in the Reference case. // **Rail:** Mexico currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 26% from 2017-2050 in the BAU case. // **Ships:** Mexico currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 30% from 2017-2050 in the Refrence case. // **Motorbikes:** Mexico currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -10888,7 +10888,7 @@
       <c r="M44" s="65"/>
       <c r="N44" s="64"/>
       <c r="O44" s="58"/>
-      <c r="P44" s="161" t="str">
+      <c r="P44" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C44,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **Aircraft:** Mexico currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 29% from 2017-2050 in the Reference case. // **Rail:** Mexico currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 26% from 2017-2050 in the BAU case. // **Ships:** Mexico currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 30% from 2017-2050 in the Refrence case. // **Motorbikes:** Mexico currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -10939,7 +10939,7 @@
       <c r="M45" s="65"/>
       <c r="N45" s="64"/>
       <c r="O45" s="58"/>
-      <c r="P45" s="161" t="str">
+      <c r="P45" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C45,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **Aircraft:** Mexico currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 29% from 2017-2050 in the Reference case. // **Rail:** Mexico currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 26% from 2017-2050 in the BAU case. // **Ships:** Mexico currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 30% from 2017-2050 in the Refrence case. // **Motorbikes:** Mexico currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -10988,7 +10988,7 @@
       </c>
       <c r="L46" s="2"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="161" t="str">
+      <c r="P46" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C46,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **Aircraft:** Mexico currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 29% from 2017-2050 in the Reference case. // **Rail:** Mexico currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 26% from 2017-2050 in the BAU case. // **Ships:** Mexico currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 30% from 2017-2050 in the Refrence case. // **Motorbikes:** Mexico currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -11039,7 +11039,7 @@
       <c r="M47" s="66"/>
       <c r="N47" s="64"/>
       <c r="O47" s="58"/>
-      <c r="P47" s="161" t="str">
+      <c r="P47" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C47,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **Aircraft:** Mexico currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 29% from 2017-2050 in the Reference case. // **Rail:** Mexico currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 26% from 2017-2050 in the BAU case. // **Ships:** Mexico currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 30% from 2017-2050 in the Refrence case. // **Motorbikes:** Mexico currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -11090,7 +11090,7 @@
       <c r="M48" s="66"/>
       <c r="N48" s="64"/>
       <c r="O48" s="58"/>
-      <c r="P48" s="161" t="str">
+      <c r="P48" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C48,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **Aircraft:** Mexico currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 29% from 2017-2050 in the Reference case. // **Rail:** Mexico currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 26% from 2017-2050 in the BAU case. // **Ships:** Mexico currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 30% from 2017-2050 in the Refrence case. // **Motorbikes:** Mexico currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -11141,7 +11141,7 @@
       <c r="M49" s="66"/>
       <c r="N49" s="64"/>
       <c r="O49" s="58"/>
-      <c r="P49" s="161" t="str">
+      <c r="P49" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C49,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **Aircraft:** Mexico currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 29% from 2017-2050 in the Reference case. // **Rail:** Mexico currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 26% from 2017-2050 in the BAU case. // **Ships:** Mexico currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 30% from 2017-2050 in the Refrence case. // **Motorbikes:** Mexico currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -11192,7 +11192,7 @@
       <c r="M50" s="66"/>
       <c r="N50" s="64"/>
       <c r="O50" s="58"/>
-      <c r="P50" s="161" t="str">
+      <c r="P50" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C50,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **Aircraft:** Mexico currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 29% from 2017-2050 in the Reference case. // **Rail:** Mexico currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 26% from 2017-2050 in the BAU case. // **Ships:** Mexico currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 30% from 2017-2050 in the Refrence case. // **Motorbikes:** Mexico currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -11257,7 +11257,7 @@
         <f>O$36</f>
         <v>% increase in miles/gal</v>
       </c>
-      <c r="P51" s="161" t="str">
+      <c r="P51" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C51,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **Aircraft:** Mexico currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 29% from 2017-2050 in the Reference case. // **Rail:** Mexico currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 26% from 2017-2050 in the BAU case. // **Ships:** Mexico currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 30% from 2017-2050 in the Refrence case. // **Motorbikes:** Mexico currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -11316,7 +11316,7 @@
       </c>
       <c r="L52" s="2"/>
       <c r="O52" s="2"/>
-      <c r="P52" s="161" t="str">
+      <c r="P52" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C52,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **Aircraft:** Mexico currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 29% from 2017-2050 in the Reference case. // **Rail:** Mexico currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 26% from 2017-2050 in the BAU case. // **Ships:** Mexico currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 30% from 2017-2050 in the Refrence case. // **Motorbikes:** Mexico currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -11367,7 +11367,7 @@
       <c r="M53" s="66"/>
       <c r="N53" s="64"/>
       <c r="O53" s="58"/>
-      <c r="P53" s="161" t="str">
+      <c r="P53" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C53,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **Aircraft:** Mexico currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 29% from 2017-2050 in the Reference case. // **Rail:** Mexico currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 26% from 2017-2050 in the BAU case. // **Ships:** Mexico currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 30% from 2017-2050 in the Refrence case. // **Motorbikes:** Mexico currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -11418,7 +11418,7 @@
       <c r="M54" s="66"/>
       <c r="N54" s="64"/>
       <c r="O54" s="58"/>
-      <c r="P54" s="161" t="str">
+      <c r="P54" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C54,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **Aircraft:** Mexico currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 29% from 2017-2050 in the Reference case. // **Rail:** Mexico currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 26% from 2017-2050 in the BAU case. // **Ships:** Mexico currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 30% from 2017-2050 in the Refrence case. // **Motorbikes:** Mexico currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -11469,7 +11469,7 @@
       <c r="M55" s="66"/>
       <c r="N55" s="64"/>
       <c r="O55" s="58"/>
-      <c r="P55" s="161" t="str">
+      <c r="P55" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C55,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **Aircraft:** Mexico currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 29% from 2017-2050 in the Reference case. // **Rail:** Mexico currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 26% from 2017-2050 in the BAU case. // **Ships:** Mexico currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 30% from 2017-2050 in the Refrence case. // **Motorbikes:** Mexico currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -11520,7 +11520,7 @@
       <c r="M56" s="66"/>
       <c r="N56" s="64"/>
       <c r="O56" s="58"/>
-      <c r="P56" s="161" t="str">
+      <c r="P56" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C56,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **Aircraft:** Mexico currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 29% from 2017-2050 in the Reference case. // **Rail:** Mexico currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 26% from 2017-2050 in the BAU case. // **Ships:** Mexico currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 30% from 2017-2050 in the Refrence case. // **Motorbikes:** Mexico currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -11585,7 +11585,7 @@
         <f>O$36</f>
         <v>% increase in miles/gal</v>
       </c>
-      <c r="P57" s="161" t="str">
+      <c r="P57" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C57,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **Aircraft:** Mexico currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 29% from 2017-2050 in the Reference case. // **Rail:** Mexico currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 26% from 2017-2050 in the BAU case. // **Ships:** Mexico currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 30% from 2017-2050 in the Refrence case. // **Motorbikes:** Mexico currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -11644,7 +11644,7 @@
       </c>
       <c r="L58" s="2"/>
       <c r="O58" s="2"/>
-      <c r="P58" s="161" t="str">
+      <c r="P58" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C58,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **Aircraft:** Mexico currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 29% from 2017-2050 in the Reference case. // **Rail:** Mexico currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 26% from 2017-2050 in the BAU case. // **Ships:** Mexico currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 30% from 2017-2050 in the Refrence case. // **Motorbikes:** Mexico currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -11695,7 +11695,7 @@
       <c r="M59" s="66"/>
       <c r="N59" s="64"/>
       <c r="O59" s="58"/>
-      <c r="P59" s="161" t="str">
+      <c r="P59" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C59,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **Aircraft:** Mexico currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 29% from 2017-2050 in the Reference case. // **Rail:** Mexico currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 26% from 2017-2050 in the BAU case. // **Ships:** Mexico currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 30% from 2017-2050 in the Refrence case. // **Motorbikes:** Mexico currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -11746,7 +11746,7 @@
       <c r="M60" s="66"/>
       <c r="N60" s="64"/>
       <c r="O60" s="58"/>
-      <c r="P60" s="161" t="str">
+      <c r="P60" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C60,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **Aircraft:** Mexico currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 29% from 2017-2050 in the Reference case. // **Rail:** Mexico currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 26% from 2017-2050 in the BAU case. // **Ships:** Mexico currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 30% from 2017-2050 in the Refrence case. // **Motorbikes:** Mexico currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -11797,7 +11797,7 @@
       <c r="M61" s="66"/>
       <c r="N61" s="64"/>
       <c r="O61" s="58"/>
-      <c r="P61" s="161" t="str">
+      <c r="P61" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C61,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **Aircraft:** Mexico currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 29% from 2017-2050 in the Reference case. // **Rail:** Mexico currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 26% from 2017-2050 in the BAU case. // **Ships:** Mexico currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 30% from 2017-2050 in the Refrence case. // **Motorbikes:** Mexico currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -11848,7 +11848,7 @@
       <c r="M62" s="66"/>
       <c r="N62" s="64"/>
       <c r="O62" s="58"/>
-      <c r="P62" s="161" t="str">
+      <c r="P62" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C62,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **Aircraft:** Mexico currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 29% from 2017-2050 in the Reference case. // **Rail:** Mexico currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 26% from 2017-2050 in the BAU case. // **Ships:** Mexico currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 30% from 2017-2050 in the Refrence case. // **Motorbikes:** Mexico currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -11913,7 +11913,7 @@
         <f>O$36</f>
         <v>% increase in miles/gal</v>
       </c>
-      <c r="P63" s="161" t="str">
+      <c r="P63" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C63,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **Aircraft:** Mexico currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 29% from 2017-2050 in the Reference case. // **Rail:** Mexico currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 26% from 2017-2050 in the BAU case. // **Ships:** Mexico currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 30% from 2017-2050 in the Refrence case. // **Motorbikes:** Mexico currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -11972,7 +11972,7 @@
       </c>
       <c r="L64" s="2"/>
       <c r="O64" s="2"/>
-      <c r="P64" s="161" t="str">
+      <c r="P64" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C64,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **Aircraft:** Mexico currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 29% from 2017-2050 in the Reference case. // **Rail:** Mexico currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 26% from 2017-2050 in the BAU case. // **Ships:** Mexico currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 30% from 2017-2050 in the Refrence case. // **Motorbikes:** Mexico currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -12023,7 +12023,7 @@
       <c r="M65" s="66"/>
       <c r="N65" s="64"/>
       <c r="O65" s="58"/>
-      <c r="P65" s="161" t="str">
+      <c r="P65" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C65,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **Aircraft:** Mexico currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 29% from 2017-2050 in the Reference case. // **Rail:** Mexico currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 26% from 2017-2050 in the BAU case. // **Ships:** Mexico currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 30% from 2017-2050 in the Refrence case. // **Motorbikes:** Mexico currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -12088,7 +12088,7 @@
         <f>O$36</f>
         <v>% increase in miles/gal</v>
       </c>
-      <c r="P66" s="161" t="str">
+      <c r="P66" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C66,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **Aircraft:** Mexico currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 29% from 2017-2050 in the Reference case. // **Rail:** Mexico currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 26% from 2017-2050 in the BAU case. // **Ships:** Mexico currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 30% from 2017-2050 in the Refrence case. // **Motorbikes:** Mexico currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -12149,7 +12149,7 @@
       <c r="M67" s="66"/>
       <c r="N67" s="64"/>
       <c r="O67" s="58"/>
-      <c r="P67" s="161" t="str">
+      <c r="P67" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C67,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **Aircraft:** Mexico currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 29% from 2017-2050 in the Reference case. // **Rail:** Mexico currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 26% from 2017-2050 in the BAU case. // **Ships:** Mexico currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 30% from 2017-2050 in the Refrence case. // **Motorbikes:** Mexico currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -12200,7 +12200,7 @@
       <c r="M68" s="66"/>
       <c r="N68" s="64"/>
       <c r="O68" s="58"/>
-      <c r="P68" s="161" t="str">
+      <c r="P68" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C68,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **Aircraft:** Mexico currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 29% from 2017-2050 in the Reference case. // **Rail:** Mexico currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 26% from 2017-2050 in the BAU case. // **Ships:** Mexico currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 30% from 2017-2050 in the Refrence case. // **Motorbikes:** Mexico currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -12251,7 +12251,7 @@
       <c r="M69" s="66"/>
       <c r="N69" s="64"/>
       <c r="O69" s="58"/>
-      <c r="P69" s="161" t="str">
+      <c r="P69" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C69,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **Aircraft:** Mexico currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 29% from 2017-2050 in the Reference case. // **Rail:** Mexico currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 26% from 2017-2050 in the BAU case. // **Ships:** Mexico currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 30% from 2017-2050 in the Refrence case. // **Motorbikes:** Mexico currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -12299,7 +12299,7 @@
       <c r="O70" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="P70" s="161" t="str">
+      <c r="P70" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C70,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the percentage reduction in carbon emissions from the transportation sector that must be achieved via fuel switching.  This value is in addition to BAU requirements. // **Guidance for setting values:** In Mexico there are no Low Carbon Fuel Standards yet.</v>
       </c>
@@ -12357,7 +12357,7 @@
       <c r="O71" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="P71" s="161" t="str">
+      <c r="P71" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C71,'Policy Characteristics'!$C:$C,0))</f>
         <v xml:space="preserve">**Description:** Transportation Demand Management (TDM) represents a set of policies aimed at reducing demand for certain modes of travel. Passenger Transportation Demand Management (TDM) is aimed at reducing demand for passenger travel, especially in private automobiles.  These policies can include improved public transit systems, more walking and bike paths, zoning for higher density along transit corridors, zoning for mixed-use developments, roadway and congestion pricing, and increased parking fees.  Freight Transportation Demand Management (TDM) represents a set of policies aimed primarily at shifting freight from trucks to rail.  We use the International Energy Agency's BLUE Shifts scenario (from the 2009 report "Transport, Energy, and CO2: Moving Toward Sustainability") to represent passenger TDM policies as a whole. // **Guidance for setting values:** A value of "100%" fully implements the IEA's BLUE Shifts scenario by 2050, which is in line with IEA expectations (since their scenario assumes implementation by 2050). </v>
       </c>
@@ -12424,7 +12424,7 @@
         <f t="shared" si="19"/>
         <v>% of TDM package implemented</v>
       </c>
-      <c r="P72" s="161" t="str">
+      <c r="P72" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C72,'Policy Characteristics'!$C:$C,0))</f>
         <v xml:space="preserve">**Description:** Transportation Demand Management (TDM) represents a set of policies aimed at reducing demand for certain modes of travel. Passenger Transportation Demand Management (TDM) is aimed at reducing demand for passenger travel, especially in private automobiles.  These policies can include improved public transit systems, more walking and bike paths, zoning for higher density along transit corridors, zoning for mixed-use developments, roadway and congestion pricing, and increased parking fees.  Freight Transportation Demand Management (TDM) represents a set of policies aimed primarily at shifting freight from trucks to rail.  We use the International Energy Agency's BLUE Shifts scenario (from the 2009 report "Transport, Energy, and CO2: Moving Toward Sustainability") to represent passenger TDM policies as a whole. // **Guidance for setting values:** A value of "100%" fully implements the IEA's BLUE Shifts scenario by 2050, which is in line with IEA expectations (since their scenario assumes implementation by 2050). </v>
       </c>
@@ -12485,9 +12485,9 @@
       <c r="O73" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="P73" s="161" t="str">
+      <c r="P73" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C73,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy replaces the specified fraction of newly sold non-electric building components of the selected type(s) in buildings of the selected type(s) with electricity-using components. // **Guidance for setting values:** // **Urban Residential:** In the Reference case, the share of electricity among fuels used by urban and rural residential buildings is 28% in Mexico.  // **Rural Residential:** In the Reference case, the share of electricity among fuels used by urban and rural residential buildings is 28% in Mexico.  // **Commercial:** In the Reference case, the share of electricity among fuels used by commercial buildings is 50% in Mexico.</v>
+        <v>**Description:** This policy replaces the specified fraction of newly sold non-electric building components in buildings of the selected type(s) with electricity-using components. // **Guidance for setting values:** // **Urban Residential:** In the Reference case, the share of electricity among fuels used by urban and rural residential buildings is 28% in Mexico.  // **Rural Residential:** In the Reference case, the share of electricity among fuels used by urban and rural residential buildings is 28% in Mexico.  // **Commercial:** In the Reference case, the share of electricity among fuels used by commercial buildings is 50% in Mexico.</v>
       </c>
       <c r="Q73" s="56" t="s">
         <v>247</v>
@@ -12550,9 +12550,9 @@
         <f t="shared" si="22"/>
         <v>% of newly sold non-electric building components</v>
       </c>
-      <c r="P74" s="161" t="str">
+      <c r="P74" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C74,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy replaces the specified fraction of newly sold non-electric building components of the selected type(s) in buildings of the selected type(s) with electricity-using components. // **Guidance for setting values:** // **Urban Residential:** In the Reference case, the share of electricity among fuels used by urban and rural residential buildings is 28% in Mexico.  // **Rural Residential:** In the Reference case, the share of electricity among fuels used by urban and rural residential buildings is 28% in Mexico.  // **Commercial:** In the Reference case, the share of electricity among fuels used by commercial buildings is 50% in Mexico.</v>
+        <v>**Description:** This policy replaces the specified fraction of newly sold non-electric building components in buildings of the selected type(s) with electricity-using components. // **Guidance for setting values:** // **Urban Residential:** In the Reference case, the share of electricity among fuels used by urban and rural residential buildings is 28% in Mexico.  // **Rural Residential:** In the Reference case, the share of electricity among fuels used by urban and rural residential buildings is 28% in Mexico.  // **Commercial:** In the Reference case, the share of electricity among fuels used by commercial buildings is 50% in Mexico.</v>
       </c>
       <c r="Q74" s="61" t="str">
         <f t="shared" si="22"/>
@@ -12617,9 +12617,9 @@
         <f t="shared" si="22"/>
         <v>% of newly sold non-electric building components</v>
       </c>
-      <c r="P75" s="161" t="str">
+      <c r="P75" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C75,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy replaces the specified fraction of newly sold non-electric building components of the selected type(s) in buildings of the selected type(s) with electricity-using components. // **Guidance for setting values:** // **Urban Residential:** In the Reference case, the share of electricity among fuels used by urban and rural residential buildings is 28% in Mexico.  // **Rural Residential:** In the Reference case, the share of electricity among fuels used by urban and rural residential buildings is 28% in Mexico.  // **Commercial:** In the Reference case, the share of electricity among fuels used by commercial buildings is 50% in Mexico.</v>
+        <v>**Description:** This policy replaces the specified fraction of newly sold non-electric building components in buildings of the selected type(s) with electricity-using components. // **Guidance for setting values:** // **Urban Residential:** In the Reference case, the share of electricity among fuels used by urban and rural residential buildings is 28% in Mexico.  // **Rural Residential:** In the Reference case, the share of electricity among fuels used by urban and rural residential buildings is 28% in Mexico.  // **Commercial:** In the Reference case, the share of electricity among fuels used by commercial buildings is 50% in Mexico.</v>
       </c>
       <c r="Q75" s="61" t="str">
         <f t="shared" si="22"/>
@@ -12680,7 +12680,7 @@
       <c r="O76" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="P76" s="161" t="str">
+      <c r="P76" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C76,'Policy Characteristics'!$C:$C,0))</f>
         <v xml:space="preserve">**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** Some studies have shown that applying New Appliance/Equipment Efficiency Standards and Building Efficiency Codes could reduce around 30% in whole-building energy use relative to Reference in a period of 15 years. </v>
       </c>
@@ -12753,7 +12753,7 @@
         <f t="shared" si="26"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P77" s="161" t="str">
+      <c r="P77" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C77,'Policy Characteristics'!$C:$C,0))</f>
         <v xml:space="preserve">**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** Some studies have shown that applying New Appliance/Equipment Efficiency Standards and Building Efficiency Codes could reduce around 30% in whole-building energy use relative to Reference in a period of 15 years. </v>
       </c>
@@ -12834,7 +12834,7 @@
         <f t="shared" si="26"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P78" s="161" t="str">
+      <c r="P78" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C78,'Policy Characteristics'!$C:$C,0))</f>
         <v xml:space="preserve">**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** Some studies have shown that applying New Appliance/Equipment Efficiency Standards and Building Efficiency Codes could reduce around 30% in whole-building energy use relative to Reference in a period of 15 years. </v>
       </c>
@@ -12915,7 +12915,7 @@
         <f t="shared" si="26"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P79" s="161" t="str">
+      <c r="P79" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C79,'Policy Characteristics'!$C:$C,0))</f>
         <v xml:space="preserve">**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** Some studies have shown that applying New Appliance/Equipment Efficiency Standards and Building Efficiency Codes could reduce around 30% in whole-building energy use relative to Reference in a period of 15 years. </v>
       </c>
@@ -12996,7 +12996,7 @@
         <f t="shared" si="26"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P80" s="161" t="str">
+      <c r="P80" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C80,'Policy Characteristics'!$C:$C,0))</f>
         <v xml:space="preserve">**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** Some studies have shown that applying New Appliance/Equipment Efficiency Standards and Building Efficiency Codes could reduce around 30% in whole-building energy use relative to Reference in a period of 15 years. </v>
       </c>
@@ -13077,7 +13077,7 @@
         <f t="shared" si="26"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P81" s="161" t="str">
+      <c r="P81" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C81,'Policy Characteristics'!$C:$C,0))</f>
         <v xml:space="preserve">**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** Some studies have shown that applying New Appliance/Equipment Efficiency Standards and Building Efficiency Codes could reduce around 30% in whole-building energy use relative to Reference in a period of 15 years. </v>
       </c>
@@ -13158,7 +13158,7 @@
         <f t="shared" si="26"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P82" s="161" t="str">
+      <c r="P82" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C82,'Policy Characteristics'!$C:$C,0))</f>
         <v xml:space="preserve">**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** Some studies have shown that applying New Appliance/Equipment Efficiency Standards and Building Efficiency Codes could reduce around 30% in whole-building energy use relative to Reference in a period of 15 years. </v>
       </c>
@@ -13239,7 +13239,7 @@
         <f t="shared" si="26"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P83" s="161" t="str">
+      <c r="P83" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C83,'Policy Characteristics'!$C:$C,0))</f>
         <v xml:space="preserve">**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** Some studies have shown that applying New Appliance/Equipment Efficiency Standards and Building Efficiency Codes could reduce around 30% in whole-building energy use relative to Reference in a period of 15 years. </v>
       </c>
@@ -13320,7 +13320,7 @@
         <f t="shared" si="26"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P84" s="161" t="str">
+      <c r="P84" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C84,'Policy Characteristics'!$C:$C,0))</f>
         <v xml:space="preserve">**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** Some studies have shown that applying New Appliance/Equipment Efficiency Standards and Building Efficiency Codes could reduce around 30% in whole-building energy use relative to Reference in a period of 15 years. </v>
       </c>
@@ -13401,7 +13401,7 @@
         <f t="shared" si="26"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P85" s="161" t="str">
+      <c r="P85" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C85,'Policy Characteristics'!$C:$C,0))</f>
         <v xml:space="preserve">**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** Some studies have shown that applying New Appliance/Equipment Efficiency Standards and Building Efficiency Codes could reduce around 30% in whole-building energy use relative to Reference in a period of 15 years. </v>
       </c>
@@ -13482,7 +13482,7 @@
         <f t="shared" si="26"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P86" s="161" t="str">
+      <c r="P86" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C86,'Policy Characteristics'!$C:$C,0))</f>
         <v xml:space="preserve">**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** Some studies have shown that applying New Appliance/Equipment Efficiency Standards and Building Efficiency Codes could reduce around 30% in whole-building energy use relative to Reference in a period of 15 years. </v>
       </c>
@@ -13563,7 +13563,7 @@
         <f t="shared" si="26"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P87" s="161" t="str">
+      <c r="P87" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C87,'Policy Characteristics'!$C:$C,0))</f>
         <v xml:space="preserve">**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** Some studies have shown that applying New Appliance/Equipment Efficiency Standards and Building Efficiency Codes could reduce around 30% in whole-building energy use relative to Reference in a period of 15 years. </v>
       </c>
@@ -13644,7 +13644,7 @@
         <f t="shared" si="26"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P88" s="161" t="str">
+      <c r="P88" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C88,'Policy Characteristics'!$C:$C,0))</f>
         <v xml:space="preserve">**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** Some studies have shown that applying New Appliance/Equipment Efficiency Standards and Building Efficiency Codes could reduce around 30% in whole-building energy use relative to Reference in a period of 15 years. </v>
       </c>
@@ -13725,7 +13725,7 @@
         <f t="shared" si="26"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P89" s="161" t="str">
+      <c r="P89" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C89,'Policy Characteristics'!$C:$C,0))</f>
         <v xml:space="preserve">**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** Some studies have shown that applying New Appliance/Equipment Efficiency Standards and Building Efficiency Codes could reduce around 30% in whole-building energy use relative to Reference in a period of 15 years. </v>
       </c>
@@ -13806,7 +13806,7 @@
         <f t="shared" si="26"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P90" s="161" t="str">
+      <c r="P90" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C90,'Policy Characteristics'!$C:$C,0))</f>
         <v xml:space="preserve">**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** Some studies have shown that applying New Appliance/Equipment Efficiency Standards and Building Efficiency Codes could reduce around 30% in whole-building energy use relative to Reference in a period of 15 years. </v>
       </c>
@@ -13887,7 +13887,7 @@
         <f t="shared" si="26"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P91" s="161" t="str">
+      <c r="P91" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C91,'Policy Characteristics'!$C:$C,0))</f>
         <v xml:space="preserve">**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** Some studies have shown that applying New Appliance/Equipment Efficiency Standards and Building Efficiency Codes could reduce around 30% in whole-building energy use relative to Reference in a period of 15 years. </v>
       </c>
@@ -13968,7 +13968,7 @@
         <f t="shared" si="26"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P92" s="161" t="str">
+      <c r="P92" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C92,'Policy Characteristics'!$C:$C,0))</f>
         <v xml:space="preserve">**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** Some studies have shown that applying New Appliance/Equipment Efficiency Standards and Building Efficiency Codes could reduce around 30% in whole-building energy use relative to Reference in a period of 15 years. </v>
       </c>
@@ -14049,7 +14049,7 @@
         <f t="shared" si="31"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P93" s="161" t="str">
+      <c r="P93" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C93,'Policy Characteristics'!$C:$C,0))</f>
         <v xml:space="preserve">**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** Some studies have shown that applying New Appliance/Equipment Efficiency Standards and Building Efficiency Codes could reduce around 30% in whole-building energy use relative to Reference in a period of 15 years. </v>
       </c>
@@ -14113,7 +14113,7 @@
       <c r="O94" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="P94" s="161" t="str">
+      <c r="P94" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C94,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents a program to train contractors in energy-efficient products and installation practices.  This covers activities such as air sealing, building framing, and choice and application of insulation.  This policy affects newly sold building envelope components, which reduce the energy use of heating, cooling, and ventilation systems in buildings by 3.7%.</v>
       </c>
@@ -14168,7 +14168,7 @@
       <c r="O95" s="56" t="s">
         <v>327</v>
       </c>
-      <c r="P95" s="161" t="str">
+      <c r="P95" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C95,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy requires at least the specified percentage of total retail electricity demand to be generated by residential and commercial buildings' distributed solar systems (typically rooftop PV).</v>
       </c>
@@ -14224,7 +14224,7 @@
       <c r="O96" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="P96" s="161" t="str">
+      <c r="P96" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C96,'Policy Characteristics'!$C:$C,0))</f>
         <v xml:space="preserve">**Description:** This policy causes the government to reimburse building owners for a percentage of the cost of new distributed solar PV capacity that is installed on or around buildings. // **Guidance for setting values:** The National Housing Comission (CONAVI) and the Energy Ministry (SENER) have a program that supports low-income households with 40% of the initial investment of clean technologies like solar panels. </v>
       </c>
@@ -14278,7 +14278,7 @@
       <c r="O97" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="P97" s="161" t="str">
+      <c r="P97" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C97,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents a program requiring newly sold heating systems, cooling and ventilation systems, and appliances to feature prominent, well-designed labels highlighting their energy efficiencies.  The policy reduces energy consumption of newly sold buiding components of these types by 10%.</v>
       </c>
@@ -14337,7 +14337,7 @@
       <c r="O98" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="P98" s="161" t="str">
+      <c r="P98" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C98,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** Each year, the specified percentage of the selected building type(s) that existed at the start of the model run will be retrofit with more efficient heating, cooling, and envelope components.  This is in addtion to the retirement and replacement of these systems that have lived out their lifetimes.  The systems replaced by this policy are assumed to have an efficiency equal to that of the average deployed system and 33% of their useful lives remaining. // **Guidance for setting values:** // **Heating:** Heating systems have a normal lifespan of 19 years, so without this retrofitting policy, 5.3% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of heating systems to 16 years. // **Cooling and Ventilation:** Cooling and ventilation systems have a normal lifespan of 16 years, so without this retrofitting policy, 6.3% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of cooling and ventilation systems to 14 years. // **Envelope:** Envelope components have a normal lifespan of 52 years, so without this retrofitting policy, 1.9% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of envelope components to 34 years. // **Lighting:** Lighting components have a normal lifespan of 9 years, so without this retrofitting policy, 11.1% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of lighting components to 8 years. // **Appliances:** Appliances have a normal lifespan of 14 years, so without this retrofitting policy, 7.1% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of appliances to 12 years. // **Other Components:** Other energy-using components have a normal lifespan of 15 years, so without this retrofitting policy, 6.7% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of other energy-using components to 13 years.</v>
       </c>
@@ -14406,7 +14406,7 @@
         <f t="shared" si="35"/>
         <v>% of existing building components</v>
       </c>
-      <c r="P99" s="161" t="str">
+      <c r="P99" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C99,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** Each year, the specified percentage of the selected building type(s) that existed at the start of the model run will be retrofit with more efficient heating, cooling, and envelope components.  This is in addtion to the retirement and replacement of these systems that have lived out their lifetimes.  The systems replaced by this policy are assumed to have an efficiency equal to that of the average deployed system and 33% of their useful lives remaining. // **Guidance for setting values:** // **Heating:** Heating systems have a normal lifespan of 19 years, so without this retrofitting policy, 5.3% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of heating systems to 16 years. // **Cooling and Ventilation:** Cooling and ventilation systems have a normal lifespan of 16 years, so without this retrofitting policy, 6.3% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of cooling and ventilation systems to 14 years. // **Envelope:** Envelope components have a normal lifespan of 52 years, so without this retrofitting policy, 1.9% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of envelope components to 34 years. // **Lighting:** Lighting components have a normal lifespan of 9 years, so without this retrofitting policy, 11.1% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of lighting components to 8 years. // **Appliances:** Appliances have a normal lifespan of 14 years, so without this retrofitting policy, 7.1% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of appliances to 12 years. // **Other Components:** Other energy-using components have a normal lifespan of 15 years, so without this retrofitting policy, 6.7% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of other energy-using components to 13 years.</v>
       </c>
@@ -14474,7 +14474,7 @@
         <f t="shared" si="35"/>
         <v>% of existing building components</v>
       </c>
-      <c r="P100" s="161" t="str">
+      <c r="P100" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C100,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** Each year, the specified percentage of the selected building type(s) that existed at the start of the model run will be retrofit with more efficient heating, cooling, and envelope components.  This is in addtion to the retirement and replacement of these systems that have lived out their lifetimes.  The systems replaced by this policy are assumed to have an efficiency equal to that of the average deployed system and 33% of their useful lives remaining. // **Guidance for setting values:** // **Heating:** Heating systems have a normal lifespan of 19 years, so without this retrofitting policy, 5.3% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of heating systems to 16 years. // **Cooling and Ventilation:** Cooling and ventilation systems have a normal lifespan of 16 years, so without this retrofitting policy, 6.3% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of cooling and ventilation systems to 14 years. // **Envelope:** Envelope components have a normal lifespan of 52 years, so without this retrofitting policy, 1.9% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of envelope components to 34 years. // **Lighting:** Lighting components have a normal lifespan of 9 years, so without this retrofitting policy, 11.1% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of lighting components to 8 years. // **Appliances:** Appliances have a normal lifespan of 14 years, so without this retrofitting policy, 7.1% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of appliances to 12 years. // **Other Components:** Other energy-using components have a normal lifespan of 15 years, so without this retrofitting policy, 6.7% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of other energy-using components to 13 years.</v>
       </c>
@@ -14542,7 +14542,7 @@
         <f t="shared" si="36"/>
         <v>% of existing building components</v>
       </c>
-      <c r="P101" s="161" t="str">
+      <c r="P101" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C101,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** Each year, the specified percentage of the selected building type(s) that existed at the start of the model run will be retrofit with more efficient heating, cooling, and envelope components.  This is in addtion to the retirement and replacement of these systems that have lived out their lifetimes.  The systems replaced by this policy are assumed to have an efficiency equal to that of the average deployed system and 33% of their useful lives remaining. // **Guidance for setting values:** // **Heating:** Heating systems have a normal lifespan of 19 years, so without this retrofitting policy, 5.3% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of heating systems to 16 years. // **Cooling and Ventilation:** Cooling and ventilation systems have a normal lifespan of 16 years, so without this retrofitting policy, 6.3% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of cooling and ventilation systems to 14 years. // **Envelope:** Envelope components have a normal lifespan of 52 years, so without this retrofitting policy, 1.9% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of envelope components to 34 years. // **Lighting:** Lighting components have a normal lifespan of 9 years, so without this retrofitting policy, 11.1% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of lighting components to 8 years. // **Appliances:** Appliances have a normal lifespan of 14 years, so without this retrofitting policy, 7.1% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of appliances to 12 years. // **Other Components:** Other energy-using components have a normal lifespan of 15 years, so without this retrofitting policy, 6.7% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of other energy-using components to 13 years.</v>
       </c>
@@ -14610,7 +14610,7 @@
         <f t="shared" si="36"/>
         <v>% of existing building components</v>
       </c>
-      <c r="P102" s="161" t="str">
+      <c r="P102" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C102,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** Each year, the specified percentage of the selected building type(s) that existed at the start of the model run will be retrofit with more efficient heating, cooling, and envelope components.  This is in addtion to the retirement and replacement of these systems that have lived out their lifetimes.  The systems replaced by this policy are assumed to have an efficiency equal to that of the average deployed system and 33% of their useful lives remaining. // **Guidance for setting values:** // **Heating:** Heating systems have a normal lifespan of 19 years, so without this retrofitting policy, 5.3% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of heating systems to 16 years. // **Cooling and Ventilation:** Cooling and ventilation systems have a normal lifespan of 16 years, so without this retrofitting policy, 6.3% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of cooling and ventilation systems to 14 years. // **Envelope:** Envelope components have a normal lifespan of 52 years, so without this retrofitting policy, 1.9% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of envelope components to 34 years. // **Lighting:** Lighting components have a normal lifespan of 9 years, so without this retrofitting policy, 11.1% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of lighting components to 8 years. // **Appliances:** Appliances have a normal lifespan of 14 years, so without this retrofitting policy, 7.1% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of appliances to 12 years. // **Other Components:** Other energy-using components have a normal lifespan of 15 years, so without this retrofitting policy, 6.7% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of other energy-using components to 13 years.</v>
       </c>
@@ -14678,7 +14678,7 @@
         <f t="shared" si="36"/>
         <v>% of existing building components</v>
       </c>
-      <c r="P103" s="161" t="str">
+      <c r="P103" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C103,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** Each year, the specified percentage of the selected building type(s) that existed at the start of the model run will be retrofit with more efficient heating, cooling, and envelope components.  This is in addtion to the retirement and replacement of these systems that have lived out their lifetimes.  The systems replaced by this policy are assumed to have an efficiency equal to that of the average deployed system and 33% of their useful lives remaining. // **Guidance for setting values:** // **Heating:** Heating systems have a normal lifespan of 19 years, so without this retrofitting policy, 5.3% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of heating systems to 16 years. // **Cooling and Ventilation:** Cooling and ventilation systems have a normal lifespan of 16 years, so without this retrofitting policy, 6.3% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of cooling and ventilation systems to 14 years. // **Envelope:** Envelope components have a normal lifespan of 52 years, so without this retrofitting policy, 1.9% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of envelope components to 34 years. // **Lighting:** Lighting components have a normal lifespan of 9 years, so without this retrofitting policy, 11.1% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of lighting components to 8 years. // **Appliances:** Appliances have a normal lifespan of 14 years, so without this retrofitting policy, 7.1% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of appliances to 12 years. // **Other Components:** Other energy-using components have a normal lifespan of 15 years, so without this retrofitting policy, 6.7% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of other energy-using components to 13 years.</v>
       </c>
@@ -14737,7 +14737,7 @@
       <c r="O104" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="P104" s="161" t="str">
+      <c r="P104" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C104,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents a modest rebate paid to customers who purchase energy-efficient building equipment of the selected type(s).  Typical rebate amounts represented by this policy are $50-100 for a clothes washer and $25-50 for a dishwasher or refrigerator.</v>
       </c>
@@ -14804,7 +14804,7 @@
         <f>O$104</f>
         <v>on/off</v>
       </c>
-      <c r="P105" s="161" t="str">
+      <c r="P105" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C105,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents a modest rebate paid to customers who purchase energy-efficient building equipment of the selected type(s).  Typical rebate amounts represented by this policy are $50-100 for a clothes washer and $25-50 for a dishwasher or refrigerator.</v>
       </c>
@@ -14859,7 +14859,7 @@
       <c r="M106" s="68"/>
       <c r="N106" s="68"/>
       <c r="O106" s="56"/>
-      <c r="P106" s="161" t="str">
+      <c r="P106" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C106,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents a modest rebate paid to customers who purchase energy-efficient building equipment of the selected type(s).  Typical rebate amounts represented by this policy are $50-100 for a clothes washer and $25-50 for a dishwasher or refrigerator.</v>
       </c>
@@ -14908,7 +14908,7 @@
       <c r="M107" s="68"/>
       <c r="N107" s="68"/>
       <c r="O107" s="56"/>
-      <c r="P107" s="161" t="str">
+      <c r="P107" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C107,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents a modest rebate paid to customers who purchase energy-efficient building equipment of the selected type(s).  Typical rebate amounts represented by this policy are $50-100 for a clothes washer and $25-50 for a dishwasher or refrigerator.</v>
       </c>
@@ -14969,7 +14969,7 @@
         <f>O$104</f>
         <v>on/off</v>
       </c>
-      <c r="P108" s="161" t="str">
+      <c r="P108" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C108,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents a modest rebate paid to customers who purchase energy-efficient building equipment of the selected type(s).  Typical rebate amounts represented by this policy are $50-100 for a clothes washer and $25-50 for a dishwasher or refrigerator.</v>
       </c>
@@ -15024,7 +15024,7 @@
       <c r="M109" s="68"/>
       <c r="N109" s="68"/>
       <c r="O109" s="56"/>
-      <c r="P109" s="161" t="str">
+      <c r="P109" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C109,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents a modest rebate paid to customers who purchase energy-efficient building equipment of the selected type(s).  Typical rebate amounts represented by this policy are $50-100 for a clothes washer and $25-50 for a dishwasher or refrigerator.</v>
       </c>
@@ -15076,7 +15076,7 @@
       <c r="O110" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="P110" s="161" t="str">
+      <c r="P110" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C110,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy prevents new capacity of the selected type(s) from being built or deployed.</v>
       </c>
@@ -15141,7 +15141,7 @@
         <f t="shared" si="41"/>
         <v>on/off</v>
       </c>
-      <c r="P111" s="161" t="str">
+      <c r="P111" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C111,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy prevents new capacity of the selected type(s) from being built or deployed.</v>
       </c>
@@ -15208,7 +15208,7 @@
         <f t="shared" si="41"/>
         <v>on/off</v>
       </c>
-      <c r="P112" s="161" t="str">
+      <c r="P112" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C112,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy prevents new capacity of the selected type(s) from being built or deployed.</v>
       </c>
@@ -15275,7 +15275,7 @@
         <f t="shared" si="41"/>
         <v>on/off</v>
       </c>
-      <c r="P113" s="161" t="str">
+      <c r="P113" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C113,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy prevents new capacity of the selected type(s) from being built or deployed.</v>
       </c>
@@ -15328,7 +15328,7 @@
       <c r="M114" s="68"/>
       <c r="N114" s="68"/>
       <c r="O114" s="56"/>
-      <c r="P114" s="161" t="str">
+      <c r="P114" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C114,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy prevents new capacity of the selected type(s) from being built or deployed.</v>
       </c>
@@ -15375,7 +15375,7 @@
       <c r="M115" s="68"/>
       <c r="N115" s="68"/>
       <c r="O115" s="56"/>
-      <c r="P115" s="161" t="str">
+      <c r="P115" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C115,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy prevents new capacity of the selected type(s) from being built or deployed.</v>
       </c>
@@ -15422,7 +15422,7 @@
       <c r="M116" s="68"/>
       <c r="N116" s="68"/>
       <c r="O116" s="56"/>
-      <c r="P116" s="161" t="str">
+      <c r="P116" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C116,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy prevents new capacity of the selected type(s) from being built or deployed.</v>
       </c>
@@ -15469,7 +15469,7 @@
       <c r="M117" s="68"/>
       <c r="N117" s="68"/>
       <c r="O117" s="56"/>
-      <c r="P117" s="161" t="str">
+      <c r="P117" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C117,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy prevents new capacity of the selected type(s) from being built or deployed.</v>
       </c>
@@ -15516,7 +15516,7 @@
       <c r="M118" s="68"/>
       <c r="N118" s="68"/>
       <c r="O118" s="56"/>
-      <c r="P118" s="161" t="str">
+      <c r="P118" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C118,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy prevents new capacity of the selected type(s) from being built or deployed.</v>
       </c>
@@ -15563,7 +15563,7 @@
       <c r="M119" s="68"/>
       <c r="N119" s="68"/>
       <c r="O119" s="56"/>
-      <c r="P119" s="161" t="str">
+      <c r="P119" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C119,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy prevents new capacity of the selected type(s) from being built or deployed.</v>
       </c>
@@ -15624,7 +15624,7 @@
         <f t="shared" si="43"/>
         <v>on/off</v>
       </c>
-      <c r="P120" s="161" t="str">
+      <c r="P120" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C120,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy prevents new capacity of the selected type(s) from being built or deployed.</v>
       </c>
@@ -15677,7 +15677,7 @@
       <c r="M121" s="67"/>
       <c r="N121" s="67"/>
       <c r="O121" s="58"/>
-      <c r="P121" s="161" t="str">
+      <c r="P121" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C121,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy prevents new capacity of the selected type(s) from being built or deployed.</v>
       </c>
@@ -15725,9 +15725,9 @@
       <c r="O122" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="P122" s="161" t="str">
+      <c r="P122" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C122,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy increases or decreases the amount of electricity exported from Mexico to the United States, Belize and Guatemala.  It does not cause the construction or removal of transmission lines linking these countries. // **Guidance for setting values:** From 2010 to 2016 electricity exports have grown at 6% p.a. from 22 to 31 PJ.</v>
+        <v>**Description:** This policy increases or decreases the amount of electricity exported from Mexico to the United States.  It does not cause the construction or removal of transmission lines linking these countries. // **Guidance for setting values:** From 2010 to 2016 electricity exports have grown at 6% p.a. from 22 to 31 PJ.</v>
       </c>
       <c r="Q122" s="56" t="s">
         <v>341</v>
@@ -15781,9 +15781,9 @@
       <c r="O123" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="P123" s="161" t="str">
+      <c r="P123" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C123,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy increases or decreases the amount of electricity imported to Mexico from surrounding nations.  It does not cause the construction or removal of transmission lines linking these countries. // **Guidance for setting values:** From 2010 to 2016 electricity imports have grown from what have been a fairly constant 1.5 PJ to 12 PJ by 2016, although electricity imports are still 40% of exports (31 PJ).</v>
+        <v>**Description:** This policy increases or decreases the amount of electricity imported to Mexico from the United States.  It does not cause the construction or removal of transmission lines linking these countries. // **Guidance for setting values:** From 2010 to 2016 electricity imports have grown from what have been a fairly constant 1.5 PJ to 12 PJ by 2016, although electricity imports are still 40% of exports (31 PJ).</v>
       </c>
       <c r="Q123" s="56" t="s">
         <v>342</v>
@@ -15796,7 +15796,7 @@
       </c>
       <c r="T123" s="11"/>
       <c r="U123" s="107" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="124" spans="1:21" ht="44.25" x14ac:dyDescent="0.75">
@@ -15829,7 +15829,7 @@
       <c r="M124" s="68"/>
       <c r="N124" s="68"/>
       <c r="O124" s="56"/>
-      <c r="P124" s="161">
+      <c r="P124" s="156">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C124,'Policy Characteristics'!$C:$C,0))</f>
         <v>0</v>
       </c>
@@ -15877,7 +15877,7 @@
       <c r="O125" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="P125" s="161" t="str">
+      <c r="P125" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C125,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents regulations that cause more demand response (DR) capacity to be added to the electric grid.  Demand response provides flexibility that allows for the integration of more wind and solar PV, if the electricity system is flexibility-constrained. // **Guidance for setting values:** This lever adds additional demand response capacity on top of Reference case values.</v>
       </c>
@@ -15935,9 +15935,9 @@
       <c r="O126" s="56" t="s">
         <v>237</v>
       </c>
-      <c r="P126" s="161" t="str">
+      <c r="P126" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C126,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring capacity of the selected type(s) to be retired each year. // **Guidance for setting values:** // **Hard Coal:** PRODESEN's schedule has 1400 MW of coal capacity retirement in 2029-2030. Additional retirement projects up to 2800 MW retired by 2050 in the reference scenario. An "Accelerated Coal Retirement" policy should not exceed existing coal capacity (5387MW) plus any added by the model.</v>
+        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring coal capacity to be retired each year. // **Guidance for setting values:** // **Hard Coal:** PRODESEN's schedule has 1400 MW of coal capacity retirement in 2029-2030. Additional retirement projects up to 2800 MW retired by 2050 in the reference scenario. An "Accelerated Coal Retirement" policy should not exceed existing coal capacity (5387MW) plus any added by the model.</v>
       </c>
       <c r="Q126" s="56" t="s">
         <v>261</v>
@@ -15952,7 +15952,7 @@
         <v>238</v>
       </c>
       <c r="U126" s="107" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="127" spans="1:21" ht="59" x14ac:dyDescent="0.75">
@@ -15994,9 +15994,9 @@
       <c r="M127" s="74"/>
       <c r="N127" s="74"/>
       <c r="O127" s="56"/>
-      <c r="P127" s="161" t="str">
+      <c r="P127" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C127,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring capacity of the selected type(s) to be retired each year. // **Guidance for setting values:** // **Hard Coal:** PRODESEN's schedule has 1400 MW of coal capacity retirement in 2029-2030. Additional retirement projects up to 2800 MW retired by 2050 in the reference scenario. An "Accelerated Coal Retirement" policy should not exceed existing coal capacity (5387MW) plus any added by the model.</v>
+        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring coal capacity to be retired each year. // **Guidance for setting values:** // **Hard Coal:** PRODESEN's schedule has 1400 MW of coal capacity retirement in 2029-2030. Additional retirement projects up to 2800 MW retired by 2050 in the reference scenario. An "Accelerated Coal Retirement" policy should not exceed existing coal capacity (5387MW) plus any added by the model.</v>
       </c>
       <c r="Q127" s="56"/>
       <c r="R127" s="11"/>
@@ -16055,9 +16055,9 @@
         <f>O$126</f>
         <v>MW/year</v>
       </c>
-      <c r="P128" s="161" t="str">
+      <c r="P128" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C128,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring capacity of the selected type(s) to be retired each year. // **Guidance for setting values:** // **Hard Coal:** PRODESEN's schedule has 1400 MW of coal capacity retirement in 2029-2030. Additional retirement projects up to 2800 MW retired by 2050 in the reference scenario. An "Accelerated Coal Retirement" policy should not exceed existing coal capacity (5387MW) plus any added by the model.</v>
+        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring coal capacity to be retired each year. // **Guidance for setting values:** // **Hard Coal:** PRODESEN's schedule has 1400 MW of coal capacity retirement in 2029-2030. Additional retirement projects up to 2800 MW retired by 2050 in the reference scenario. An "Accelerated Coal Retirement" policy should not exceed existing coal capacity (5387MW) plus any added by the model.</v>
       </c>
       <c r="Q128" s="56" t="s">
         <v>261</v>
@@ -16070,7 +16070,7 @@
       </c>
       <c r="T128" s="56"/>
       <c r="U128" s="107" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="129" spans="1:21" ht="59" x14ac:dyDescent="0.75">
@@ -16112,9 +16112,9 @@
       <c r="M129" s="74"/>
       <c r="N129" s="74"/>
       <c r="O129" s="56"/>
-      <c r="P129" s="161" t="str">
+      <c r="P129" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C129,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring capacity of the selected type(s) to be retired each year. // **Guidance for setting values:** // **Hard Coal:** PRODESEN's schedule has 1400 MW of coal capacity retirement in 2029-2030. Additional retirement projects up to 2800 MW retired by 2050 in the reference scenario. An "Accelerated Coal Retirement" policy should not exceed existing coal capacity (5387MW) plus any added by the model.</v>
+        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring coal capacity to be retired each year. // **Guidance for setting values:** // **Hard Coal:** PRODESEN's schedule has 1400 MW of coal capacity retirement in 2029-2030. Additional retirement projects up to 2800 MW retired by 2050 in the reference scenario. An "Accelerated Coal Retirement" policy should not exceed existing coal capacity (5387MW) plus any added by the model.</v>
       </c>
       <c r="Q129" s="56"/>
       <c r="R129" s="11"/>
@@ -16161,9 +16161,9 @@
       <c r="M130" s="74"/>
       <c r="N130" s="74"/>
       <c r="O130" s="56"/>
-      <c r="P130" s="161" t="str">
+      <c r="P130" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C130,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring capacity of the selected type(s) to be retired each year. // **Guidance for setting values:** // **Hard Coal:** PRODESEN's schedule has 1400 MW of coal capacity retirement in 2029-2030. Additional retirement projects up to 2800 MW retired by 2050 in the reference scenario. An "Accelerated Coal Retirement" policy should not exceed existing coal capacity (5387MW) plus any added by the model.</v>
+        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring coal capacity to be retired each year. // **Guidance for setting values:** // **Hard Coal:** PRODESEN's schedule has 1400 MW of coal capacity retirement in 2029-2030. Additional retirement projects up to 2800 MW retired by 2050 in the reference scenario. An "Accelerated Coal Retirement" policy should not exceed existing coal capacity (5387MW) plus any added by the model.</v>
       </c>
       <c r="Q130" s="56"/>
       <c r="R130" s="11"/>
@@ -16210,9 +16210,9 @@
       <c r="M131" s="74"/>
       <c r="N131" s="74"/>
       <c r="O131" s="56"/>
-      <c r="P131" s="161" t="str">
+      <c r="P131" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C131,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring capacity of the selected type(s) to be retired each year. // **Guidance for setting values:** // **Hard Coal:** PRODESEN's schedule has 1400 MW of coal capacity retirement in 2029-2030. Additional retirement projects up to 2800 MW retired by 2050 in the reference scenario. An "Accelerated Coal Retirement" policy should not exceed existing coal capacity (5387MW) plus any added by the model.</v>
+        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring coal capacity to be retired each year. // **Guidance for setting values:** // **Hard Coal:** PRODESEN's schedule has 1400 MW of coal capacity retirement in 2029-2030. Additional retirement projects up to 2800 MW retired by 2050 in the reference scenario. An "Accelerated Coal Retirement" policy should not exceed existing coal capacity (5387MW) plus any added by the model.</v>
       </c>
       <c r="Q131" s="56"/>
       <c r="R131" s="11"/>
@@ -16259,9 +16259,9 @@
       <c r="M132" s="74"/>
       <c r="N132" s="74"/>
       <c r="O132" s="56"/>
-      <c r="P132" s="161" t="str">
+      <c r="P132" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C132,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring capacity of the selected type(s) to be retired each year. // **Guidance for setting values:** // **Hard Coal:** PRODESEN's schedule has 1400 MW of coal capacity retirement in 2029-2030. Additional retirement projects up to 2800 MW retired by 2050 in the reference scenario. An "Accelerated Coal Retirement" policy should not exceed existing coal capacity (5387MW) plus any added by the model.</v>
+        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring coal capacity to be retired each year. // **Guidance for setting values:** // **Hard Coal:** PRODESEN's schedule has 1400 MW of coal capacity retirement in 2029-2030. Additional retirement projects up to 2800 MW retired by 2050 in the reference scenario. An "Accelerated Coal Retirement" policy should not exceed existing coal capacity (5387MW) plus any added by the model.</v>
       </c>
       <c r="Q132" s="56"/>
       <c r="R132" s="11"/>
@@ -16308,9 +16308,9 @@
       <c r="M133" s="74"/>
       <c r="N133" s="74"/>
       <c r="O133" s="56"/>
-      <c r="P133" s="161" t="str">
+      <c r="P133" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C133,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring capacity of the selected type(s) to be retired each year. // **Guidance for setting values:** // **Hard Coal:** PRODESEN's schedule has 1400 MW of coal capacity retirement in 2029-2030. Additional retirement projects up to 2800 MW retired by 2050 in the reference scenario. An "Accelerated Coal Retirement" policy should not exceed existing coal capacity (5387MW) plus any added by the model.</v>
+        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring coal capacity to be retired each year. // **Guidance for setting values:** // **Hard Coal:** PRODESEN's schedule has 1400 MW of coal capacity retirement in 2029-2030. Additional retirement projects up to 2800 MW retired by 2050 in the reference scenario. An "Accelerated Coal Retirement" policy should not exceed existing coal capacity (5387MW) plus any added by the model.</v>
       </c>
       <c r="Q133" s="56"/>
       <c r="R133" s="11"/>
@@ -16355,9 +16355,9 @@
       <c r="M134" s="74"/>
       <c r="N134" s="74"/>
       <c r="O134" s="56"/>
-      <c r="P134" s="161" t="str">
+      <c r="P134" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C134,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring capacity of the selected type(s) to be retired each year. // **Guidance for setting values:** // **Hard Coal:** PRODESEN's schedule has 1400 MW of coal capacity retirement in 2029-2030. Additional retirement projects up to 2800 MW retired by 2050 in the reference scenario. An "Accelerated Coal Retirement" policy should not exceed existing coal capacity (5387MW) plus any added by the model.</v>
+        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring coal capacity to be retired each year. // **Guidance for setting values:** // **Hard Coal:** PRODESEN's schedule has 1400 MW of coal capacity retirement in 2029-2030. Additional retirement projects up to 2800 MW retired by 2050 in the reference scenario. An "Accelerated Coal Retirement" policy should not exceed existing coal capacity (5387MW) plus any added by the model.</v>
       </c>
       <c r="Q134" s="56"/>
       <c r="R134" s="11"/>
@@ -16402,9 +16402,9 @@
       <c r="M135" s="74"/>
       <c r="N135" s="74"/>
       <c r="O135" s="56"/>
-      <c r="P135" s="161" t="str">
+      <c r="P135" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C135,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring capacity of the selected type(s) to be retired each year. // **Guidance for setting values:** // **Hard Coal:** PRODESEN's schedule has 1400 MW of coal capacity retirement in 2029-2030. Additional retirement projects up to 2800 MW retired by 2050 in the reference scenario. An "Accelerated Coal Retirement" policy should not exceed existing coal capacity (5387MW) plus any added by the model.</v>
+        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring coal capacity to be retired each year. // **Guidance for setting values:** // **Hard Coal:** PRODESEN's schedule has 1400 MW of coal capacity retirement in 2029-2030. Additional retirement projects up to 2800 MW retired by 2050 in the reference scenario. An "Accelerated Coal Retirement" policy should not exceed existing coal capacity (5387MW) plus any added by the model.</v>
       </c>
       <c r="Q135" s="56"/>
       <c r="R135" s="11"/>
@@ -16449,9 +16449,9 @@
       <c r="M136" s="67"/>
       <c r="N136" s="67"/>
       <c r="O136" s="58"/>
-      <c r="P136" s="161" t="str">
+      <c r="P136" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C136,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring capacity of the selected type(s) to be retired each year. // **Guidance for setting values:** // **Hard Coal:** PRODESEN's schedule has 1400 MW of coal capacity retirement in 2029-2030. Additional retirement projects up to 2800 MW retired by 2050 in the reference scenario. An "Accelerated Coal Retirement" policy should not exceed existing coal capacity (5387MW) plus any added by the model.</v>
+        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring coal capacity to be retired each year. // **Guidance for setting values:** // **Hard Coal:** PRODESEN's schedule has 1400 MW of coal capacity retirement in 2029-2030. Additional retirement projects up to 2800 MW retired by 2050 in the reference scenario. An "Accelerated Coal Retirement" policy should not exceed existing coal capacity (5387MW) plus any added by the model.</v>
       </c>
       <c r="Q136" s="56"/>
       <c r="R136" s="11"/>
@@ -16496,9 +16496,9 @@
       <c r="M137" s="67"/>
       <c r="N137" s="67"/>
       <c r="O137" s="58"/>
-      <c r="P137" s="161" t="str">
+      <c r="P137" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C137,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring capacity of the selected type(s) to be retired each year. // **Guidance for setting values:** // **Hard Coal:** PRODESEN's schedule has 1400 MW of coal capacity retirement in 2029-2030. Additional retirement projects up to 2800 MW retired by 2050 in the reference scenario. An "Accelerated Coal Retirement" policy should not exceed existing coal capacity (5387MW) plus any added by the model.</v>
+        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring coal capacity to be retired each year. // **Guidance for setting values:** // **Hard Coal:** PRODESEN's schedule has 1400 MW of coal capacity retirement in 2029-2030. Additional retirement projects up to 2800 MW retired by 2050 in the reference scenario. An "Accelerated Coal Retirement" policy should not exceed existing coal capacity (5387MW) plus any added by the model.</v>
       </c>
       <c r="Q137" s="56"/>
       <c r="R137" s="11"/>
@@ -16544,7 +16544,7 @@
       <c r="O138" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="P138" s="161" t="str">
+      <c r="P138" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C138,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes grid-scale electricity storage from chemical batteries to grow at the specified percentage, annually, above the amount predicted in the BAU Scenario. // **Guidance for setting values:** There is no reference on storage requirements for an aggresive transition to electricity generation from renowable sources in Mexico. Studies in the U.S. suggest the 181 GW of storage capacity will be required for 80% of electricity from renewables in 2050, which translates to approximately 15 GW in storage for Mexico.</v>
       </c>
@@ -16561,7 +16561,7 @@
         <v>192</v>
       </c>
       <c r="U138" s="109" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="139" spans="1:21" ht="73.75" x14ac:dyDescent="0.75">
@@ -16603,7 +16603,7 @@
       <c r="O139" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="P139" s="161" t="str">
+      <c r="P139" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C139,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes additional transmission capacity to be built relative to the BAU case.  Transmission increases the flexibility of the grid, allowing for the integration of more wind and solar PV, if the electricity system is flexibility-constrained. // **Guidance for setting values:** There is no reference on incremental transmission requirements for an aggresive transition to electricity generation from renowable sources in Mexico. Studies in the U.S. suggest  a 21% increase in transmission capacity will be required.</v>
       </c>
@@ -16649,7 +16649,7 @@
       <c r="M140" s="68"/>
       <c r="N140" s="68"/>
       <c r="O140" s="56"/>
-      <c r="P140" s="161">
+      <c r="P140" s="156">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C140,'Policy Characteristics'!$C:$C,0))</f>
         <v>0</v>
       </c>
@@ -16689,7 +16689,7 @@
       <c r="M141" s="68"/>
       <c r="N141" s="68"/>
       <c r="O141" s="56"/>
-      <c r="P141" s="161">
+      <c r="P141" s="156">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C141,'Policy Characteristics'!$C:$C,0))</f>
         <v>0</v>
       </c>
@@ -16735,7 +16735,7 @@
       <c r="O142" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="P142" s="161" t="str">
+      <c r="P142" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C142,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy extends the lifetime of all nuclear plants by the specified number of years. // **Guidance for setting values:** The BAU case assumes 60-year lifetimes for nuclear plants, because currently-running nuclear plants (licensed for 40 years) routinely receive 20-year extensions.  Some utilities may apply for further 20-year license extensions (allowing for a lifetime of 80 years).</v>
       </c>
@@ -16785,7 +16785,7 @@
       <c r="M143" s="66"/>
       <c r="N143" s="66"/>
       <c r="O143" s="11"/>
-      <c r="P143" s="161" t="str">
+      <c r="P143" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C143,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years). This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  The average capacity factor of new turbines in the BAU case is roughly 43%, so an improvement to 53% might be represented as an 18% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -16832,7 +16832,7 @@
       <c r="M144" s="66"/>
       <c r="N144" s="66"/>
       <c r="O144" s="11"/>
-      <c r="P144" s="161" t="str">
+      <c r="P144" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C144,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years). This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  The average capacity factor of new turbines in the BAU case is roughly 43%, so an improvement to 53% might be represented as an 18% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -16879,7 +16879,7 @@
       <c r="M145" s="73"/>
       <c r="N145" s="73"/>
       <c r="O145" s="11"/>
-      <c r="P145" s="161" t="str">
+      <c r="P145" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C145,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years). This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  The average capacity factor of new turbines in the BAU case is roughly 43%, so an improvement to 53% might be represented as an 18% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -16940,7 +16940,7 @@
       <c r="O146" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="P146" s="161" t="str">
+      <c r="P146" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C146,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years). This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  The average capacity factor of new turbines in the BAU case is roughly 43%, so an improvement to 53% might be represented as an 18% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -16993,7 +16993,7 @@
       <c r="M147" s="66"/>
       <c r="N147" s="66"/>
       <c r="O147" s="11"/>
-      <c r="P147" s="161" t="str">
+      <c r="P147" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C147,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years). This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  The average capacity factor of new turbines in the BAU case is roughly 43%, so an improvement to 53% might be represented as an 18% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -17040,7 +17040,7 @@
       <c r="M148" s="73"/>
       <c r="N148" s="73"/>
       <c r="O148" s="11"/>
-      <c r="P148" s="161" t="str">
+      <c r="P148" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C148,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years). This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  The average capacity factor of new turbines in the BAU case is roughly 43%, so an improvement to 53% might be represented as an 18% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -17087,7 +17087,7 @@
       <c r="M149" s="73"/>
       <c r="N149" s="73"/>
       <c r="O149" s="11"/>
-      <c r="P149" s="161" t="str">
+      <c r="P149" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C149,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years). This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  The average capacity factor of new turbines in the BAU case is roughly 43%, so an improvement to 53% might be represented as an 18% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -17134,7 +17134,7 @@
       <c r="M150" s="73"/>
       <c r="N150" s="73"/>
       <c r="O150" s="11"/>
-      <c r="P150" s="161" t="str">
+      <c r="P150" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C150,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years). This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  The average capacity factor of new turbines in the BAU case is roughly 43%, so an improvement to 53% might be represented as an 18% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -17181,7 +17181,7 @@
       <c r="M151" s="73"/>
       <c r="N151" s="73"/>
       <c r="O151" s="11"/>
-      <c r="P151" s="161" t="str">
+      <c r="P151" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C151,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years). This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  The average capacity factor of new turbines in the BAU case is roughly 43%, so an improvement to 53% might be represented as an 18% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -17228,7 +17228,7 @@
       <c r="M152" s="73"/>
       <c r="N152" s="73"/>
       <c r="O152" s="11"/>
-      <c r="P152" s="161" t="str">
+      <c r="P152" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C152,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years). This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  The average capacity factor of new turbines in the BAU case is roughly 43%, so an improvement to 53% might be represented as an 18% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -17275,7 +17275,7 @@
       <c r="M153" s="73"/>
       <c r="N153" s="73"/>
       <c r="O153" s="11"/>
-      <c r="P153" s="161" t="str">
+      <c r="P153" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C153,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years). This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  The average capacity factor of new turbines in the BAU case is roughly 43%, so an improvement to 53% might be represented as an 18% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -17322,7 +17322,7 @@
       <c r="M154" s="73"/>
       <c r="N154" s="73"/>
       <c r="O154" s="11"/>
-      <c r="P154" s="161" t="str">
+      <c r="P154" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C154,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years). This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  The average capacity factor of new turbines in the BAU case is roughly 43%, so an improvement to 53% might be represented as an 18% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -17369,7 +17369,7 @@
       <c r="M155" s="73"/>
       <c r="N155" s="73"/>
       <c r="O155" s="11"/>
-      <c r="P155" s="161" t="str">
+      <c r="P155" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C155,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years). This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  The average capacity factor of new turbines in the BAU case is roughly 43%, so an improvement to 53% might be represented as an 18% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -17416,7 +17416,7 @@
       <c r="M156" s="73"/>
       <c r="N156" s="73"/>
       <c r="O156" s="11"/>
-      <c r="P156" s="161" t="str">
+      <c r="P156" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C156,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years). This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  The average capacity factor of new turbines in the BAU case is roughly 43%, so an improvement to 53% might be represented as an 18% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -17477,7 +17477,7 @@
       <c r="O157" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="P157" s="161" t="str">
+      <c r="P157" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C157,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years). This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  The average capacity factor of new turbines in the BAU case is roughly 43%, so an improvement to 53% might be represented as an 18% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -17530,7 +17530,7 @@
       <c r="M158" s="73"/>
       <c r="N158" s="73"/>
       <c r="O158" s="11"/>
-      <c r="P158" s="161" t="str">
+      <c r="P158" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C158,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years). This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  The average capacity factor of new turbines in the BAU case is roughly 43%, so an improvement to 53% might be represented as an 18% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -17577,7 +17577,7 @@
       <c r="M159" s="73"/>
       <c r="N159" s="73"/>
       <c r="O159" s="11"/>
-      <c r="P159" s="161" t="str">
+      <c r="P159" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C159,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years). This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  The average capacity factor of new turbines in the BAU case is roughly 43%, so an improvement to 53% might be represented as an 18% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -17638,7 +17638,7 @@
       <c r="O160" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="P160" s="161" t="str">
+      <c r="P160" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C160,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years). This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  The average capacity factor of new turbines in the BAU case is roughly 43%, so an improvement to 53% might be represented as an 18% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -17691,7 +17691,7 @@
       <c r="M161" s="73"/>
       <c r="N161" s="73"/>
       <c r="O161" s="11"/>
-      <c r="P161" s="161" t="str">
+      <c r="P161" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C161,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years). This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  The average capacity factor of new turbines in the BAU case is roughly 43%, so an improvement to 53% might be represented as an 18% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -17738,7 +17738,7 @@
       <c r="M162" s="73"/>
       <c r="N162" s="73"/>
       <c r="O162" s="11"/>
-      <c r="P162" s="161" t="str">
+      <c r="P162" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C162,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years). This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  The average capacity factor of new turbines in the BAU case is roughly 43%, so an improvement to 53% might be represented as an 18% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -17785,7 +17785,7 @@
       <c r="M163" s="73"/>
       <c r="N163" s="73"/>
       <c r="O163" s="11"/>
-      <c r="P163" s="161" t="str">
+      <c r="P163" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C163,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years). This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  The average capacity factor of new turbines in the BAU case is roughly 43%, so an improvement to 53% might be represented as an 18% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -17832,7 +17832,7 @@
       <c r="M164" s="73"/>
       <c r="N164" s="73"/>
       <c r="O164" s="11"/>
-      <c r="P164" s="161" t="str">
+      <c r="P164" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C164,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years). This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  The average capacity factor of new turbines in the BAU case is roughly 43%, so an improvement to 53% might be represented as an 18% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -17879,7 +17879,7 @@
       <c r="M165" s="73"/>
       <c r="N165" s="73"/>
       <c r="O165" s="11"/>
-      <c r="P165" s="161" t="str">
+      <c r="P165" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C165,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years). This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  The average capacity factor of new turbines in the BAU case is roughly 43%, so an improvement to 53% might be represented as an 18% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -17926,7 +17926,7 @@
       <c r="M166" s="73"/>
       <c r="N166" s="73"/>
       <c r="O166" s="11"/>
-      <c r="P166" s="161" t="str">
+      <c r="P166" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C166,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years). This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  The average capacity factor of new turbines in the BAU case is roughly 43%, so an improvement to 53% might be represented as an 18% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -17973,7 +17973,7 @@
       <c r="M167" s="73"/>
       <c r="N167" s="73"/>
       <c r="O167" s="11"/>
-      <c r="P167" s="161" t="str">
+      <c r="P167" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C167,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years). This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  The average capacity factor of new turbines in the BAU case is roughly 43%, so an improvement to 53% might be represented as an 18% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -18020,7 +18020,7 @@
       <c r="M168" s="73"/>
       <c r="N168" s="73"/>
       <c r="O168" s="11"/>
-      <c r="P168" s="161" t="str">
+      <c r="P168" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C168,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years). This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  The average capacity factor of new turbines in the BAU case is roughly 43%, so an improvement to 53% might be represented as an 18% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -18067,7 +18067,7 @@
       <c r="M169" s="73"/>
       <c r="N169" s="73"/>
       <c r="O169" s="11"/>
-      <c r="P169" s="161" t="str">
+      <c r="P169" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C169,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years). This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  The average capacity factor of new turbines in the BAU case is roughly 43%, so an improvement to 53% might be represented as an 18% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -18114,7 +18114,7 @@
       <c r="M170" s="73"/>
       <c r="N170" s="73"/>
       <c r="O170" s="11"/>
-      <c r="P170" s="161" t="str">
+      <c r="P170" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C170,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years). This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  The average capacity factor of new turbines in the BAU case is roughly 43%, so an improvement to 53% might be represented as an 18% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -18161,7 +18161,7 @@
       <c r="M171" s="73"/>
       <c r="N171" s="73"/>
       <c r="O171" s="11"/>
-      <c r="P171" s="161" t="str">
+      <c r="P171" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C171,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years). This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  The average capacity factor of new turbines in the BAU case is roughly 43%, so an improvement to 53% might be represented as an 18% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -18208,7 +18208,7 @@
       <c r="M172" s="73"/>
       <c r="N172" s="73"/>
       <c r="O172" s="11"/>
-      <c r="P172" s="161" t="str">
+      <c r="P172" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C172,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years). This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  The average capacity factor of new turbines in the BAU case is roughly 43%, so an improvement to 53% might be represented as an 18% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -18255,7 +18255,7 @@
       <c r="M173" s="67"/>
       <c r="N173" s="67"/>
       <c r="O173" s="58"/>
-      <c r="P173" s="161" t="str">
+      <c r="P173" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C173,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years). This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  The average capacity factor of new turbines in the BAU case is roughly 43%, so an improvement to 53% might be represented as an 18% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -18302,7 +18302,7 @@
       <c r="M174" s="67"/>
       <c r="N174" s="67"/>
       <c r="O174" s="58"/>
-      <c r="P174" s="161" t="str">
+      <c r="P174" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C174,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years). This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  The average capacity factor of new turbines in the BAU case is roughly 43%, so an improvement to 53% might be represented as an 18% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -18349,7 +18349,7 @@
       <c r="M175" s="67"/>
       <c r="N175" s="67"/>
       <c r="O175" s="58"/>
-      <c r="P175" s="161" t="str">
+      <c r="P175" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C175,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years). This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  The average capacity factor of new turbines in the BAU case is roughly 43%, so an improvement to 53% might be represented as an 18% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -18396,7 +18396,7 @@
       <c r="M176" s="67"/>
       <c r="N176" s="67"/>
       <c r="O176" s="58"/>
-      <c r="P176" s="161" t="str">
+      <c r="P176" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C176,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years). This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  The average capacity factor of new turbines in the BAU case is roughly 43%, so an improvement to 53% might be represented as an 18% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -18443,7 +18443,7 @@
       <c r="M177" s="67"/>
       <c r="N177" s="67"/>
       <c r="O177" s="58"/>
-      <c r="P177" s="161" t="str">
+      <c r="P177" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C177,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years). This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  The average capacity factor of new turbines in the BAU case is roughly 43%, so an improvement to 53% might be represented as an 18% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -18504,7 +18504,7 @@
       <c r="O178" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="P178" s="161" t="str">
+      <c r="P178" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C178,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years). This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  The average capacity factor of new turbines in the BAU case is roughly 43%, so an improvement to 53% might be represented as an 18% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -18562,7 +18562,7 @@
       <c r="O179" s="11" t="s">
         <v>774</v>
       </c>
-      <c r="P179" s="161" t="str">
+      <c r="P179" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C179,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a reduction in soft costs (costs for things other than capital equipment) for new plants of the selected type(s), such as the costs of permitting, financing, project management, assembly, etc. // **Guidance for setting values:** Costs of permitting and financing can be reduced by streamlining permitting processes, but some soft costs (such as labor) may be difficult to reduce via policy.  A value of 50% would be an aggressive soft cost reduction.</v>
       </c>
@@ -18627,7 +18627,7 @@
         <f t="shared" si="52"/>
         <v>% reduction in soft costs</v>
       </c>
-      <c r="P180" s="161" t="str">
+      <c r="P180" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C180,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a reduction in soft costs (costs for things other than capital equipment) for new plants of the selected type(s), such as the costs of permitting, financing, project management, assembly, etc. // **Guidance for setting values:** Costs of permitting and financing can be reduced by streamlining permitting processes, but some soft costs (such as labor) may be difficult to reduce via policy.  A value of 50% would be an aggressive soft cost reduction.</v>
       </c>
@@ -18694,7 +18694,7 @@
         <f t="shared" si="52"/>
         <v>% reduction in soft costs</v>
       </c>
-      <c r="P181" s="161" t="str">
+      <c r="P181" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C181,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a reduction in soft costs (costs for things other than capital equipment) for new plants of the selected type(s), such as the costs of permitting, financing, project management, assembly, etc. // **Guidance for setting values:** Costs of permitting and financing can be reduced by streamlining permitting processes, but some soft costs (such as labor) may be difficult to reduce via policy.  A value of 50% would be an aggressive soft cost reduction.</v>
       </c>
@@ -18748,7 +18748,7 @@
       <c r="O182" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="P182" s="161" t="str">
+      <c r="P182" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C182,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in transmission and distribution losses that will be achieved by 2050. // **Guidance for setting values:** Mexico's total transmission and distribution losses are at 12%, a big part of this due to illicit use of electricity. As a reference, U.S. T&amp;D losses are about 6%,  Germany, Japan, Finland, and the Netherlands have T&amp;D losses of around 4%.  Therefore, setting this policy at 66% would match industry standard for current level of T&amp;D losses by 2050, yet a 40% - 50% value might seem more realistic as pursuing illicit electricity use is beyond the technical capability of utilities.</v>
       </c>
@@ -18759,11 +18759,11 @@
         <v>316</v>
       </c>
       <c r="S182" s="89" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="T182" s="11"/>
       <c r="U182" s="107" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="183" spans="1:21" s="5" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
@@ -18805,7 +18805,7 @@
       <c r="O183" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="P183" s="161" t="str">
+      <c r="P183" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C183,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies an increase in the fraction of potential electricity generation that must come from qualifying renewable sources (hydro, wind, solar, and biomass) in 2050.  This policy adds to BAU renewable portfolio standards, which have been enacted at the State level as a generation-weighted national average. // **Guidance for setting values:** Mexico's Energy Transition Act (2015) establishes a 35% clean energy target by 2035.</v>
       </c>
@@ -18855,7 +18855,7 @@
       <c r="M184" s="68"/>
       <c r="N184" s="68"/>
       <c r="O184" s="56"/>
-      <c r="P184" s="161" t="str">
+      <c r="P184" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C184,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy is a subsidy paid by the government to suppliers of electricity per unit of electricity generated from the selected plant type(s).</v>
       </c>
@@ -18904,7 +18904,7 @@
       <c r="M185" s="69"/>
       <c r="N185" s="69"/>
       <c r="O185" s="58"/>
-      <c r="P185" s="161" t="str">
+      <c r="P185" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C185,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy is a subsidy paid by the government to suppliers of electricity per unit of electricity generated from the selected plant type(s).</v>
       </c>
@@ -18961,7 +18961,7 @@
       <c r="O186" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="P186" s="161" t="str">
+      <c r="P186" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C186,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy is a subsidy paid by the government to suppliers of electricity per unit of electricity generated from the selected plant type(s).</v>
       </c>
@@ -19024,7 +19024,7 @@
       <c r="O187" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="P187" s="161" t="str">
+      <c r="P187" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C187,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy is a subsidy paid by the government to suppliers of electricity per unit of electricity generated from the selected plant type(s).</v>
       </c>
@@ -19089,7 +19089,7 @@
         <f t="shared" si="56"/>
         <v>$/MWh</v>
       </c>
-      <c r="P188" s="161" t="str">
+      <c r="P188" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C188,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy is a subsidy paid by the government to suppliers of electricity per unit of electricity generated from the selected plant type(s).</v>
       </c>
@@ -19157,7 +19157,7 @@
         <f t="shared" si="56"/>
         <v>$/MWh</v>
       </c>
-      <c r="P189" s="161" t="str">
+      <c r="P189" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C189,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy is a subsidy paid by the government to suppliers of electricity per unit of electricity generated from the selected plant type(s).</v>
       </c>
@@ -19225,7 +19225,7 @@
         <f t="shared" si="56"/>
         <v>$/MWh</v>
       </c>
-      <c r="P190" s="161" t="str">
+      <c r="P190" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C190,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy is a subsidy paid by the government to suppliers of electricity per unit of electricity generated from the selected plant type(s).</v>
       </c>
@@ -19293,7 +19293,7 @@
         <f t="shared" si="56"/>
         <v>$/MWh</v>
       </c>
-      <c r="P191" s="161" t="str">
+      <c r="P191" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C191,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy is a subsidy paid by the government to suppliers of electricity per unit of electricity generated from the selected plant type(s).</v>
       </c>
@@ -19347,7 +19347,7 @@
       <c r="M192" s="67"/>
       <c r="N192" s="67"/>
       <c r="O192" s="58"/>
-      <c r="P192" s="161" t="str">
+      <c r="P192" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C192,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy is a subsidy paid by the government to suppliers of electricity per unit of electricity generated from the selected plant type(s).</v>
       </c>
@@ -19408,7 +19408,7 @@
         <f t="shared" si="56"/>
         <v>$/MWh</v>
       </c>
-      <c r="P193" s="161" t="str">
+      <c r="P193" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C193,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy is a subsidy paid by the government to suppliers of electricity per unit of electricity generated from the selected plant type(s).</v>
       </c>
@@ -19463,7 +19463,7 @@
       <c r="O194" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="P194" s="161" t="str">
+      <c r="P194" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C194,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces CO2 emissions from the cement industry by substituing other inputs, such as fly ash, for a portion of the clinker in cement.</v>
       </c>
@@ -19517,7 +19517,7 @@
       <c r="O195" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="P195" s="161" t="str">
+      <c r="P195" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C195,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces fuel consumption in the industry sector by increasing the use of cogeneration (also known as combined heat and power) and recovery of waste heat (to perform useful work).</v>
       </c>
@@ -19571,7 +19571,7 @@
       <c r="O196" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="P196" s="161" t="str">
+      <c r="P196" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C196,'Policy Characteristics'!$C:$C,0))</f>
         <v xml:space="preserve">**Description:** This policy reduces fuel consumption in the industry sector by retiring older, inefficient industrial facilities sooner than they otherwise would retire.  This policy does not affect demand for industrial products, so it is assumed that any facilities retired under this policy are replaced by new facilities or increased output from existing facilities in the same year. </v>
       </c>
@@ -19630,7 +19630,7 @@
       <c r="O197" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="P197" s="161" t="str">
+      <c r="P197" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C197,'Policy Characteristics'!$C:$C,0))</f>
         <v xml:space="preserve">**Description:** This policy reduces fuel consumption by the selected industry by increasing the efficiency of industrial equipment through stronger standards.  The policy setting refers to overall energy use reduction, not the reduction in energy use of newly sold equipment. // **Guidance for setting values:** In 2016, the U.S. Department of Energy developed an industrial energy efficiency potential analysis that suggests a potential improvement rate of 2.4% per year through 2030, instead of a BAU rate of 1.2% per year.  Extended through 2050, this equates to a maximum potential improvement of 33% by 2050 relative to BAU. </v>
       </c>
@@ -19699,7 +19699,7 @@
         <f t="shared" si="59"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P198" s="161" t="str">
+      <c r="P198" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C198,'Policy Characteristics'!$C:$C,0))</f>
         <v xml:space="preserve">**Description:** This policy reduces fuel consumption by the selected industry by increasing the efficiency of industrial equipment through stronger standards.  The policy setting refers to overall energy use reduction, not the reduction in energy use of newly sold equipment. // **Guidance for setting values:** In 2016, the U.S. Department of Energy developed an industrial energy efficiency potential analysis that suggests a potential improvement rate of 2.4% per year through 2030, instead of a BAU rate of 1.2% per year.  Extended through 2050, this equates to a maximum potential improvement of 33% by 2050 relative to BAU. </v>
       </c>
@@ -19770,7 +19770,7 @@
         <f t="shared" si="59"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P199" s="161" t="str">
+      <c r="P199" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C199,'Policy Characteristics'!$C:$C,0))</f>
         <v xml:space="preserve">**Description:** This policy reduces fuel consumption by the selected industry by increasing the efficiency of industrial equipment through stronger standards.  The policy setting refers to overall energy use reduction, not the reduction in energy use of newly sold equipment. // **Guidance for setting values:** In 2016, the U.S. Department of Energy developed an industrial energy efficiency potential analysis that suggests a potential improvement rate of 2.4% per year through 2030, instead of a BAU rate of 1.2% per year.  Extended through 2050, this equates to a maximum potential improvement of 33% by 2050 relative to BAU. </v>
       </c>
@@ -19841,7 +19841,7 @@
         <f t="shared" si="59"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P200" s="161" t="str">
+      <c r="P200" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C200,'Policy Characteristics'!$C:$C,0))</f>
         <v xml:space="preserve">**Description:** This policy reduces fuel consumption by the selected industry by increasing the efficiency of industrial equipment through stronger standards.  The policy setting refers to overall energy use reduction, not the reduction in energy use of newly sold equipment. // **Guidance for setting values:** In 2016, the U.S. Department of Energy developed an industrial energy efficiency potential analysis that suggests a potential improvement rate of 2.4% per year through 2030, instead of a BAU rate of 1.2% per year.  Extended through 2050, this equates to a maximum potential improvement of 33% by 2050 relative to BAU. </v>
       </c>
@@ -19912,7 +19912,7 @@
         <f t="shared" si="59"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P201" s="161" t="str">
+      <c r="P201" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C201,'Policy Characteristics'!$C:$C,0))</f>
         <v xml:space="preserve">**Description:** This policy reduces fuel consumption by the selected industry by increasing the efficiency of industrial equipment through stronger standards.  The policy setting refers to overall energy use reduction, not the reduction in energy use of newly sold equipment. // **Guidance for setting values:** In 2016, the U.S. Department of Energy developed an industrial energy efficiency potential analysis that suggests a potential improvement rate of 2.4% per year through 2030, instead of a BAU rate of 1.2% per year.  Extended through 2050, this equates to a maximum potential improvement of 33% by 2050 relative to BAU. </v>
       </c>
@@ -19983,7 +19983,7 @@
         <f t="shared" si="59"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P202" s="161" t="str">
+      <c r="P202" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C202,'Policy Characteristics'!$C:$C,0))</f>
         <v xml:space="preserve">**Description:** This policy reduces fuel consumption by the selected industry by increasing the efficiency of industrial equipment through stronger standards.  The policy setting refers to overall energy use reduction, not the reduction in energy use of newly sold equipment. // **Guidance for setting values:** In 2016, the U.S. Department of Energy developed an industrial energy efficiency potential analysis that suggests a potential improvement rate of 2.4% per year through 2030, instead of a BAU rate of 1.2% per year.  Extended through 2050, this equates to a maximum potential improvement of 33% by 2050 relative to BAU. </v>
       </c>
@@ -20054,7 +20054,7 @@
         <f>O$197</f>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P203" s="161" t="str">
+      <c r="P203" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C203,'Policy Characteristics'!$C:$C,0))</f>
         <v xml:space="preserve">**Description:** This policy reduces fuel consumption by the selected industry by increasing the efficiency of industrial equipment through stronger standards.  The policy setting refers to overall energy use reduction, not the reduction in energy use of newly sold equipment. // **Guidance for setting values:** In 2016, the U.S. Department of Energy developed an industrial energy efficiency potential analysis that suggests a potential improvement rate of 2.4% per year through 2030, instead of a BAU rate of 1.2% per year.  Extended through 2050, this equates to a maximum potential improvement of 33% by 2050 relative to BAU. </v>
       </c>
@@ -20125,7 +20125,7 @@
         <f t="shared" si="59"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P204" s="161" t="str">
+      <c r="P204" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C204,'Policy Characteristics'!$C:$C,0))</f>
         <v xml:space="preserve">**Description:** This policy reduces fuel consumption by the selected industry by increasing the efficiency of industrial equipment through stronger standards.  The policy setting refers to overall energy use reduction, not the reduction in energy use of newly sold equipment. // **Guidance for setting values:** In 2016, the U.S. Department of Energy developed an industrial energy efficiency potential analysis that suggests a potential improvement rate of 2.4% per year through 2030, instead of a BAU rate of 1.2% per year.  Extended through 2050, this equates to a maximum potential improvement of 33% by 2050 relative to BAU. </v>
       </c>
@@ -20183,7 +20183,7 @@
       <c r="O205" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="P205" s="161" t="str">
+      <c r="P205" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C205,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces fuel consumption in the industry sector by improving the way components are put together and the way material or energy flows between them.</v>
       </c>
@@ -20237,7 +20237,7 @@
       <c r="O206" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="P206" s="161" t="str">
+      <c r="P206" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C206,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces greenhouse gas emissions from the industry sector by switching the fuel used by facilities from hard coal to natural gas.</v>
       </c>
@@ -20290,7 +20290,7 @@
       <c r="O207" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="P207" s="161" t="str">
+      <c r="P207" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C207,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces greenhouse gas emissions from the industry sector by switching the fuel used by facilities from natural gas to electricity. // **Guidance for setting values:** Over 90% of the natural gas used by industry is used to generate heat (to fuel boilers, generate process heat, and HVAC heat).  It is relatively uncommon to replace natural gas with electricity for these end uses today, but it may become necessary to electrify heat production in order to achieve deep decarbonization by mid-century.  A 100% setting is not likely, however, due to peculiarities of certain industries.  For instance, the electrification potential for refineries is low because they consume a lot of waste gases that come from the petroleum products they are refining.  These gases aren’t of sufficient quality to sell as natural gas, so they would be wasted if the refinery electrified all of its operations.</v>
       </c>
@@ -20343,7 +20343,7 @@
       <c r="O208" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="P208" s="161" t="str">
+      <c r="P208" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C208,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces methane emissions from the industry sector by increasing the capture of methane that is currently being released into the atmosphere (for example, from leaks in pipes or decomposition of trash in landfills). // **Guidance for setting values:** If this policy is fully implemented, process emissions in 2050 are reduced by 39% from the natural gas and petroleum industry, 5% from the mining industry, and 24% from the waste management industry.</v>
       </c>
@@ -20397,7 +20397,7 @@
       <c r="O209" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="P209" s="161" t="str">
+      <c r="P209" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C209,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces methane emissions from the industry sector by increasing the burning of methane that is currently being released into the atmosphere due to industrial processes. // **Guidance for setting values:** If this policy is fully implemented, process emissions in 2050 are reduced by 36% from the mining industry and 1% from the waste management industry.</v>
       </c>
@@ -20451,7 +20451,7 @@
       <c r="O210" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="P210" s="161" t="str">
+      <c r="P210" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C210,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces emissions of high-GWP, fluorinated gases (F-gases) from the industry sector by improving production processes and by substituing less-harmful chemicals. // **Guidance for setting values:** If this policy is fully implemented, process emissions in 2050 are reduced by 81% from the chemicals industry and 3% from the "other industries" category.</v>
       </c>
@@ -20505,7 +20505,7 @@
       <c r="O211" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="P211" s="161" t="str">
+      <c r="P211" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C211,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces emissions of greenhouse gases from the inudstry sector by improving worker training and equipment maintenance. // **Guidance for setting values:** If this policy is fully implemented, process emissions in 2050 are reduced by 4.5% from the natural gas and petroleum industry and 20.1% from the "other industries" category.</v>
       </c>
@@ -20559,7 +20559,7 @@
       <c r="O212" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="P212" s="161" t="str">
+      <c r="P212" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C212,'Policy Characteristics'!$C:$C,0))</f>
         <v xml:space="preserve">**Description:** This policy increases the sequestration of CO2 by planting forests.  Planted forests are assumed to be managed with best practices and are not used for timber harvesting. </v>
       </c>
@@ -20605,7 +20605,7 @@
       <c r="M213" s="63"/>
       <c r="N213" s="63"/>
       <c r="O213" s="56"/>
-      <c r="P213" s="161">
+      <c r="P213" s="156">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C213,'Policy Characteristics'!$C:$C,0))</f>
         <v>0</v>
       </c>
@@ -20649,7 +20649,7 @@
       <c r="M214" s="63"/>
       <c r="N214" s="63"/>
       <c r="O214" s="56"/>
-      <c r="P214" s="161">
+      <c r="P214" s="156">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C214,'Policy Characteristics'!$C:$C,0))</f>
         <v>0</v>
       </c>
@@ -20697,7 +20697,7 @@
       <c r="O215" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="P215" s="161" t="str">
+      <c r="P215" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C215,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy avoids the release of CO2 from forests by reducing timber harvesting.</v>
       </c>
@@ -20751,7 +20751,7 @@
       <c r="O216" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="P216" s="161" t="str">
+      <c r="P216" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C216,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces greenhouse gas emissions from agriculture through cropland management practices, such as improved crop rotations, reduced soil tillage, and improvements in fertilizer composition and application.  Measures particular to rice cultivation are handled under a separate policy.</v>
       </c>
@@ -20805,7 +20805,7 @@
       <c r="O217" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="P217" s="161" t="str">
+      <c r="P217" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C217,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases CO2 sequestration by forests through improved forest management practices.</v>
       </c>
@@ -20859,7 +20859,7 @@
       <c r="O218" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="P218" s="161" t="str">
+      <c r="P218" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C218,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces greenhouse gas emissions from agriculture through livestock-related measures, such as feed supplements or drugs to prevent enteric methane formation.</v>
       </c>
@@ -20905,7 +20905,7 @@
       <c r="M219" s="63"/>
       <c r="N219" s="63"/>
       <c r="O219" s="56"/>
-      <c r="P219" s="161">
+      <c r="P219" s="156">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C219,'Policy Characteristics'!$C:$C,0))</f>
         <v>0</v>
       </c>
@@ -20953,7 +20953,7 @@
       <c r="O220" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="P220" s="161" t="str">
+      <c r="P220" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C220,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces greenhouse gas emissions from agriculture through measures pertaining to rice cultivation, such as improved flooding practices that avoid anaerobic, methane-forming conditions.</v>
       </c>
@@ -21007,7 +21007,7 @@
       <c r="O221" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="P221" s="161" t="str">
+      <c r="P221" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C221,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes a percentage of the district heat that would be generated by dedicated heat plants to instead be generated via CHP plants.  In this model, this causes them to consume no additional fuel, since it is assumed CHP plants would be run anyway in order to produce electricity. // **Guidance for setting values:** In the BAU Scenario, the fraction of heat derived from CHP plants is constant at roughly 50%.  Therefore, a policy setting of 50% would increase the CHP fraction to 75% in 2050.</v>
       </c>
@@ -21061,7 +21061,7 @@
       <c r="O222" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="P222" s="161" t="str">
+      <c r="P222" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C222,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes a percentage of the district heat that would be generated by burning coal to instead be generated by burning natural gas.</v>
       </c>
@@ -21115,7 +21115,7 @@
       <c r="O223" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="P223" s="161" t="str">
+      <c r="P223" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C223,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the fraction of the potential annual amount of carbon capture and sequestration (CCS) that is achieved in 2050, above the amount predicted in the business-as-usual scenario.</v>
       </c>
@@ -21173,7 +21173,7 @@
       <c r="O224" s="56" t="s">
         <v>177</v>
       </c>
-      <c r="P224" s="161" t="str">
+      <c r="P224" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C224,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy applies a tax on fuels used in the selected sector(s) based on their greenhouse gas emissions.  It also increases the base cost of capital equipment (e.g., vehicles, power plants, building components) according to their embedded carbon content. // **Guidance for setting values:** The U.S. government's revised 2015 Social Cost of Carbon estimates for the year 2050 range from $29 to $105 per ton (in inflation-adjusted 2012 dollars), depending on one's choice of discount rate.</v>
       </c>
@@ -21242,7 +21242,7 @@
         <f t="shared" si="64"/>
         <v>$/metric ton CO2e</v>
       </c>
-      <c r="P225" s="161" t="str">
+      <c r="P225" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C225,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy applies a tax on fuels used in the selected sector(s) based on their greenhouse gas emissions.  It also increases the base cost of capital equipment (e.g., vehicles, power plants, building components) according to their embedded carbon content. // **Guidance for setting values:** The U.S. government's revised 2015 Social Cost of Carbon estimates for the year 2050 range from $29 to $105 per ton (in inflation-adjusted 2012 dollars), depending on one's choice of discount rate.</v>
       </c>
@@ -21309,7 +21309,7 @@
         <f t="shared" si="64"/>
         <v>$/metric ton CO2e</v>
       </c>
-      <c r="P226" s="161" t="str">
+      <c r="P226" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C226,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy applies a tax on fuels used in the selected sector(s) based on their greenhouse gas emissions.  It also increases the base cost of capital equipment (e.g., vehicles, power plants, building components) according to their embedded carbon content. // **Guidance for setting values:** The U.S. government's revised 2015 Social Cost of Carbon estimates for the year 2050 range from $29 to $105 per ton (in inflation-adjusted 2012 dollars), depending on one's choice of discount rate.</v>
       </c>
@@ -21376,7 +21376,7 @@
         <f t="shared" si="64"/>
         <v>$/metric ton CO2e</v>
       </c>
-      <c r="P227" s="161" t="str">
+      <c r="P227" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C227,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy applies a tax on fuels used in the selected sector(s) based on their greenhouse gas emissions.  It also increases the base cost of capital equipment (e.g., vehicles, power plants, building components) according to their embedded carbon content. // **Guidance for setting values:** The U.S. government's revised 2015 Social Cost of Carbon estimates for the year 2050 range from $29 to $105 per ton (in inflation-adjusted 2012 dollars), depending on one's choice of discount rate.</v>
       </c>
@@ -21443,7 +21443,7 @@
         <f t="shared" si="64"/>
         <v>$/metric ton CO2e</v>
       </c>
-      <c r="P228" s="161" t="str">
+      <c r="P228" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C228,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy applies a tax on fuels used in the selected sector(s) based on their greenhouse gas emissions.  It also increases the base cost of capital equipment (e.g., vehicles, power plants, building components) according to their embedded carbon content. // **Guidance for setting values:** The U.S. government's revised 2015 Social Cost of Carbon estimates for the year 2050 range from $29 to $105 per ton (in inflation-adjusted 2012 dollars), depending on one's choice of discount rate.</v>
       </c>
@@ -21496,7 +21496,7 @@
       <c r="M229" s="68"/>
       <c r="N229" s="68"/>
       <c r="O229" s="56"/>
-      <c r="P229" s="161" t="str">
+      <c r="P229" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C229,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy applies a tax on fuels used in the selected sector(s) based on their greenhouse gas emissions.  It also increases the base cost of capital equipment (e.g., vehicles, power plants, building components) according to their embedded carbon content. // **Guidance for setting values:** The U.S. government's revised 2015 Social Cost of Carbon estimates for the year 2050 range from $29 to $105 per ton (in inflation-adjusted 2012 dollars), depending on one's choice of discount rate.</v>
       </c>
@@ -21543,7 +21543,7 @@
       <c r="M230" s="68"/>
       <c r="N230" s="68"/>
       <c r="O230" s="56"/>
-      <c r="P230" s="161" t="str">
+      <c r="P230" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C230,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy applies a tax on fuels used in the selected sector(s) based on their greenhouse gas emissions.  It also increases the base cost of capital equipment (e.g., vehicles, power plants, building components) according to their embedded carbon content. // **Guidance for setting values:** The U.S. government's revised 2015 Social Cost of Carbon estimates for the year 2050 range from $29 to $105 per ton (in inflation-adjusted 2012 dollars), depending on one's choice of discount rate.</v>
       </c>
@@ -21587,7 +21587,7 @@
       <c r="M231" s="68"/>
       <c r="N231" s="68"/>
       <c r="O231" s="56"/>
-      <c r="P231" s="161" t="str">
+      <c r="P231" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C231,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies in 2050.</v>
       </c>
@@ -21644,7 +21644,7 @@
       <c r="O232" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="P232" s="161" t="str">
+      <c r="P232" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C232,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies in 2050.</v>
       </c>
@@ -21711,7 +21711,7 @@
         <f>O$232</f>
         <v>% reduction in BAU subsidies</v>
       </c>
-      <c r="P233" s="161" t="str">
+      <c r="P233" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C233,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies in 2050.</v>
       </c>
@@ -21778,7 +21778,7 @@
         <f t="shared" si="70"/>
         <v>% reduction in BAU subsidies</v>
       </c>
-      <c r="P234" s="161" t="str">
+      <c r="P234" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C234,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies in 2050.</v>
       </c>
@@ -21833,7 +21833,7 @@
       <c r="M235" s="64"/>
       <c r="N235" s="64"/>
       <c r="O235" s="58"/>
-      <c r="P235" s="161" t="str">
+      <c r="P235" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C235,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies in 2050.</v>
       </c>
@@ -21882,7 +21882,7 @@
       <c r="M236" s="64"/>
       <c r="N236" s="64"/>
       <c r="O236" s="58"/>
-      <c r="P236" s="161" t="str">
+      <c r="P236" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C236,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies in 2050.</v>
       </c>
@@ -21943,7 +21943,7 @@
         <f t="shared" si="70"/>
         <v>% reduction in BAU subsidies</v>
       </c>
-      <c r="P237" s="161" t="str">
+      <c r="P237" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C237,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies in 2050.</v>
       </c>
@@ -21998,7 +21998,7 @@
       <c r="M238" s="68"/>
       <c r="N238" s="68"/>
       <c r="O238" s="56"/>
-      <c r="P238" s="161" t="str">
+      <c r="P238" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C238,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies in 2050.</v>
       </c>
@@ -22059,7 +22059,7 @@
         <f t="shared" si="71"/>
         <v>% reduction in BAU subsidies</v>
       </c>
-      <c r="P239" s="161" t="str">
+      <c r="P239" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C239,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies in 2050.</v>
       </c>
@@ -22126,7 +22126,7 @@
         <f t="shared" si="71"/>
         <v>% reduction in BAU subsidies</v>
       </c>
-      <c r="P240" s="161" t="str">
+      <c r="P240" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C240,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies in 2050.</v>
       </c>
@@ -22181,7 +22181,7 @@
       <c r="M241" s="68"/>
       <c r="N241" s="68"/>
       <c r="O241" s="56"/>
-      <c r="P241" s="161" t="str">
+      <c r="P241" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C241,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies in 2050.</v>
       </c>
@@ -22230,7 +22230,7 @@
       <c r="M242" s="68"/>
       <c r="N242" s="68"/>
       <c r="O242" s="56"/>
-      <c r="P242" s="161" t="str">
+      <c r="P242" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C242,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies in 2050.</v>
       </c>
@@ -22277,7 +22277,7 @@
       <c r="M243" s="64"/>
       <c r="N243" s="64"/>
       <c r="O243" s="58"/>
-      <c r="P243" s="161" t="str">
+      <c r="P243" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C243,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies in 2050.</v>
       </c>
@@ -22326,7 +22326,7 @@
       <c r="M244" s="68"/>
       <c r="N244" s="68"/>
       <c r="O244" s="56"/>
-      <c r="P244" s="161" t="str">
+      <c r="P244" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C244,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies in 2050.</v>
       </c>
@@ -22373,7 +22373,7 @@
       <c r="M245" s="68"/>
       <c r="N245" s="68"/>
       <c r="O245" s="56"/>
-      <c r="P245" s="161" t="str">
+      <c r="P245" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C245,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies in 2050.</v>
       </c>
@@ -22420,7 +22420,7 @@
       <c r="M246" s="67"/>
       <c r="N246" s="67"/>
       <c r="O246" s="58"/>
-      <c r="P246" s="161" t="str">
+      <c r="P246" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C246,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies in 2050.</v>
       </c>
@@ -22458,7 +22458,7 @@
       <c r="M247" s="68"/>
       <c r="N247" s="68"/>
       <c r="O247" s="11"/>
-      <c r="P247" s="161">
+      <c r="P247" s="156">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C247,'Policy Characteristics'!$C:$C,0))</f>
         <v>0</v>
       </c>
@@ -22510,7 +22510,7 @@
       <c r="O248" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="P248" s="161" t="str">
+      <c r="P248" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C248,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes.</v>
       </c>
@@ -22577,7 +22577,7 @@
         <f t="shared" si="74"/>
         <v>% of BAU price</v>
       </c>
-      <c r="P249" s="161" t="str">
+      <c r="P249" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C249,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes.</v>
       </c>
@@ -22645,7 +22645,7 @@
         <f t="shared" si="74"/>
         <v>% of BAU price</v>
       </c>
-      <c r="P250" s="161" t="str">
+      <c r="P250" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C250,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes.</v>
       </c>
@@ -22701,7 +22701,7 @@
       <c r="M251" s="67"/>
       <c r="N251" s="76"/>
       <c r="O251" s="61"/>
-      <c r="P251" s="161" t="str">
+      <c r="P251" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C251,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes.</v>
       </c>
@@ -22750,7 +22750,7 @@
       <c r="M252" s="67"/>
       <c r="N252" s="76"/>
       <c r="O252" s="61"/>
-      <c r="P252" s="161" t="str">
+      <c r="P252" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C252,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes.</v>
       </c>
@@ -22799,7 +22799,7 @@
       <c r="M253" s="67"/>
       <c r="N253" s="76"/>
       <c r="O253" s="61"/>
-      <c r="P253" s="161" t="str">
+      <c r="P253" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C253,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes.</v>
       </c>
@@ -22848,7 +22848,7 @@
       <c r="M254" s="67"/>
       <c r="N254" s="76"/>
       <c r="O254" s="61"/>
-      <c r="P254" s="161" t="str">
+      <c r="P254" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C254,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes.</v>
       </c>
@@ -22897,7 +22897,7 @@
       <c r="M255" s="67"/>
       <c r="N255" s="76"/>
       <c r="O255" s="61"/>
-      <c r="P255" s="161" t="str">
+      <c r="P255" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C255,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes.</v>
       </c>
@@ -22958,7 +22958,7 @@
         <f t="shared" si="76"/>
         <v>% of BAU price</v>
       </c>
-      <c r="P256" s="161" t="str">
+      <c r="P256" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C256,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes.</v>
       </c>
@@ -23026,7 +23026,7 @@
         <f t="shared" si="76"/>
         <v>% of BAU price</v>
       </c>
-      <c r="P257" s="161" t="str">
+      <c r="P257" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C257,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes.</v>
       </c>
@@ -23082,7 +23082,7 @@
       <c r="M258" s="67"/>
       <c r="N258" s="76"/>
       <c r="O258" s="61"/>
-      <c r="P258" s="161" t="str">
+      <c r="P258" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C258,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes.</v>
       </c>
@@ -23131,7 +23131,7 @@
       <c r="M259" s="67"/>
       <c r="N259" s="76"/>
       <c r="O259" s="61"/>
-      <c r="P259" s="161" t="str">
+      <c r="P259" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C259,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes.</v>
       </c>
@@ -23178,7 +23178,7 @@
       <c r="M260" s="67"/>
       <c r="N260" s="76"/>
       <c r="O260" s="61"/>
-      <c r="P260" s="161" t="str">
+      <c r="P260" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C260,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes.</v>
       </c>
@@ -23227,7 +23227,7 @@
       <c r="M261" s="67"/>
       <c r="N261" s="76"/>
       <c r="O261" s="61"/>
-      <c r="P261" s="161" t="str">
+      <c r="P261" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C261,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes.</v>
       </c>
@@ -23274,7 +23274,7 @@
       <c r="M262" s="67"/>
       <c r="N262" s="67"/>
       <c r="O262" s="61"/>
-      <c r="P262" s="161" t="str">
+      <c r="P262" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C262,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes.</v>
       </c>
@@ -23326,7 +23326,7 @@
       <c r="O263" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="P263" s="161" t="str">
+      <c r="P263" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C263,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -23393,7 +23393,7 @@
         <f t="shared" si="80"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P264" s="161" t="str">
+      <c r="P264" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C264,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -23460,7 +23460,7 @@
         <f t="shared" si="80"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P265" s="161" t="str">
+      <c r="P265" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C265,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -23527,7 +23527,7 @@
         <f t="shared" si="80"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P266" s="161" t="str">
+      <c r="P266" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C266,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -23594,7 +23594,7 @@
         <f t="shared" si="80"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P267" s="161" t="str">
+      <c r="P267" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C267,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -23661,7 +23661,7 @@
         <f t="shared" si="80"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P268" s="161" t="str">
+      <c r="P268" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C268,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -23720,7 +23720,7 @@
       <c r="O269" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="P269" s="161" t="str">
+      <c r="P269" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C269,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -23780,7 +23780,7 @@
       <c r="O270" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="P270" s="161" t="str">
+      <c r="P270" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C270,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -23847,7 +23847,7 @@
         <f t="shared" si="82"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P271" s="161" t="str">
+      <c r="P271" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C271,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -23914,7 +23914,7 @@
         <f t="shared" si="82"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P272" s="161" t="str">
+      <c r="P272" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C272,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -23981,7 +23981,7 @@
         <f t="shared" si="82"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P273" s="161" t="str">
+      <c r="P273" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C273,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -24048,7 +24048,7 @@
         <f t="shared" si="82"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P274" s="161" t="str">
+      <c r="P274" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C274,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -24115,7 +24115,7 @@
         <f t="shared" si="82"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P275" s="161" t="str">
+      <c r="P275" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C275,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -24182,7 +24182,7 @@
         <f t="shared" si="82"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P276" s="161" t="str">
+      <c r="P276" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C276,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -24249,7 +24249,7 @@
         <f t="shared" si="82"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P277" s="161" t="str">
+      <c r="P277" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C277,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -24316,7 +24316,7 @@
         <f t="shared" si="82"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P278" s="161" t="str">
+      <c r="P278" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C278,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -24383,7 +24383,7 @@
         <f t="shared" si="82"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P279" s="161" t="str">
+      <c r="P279" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C279,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -24450,7 +24450,7 @@
         <f t="shared" si="82"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P280" s="161" t="str">
+      <c r="P280" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C280,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -24510,7 +24510,7 @@
       <c r="O281" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="P281" s="161" t="str">
+      <c r="P281" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C281,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -24577,7 +24577,7 @@
         <f t="shared" si="85"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P282" s="161" t="str">
+      <c r="P282" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C282,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -24644,7 +24644,7 @@
         <f t="shared" si="85"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P283" s="161" t="str">
+      <c r="P283" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C283,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -24711,7 +24711,7 @@
         <f t="shared" si="85"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P284" s="161" t="str">
+      <c r="P284" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C284,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -24778,7 +24778,7 @@
         <f t="shared" si="85"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P285" s="161" t="str">
+      <c r="P285" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C285,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -24845,7 +24845,7 @@
         <f t="shared" si="85"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P286" s="161" t="str">
+      <c r="P286" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C286,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -24912,7 +24912,7 @@
         <f t="shared" si="85"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P287" s="161" t="str">
+      <c r="P287" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C287,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -24979,7 +24979,7 @@
         <f t="shared" si="85"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P288" s="161" t="str">
+      <c r="P288" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C288,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -25039,7 +25039,7 @@
       <c r="O289" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="P289" s="161" t="str">
+      <c r="P289" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C289,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -25106,7 +25106,7 @@
         <f t="shared" si="88"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P290" s="161" t="str">
+      <c r="P290" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C290,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -25173,7 +25173,7 @@
         <f t="shared" si="88"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P291" s="161" t="str">
+      <c r="P291" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C291,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -25240,7 +25240,7 @@
         <f t="shared" si="88"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P292" s="161" t="str">
+      <c r="P292" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C292,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -25307,7 +25307,7 @@
         <f t="shared" si="88"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P293" s="161" t="str">
+      <c r="P293" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C293,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -25374,7 +25374,7 @@
         <f t="shared" si="88"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P294" s="161" t="str">
+      <c r="P294" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C294,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -25432,7 +25432,7 @@
       <c r="O295" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="P295" s="161" t="str">
+      <c r="P295" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C295,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -25499,7 +25499,7 @@
         <f t="shared" si="91"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P296" s="161" t="str">
+      <c r="P296" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C296,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -25552,7 +25552,7 @@
       <c r="M297" s="67"/>
       <c r="N297" s="67"/>
       <c r="O297" s="58"/>
-      <c r="P297" s="161" t="str">
+      <c r="P297" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C297,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -25613,7 +25613,7 @@
         <f t="shared" si="91"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P298" s="161" t="str">
+      <c r="P298" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C298,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -25680,7 +25680,7 @@
         <f t="shared" si="91"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P299" s="161" t="str">
+      <c r="P299" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C299,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -25747,7 +25747,7 @@
         <f t="shared" si="91"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P300" s="161" t="str">
+      <c r="P300" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C300,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -25805,7 +25805,7 @@
       <c r="O301" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="P301" s="161" t="str">
+      <c r="P301" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C301,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -25865,7 +25865,7 @@
       <c r="O302" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="P302" s="161" t="str">
+      <c r="P302" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C302,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -25932,7 +25932,7 @@
         <f t="shared" si="93"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P303" s="161" t="str">
+      <c r="P303" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C303,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -25999,7 +25999,7 @@
         <f t="shared" si="93"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P304" s="161" t="str">
+      <c r="P304" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C304,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -26054,7 +26054,7 @@
       <c r="M305" s="67"/>
       <c r="N305" s="67"/>
       <c r="O305" s="58"/>
-      <c r="P305" s="161" t="str">
+      <c r="P305" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C305,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -26103,7 +26103,7 @@
       <c r="M306" s="67"/>
       <c r="N306" s="67"/>
       <c r="O306" s="58"/>
-      <c r="P306" s="161" t="str">
+      <c r="P306" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C306,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -26152,7 +26152,7 @@
       <c r="M307" s="67"/>
       <c r="N307" s="67"/>
       <c r="O307" s="58"/>
-      <c r="P307" s="161" t="str">
+      <c r="P307" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C307,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -26201,7 +26201,7 @@
       <c r="M308" s="67"/>
       <c r="N308" s="67"/>
       <c r="O308" s="58"/>
-      <c r="P308" s="161" t="str">
+      <c r="P308" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C308,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -26262,7 +26262,7 @@
         <f t="shared" si="96"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P309" s="161" t="str">
+      <c r="P309" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C309,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -26329,7 +26329,7 @@
         <f t="shared" si="96"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P310" s="161" t="str">
+      <c r="P310" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C310,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -26396,7 +26396,7 @@
         <f t="shared" si="96"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P311" s="161" t="str">
+      <c r="P311" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C311,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -26449,7 +26449,7 @@
       <c r="M312" s="67"/>
       <c r="N312" s="67"/>
       <c r="O312" s="58"/>
-      <c r="P312" s="161" t="str">
+      <c r="P312" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C312,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -26503,7 +26503,7 @@
       <c r="O313" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="P313" s="161" t="str">
+      <c r="P313" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C313,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -26570,7 +26570,7 @@
         <f t="shared" si="98"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P314" s="161" t="str">
+      <c r="P314" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C314,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -26637,7 +26637,7 @@
         <f t="shared" si="98"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P315" s="161" t="str">
+      <c r="P315" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C315,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -26704,7 +26704,7 @@
         <f t="shared" si="98"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P316" s="161" t="str">
+      <c r="P316" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C316,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -26771,7 +26771,7 @@
         <f t="shared" si="98"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P317" s="161" t="str">
+      <c r="P317" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C317,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -26838,7 +26838,7 @@
         <f t="shared" si="98"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P318" s="161" t="str">
+      <c r="P318" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C318,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -26905,7 +26905,7 @@
         <f t="shared" si="98"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P319" s="161" t="str">
+      <c r="P319" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C319,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -26972,7 +26972,7 @@
         <f t="shared" si="98"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P320" s="161" t="str">
+      <c r="P320" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C320,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -27032,7 +27032,7 @@
       <c r="O321" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="P321" s="161" t="str">
+      <c r="P321" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C321,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -27099,7 +27099,7 @@
         <f t="shared" si="101"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P322" s="161" t="str">
+      <c r="P322" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C322,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -27166,7 +27166,7 @@
         <f t="shared" si="101"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P323" s="161" t="str">
+      <c r="P323" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C323,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -27233,7 +27233,7 @@
         <f t="shared" si="101"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P324" s="161" t="str">
+      <c r="P324" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C324,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -27300,7 +27300,7 @@
         <f t="shared" si="101"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P325" s="161" t="str">
+      <c r="P325" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C325,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -27367,7 +27367,7 @@
         <f t="shared" si="101"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P326" s="161" t="str">
+      <c r="P326" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C326,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -27528,7 +27528,7 @@
         <v>743</v>
       </c>
       <c r="C1" s="94" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D1" s="94" t="s">
         <v>74</v>
@@ -27549,49 +27549,49 @@
         <v>381</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>1094</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>1096</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>1107</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="147.5" x14ac:dyDescent="0.75">
@@ -27721,13 +27721,13 @@
         <v>459</v>
       </c>
       <c r="G4" s="104" t="s">
+        <v>993</v>
+      </c>
+      <c r="H4" s="104" t="s">
         <v>994</v>
       </c>
-      <c r="H4" s="104" t="s">
+      <c r="I4" s="104" t="s">
         <v>995</v>
-      </c>
-      <c r="I4" s="104" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="29.5" x14ac:dyDescent="0.75">
@@ -28106,13 +28106,13 @@
         <v>459</v>
       </c>
       <c r="G19" s="104" t="s">
+        <v>996</v>
+      </c>
+      <c r="H19" s="124" t="s">
         <v>997</v>
       </c>
-      <c r="H19" s="124" t="s">
+      <c r="I19" s="104" t="s">
         <v>998</v>
-      </c>
-      <c r="I19" s="104" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="59" x14ac:dyDescent="0.75">
@@ -28135,13 +28135,13 @@
         <v>459</v>
       </c>
       <c r="G20" s="104" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H20" s="124" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I20" s="104" t="s">
         <v>1018</v>
-      </c>
-      <c r="H20" s="124" t="s">
-        <v>1017</v>
-      </c>
-      <c r="I20" s="104" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="29.5" x14ac:dyDescent="0.75">
@@ -28185,7 +28185,7 @@
         <v>77</v>
       </c>
       <c r="E22" s="132" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F22" s="81" t="s">
         <v>459</v>
@@ -28417,7 +28417,7 @@
         <v>905</v>
       </c>
       <c r="G31" s="81" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H31" s="81" t="s">
         <v>879</v>
@@ -28727,13 +28727,13 @@
         <v>901</v>
       </c>
       <c r="G41" s="104" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H41" s="124" t="s">
         <v>1020</v>
       </c>
-      <c r="H41" s="124" t="s">
+      <c r="I41" s="104" t="s">
         <v>1021</v>
-      </c>
-      <c r="I41" s="104" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="59" x14ac:dyDescent="0.75">
@@ -28756,7 +28756,7 @@
         <v>617</v>
       </c>
       <c r="G42" s="100" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H42" s="100" t="s">
         <v>618</v>
@@ -28911,7 +28911,7 @@
         <v>854</v>
       </c>
       <c r="G47" s="100" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H47" s="100" t="s">
         <v>618</v>
@@ -28937,7 +28937,7 @@
         <v>80</v>
       </c>
       <c r="F48" s="100" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G48" s="100" t="s">
         <v>862</v>
@@ -28966,7 +28966,7 @@
         <v>80</v>
       </c>
       <c r="F49" s="100" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G49" s="100" t="s">
         <v>863</v>
@@ -28995,7 +28995,7 @@
         <v>80</v>
       </c>
       <c r="F50" s="100" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G50" s="100" t="s">
         <v>864</v>
@@ -29024,7 +29024,7 @@
         <v>80</v>
       </c>
       <c r="F51" s="100" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G51" s="100" t="s">
         <v>865</v>
@@ -29056,13 +29056,13 @@
         <v>459</v>
       </c>
       <c r="G52" s="104" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H52" s="104" t="s">
         <v>1023</v>
       </c>
-      <c r="H52" s="104" t="s">
+      <c r="I52" s="104" t="s">
         <v>1024</v>
-      </c>
-      <c r="I52" s="104" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="73.75" x14ac:dyDescent="0.75">
@@ -29143,13 +29143,13 @@
         <v>902</v>
       </c>
       <c r="G55" s="104" t="s">
+        <v>999</v>
+      </c>
+      <c r="H55" s="124" t="s">
         <v>1000</v>
       </c>
-      <c r="H55" s="124" t="s">
+      <c r="I55" s="104" t="s">
         <v>1001</v>
-      </c>
-      <c r="I55" s="104" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="56" spans="1:19" ht="74.5" thickBot="1" x14ac:dyDescent="0.9">
@@ -29298,13 +29298,13 @@
         <v>902</v>
       </c>
       <c r="G60" s="104" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H60" s="124" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I60" s="104" t="s">
         <v>1001</v>
-      </c>
-      <c r="I60" s="104" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="73.75" x14ac:dyDescent="0.75">
@@ -29356,13 +29356,13 @@
         <v>902</v>
       </c>
       <c r="G62" s="104" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H62" s="104" t="s">
         <v>1014</v>
       </c>
-      <c r="H62" s="104" t="s">
+      <c r="I62" s="104" t="s">
         <v>1015</v>
-      </c>
-      <c r="I62" s="104" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.75">
@@ -29592,13 +29592,13 @@
         <v>907</v>
       </c>
       <c r="G71" s="104" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H71" s="124" t="s">
         <v>1010</v>
       </c>
-      <c r="H71" s="124" t="s">
+      <c r="I71" s="104" t="s">
         <v>1011</v>
-      </c>
-      <c r="I71" s="104" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.75">
@@ -29650,13 +29650,13 @@
         <v>908</v>
       </c>
       <c r="G73" s="104" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H73" s="124" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I73" s="104" t="s">
         <v>1004</v>
-      </c>
-      <c r="I73" s="104" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.75">
@@ -29708,13 +29708,13 @@
         <v>909</v>
       </c>
       <c r="G75" s="104" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H75" s="124" t="s">
         <v>1003</v>
       </c>
-      <c r="H75" s="124" t="s">
+      <c r="I75" s="104" t="s">
         <v>1004</v>
-      </c>
-      <c r="I75" s="104" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="76" spans="1:19" ht="45" thickBot="1" x14ac:dyDescent="0.9">
@@ -29737,13 +29737,13 @@
         <v>907</v>
       </c>
       <c r="G76" s="104" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H76" s="124" t="s">
         <v>1006</v>
       </c>
-      <c r="H76" s="124" t="s">
+      <c r="I76" s="104" t="s">
         <v>1007</v>
-      </c>
-      <c r="I76" s="104" t="s">
-        <v>1008</v>
       </c>
       <c r="J76" s="130"/>
       <c r="K76" s="130"/>
@@ -30036,10 +30036,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" s="26" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.75">
@@ -30047,7 +30047,7 @@
         <v>913</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.75">
@@ -30055,7 +30055,7 @@
         <v>914</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
   </sheetData>
@@ -30115,7 +30115,7 @@
         <v>707.22600000000011</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="73.75" x14ac:dyDescent="0.75">
@@ -30134,12 +30134,12 @@
         <v>580.28800000000001</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A4" s="4" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B4" s="4">
         <v>2050</v>
@@ -30153,12 +30153,12 @@
         <v>275.26039978737401</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" s="125" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B7" s="126"/>
       <c r="C7" s="126"/>
@@ -30167,12 +30167,12 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" s="10" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" s="50" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
@@ -30180,12 +30180,12 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" s="10" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" s="10" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.75">
@@ -30193,22 +30193,22 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A14" s="10" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A15" s="10" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A16" s="10" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A17" s="10" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.75">
@@ -30216,12 +30216,12 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A19" s="10" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A20" s="10" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.75">
@@ -30229,7 +30229,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A22" s="10" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.75">
@@ -30237,22 +30237,22 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A24" s="10" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A25" s="10" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A26" s="10" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A27" s="10" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.75">
@@ -30260,27 +30260,27 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A29" s="10" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A30" s="10" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A31" s="10" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A32" s="10" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A33" s="10" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.75">
@@ -30288,32 +30288,32 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A35" s="10" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A36" s="10" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A37" s="10" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A38" s="10" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A39" s="10" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A40" s="10" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.75">
@@ -30321,12 +30321,12 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A42" s="10" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A43" s="10" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.75">
@@ -30334,17 +30334,17 @@
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A45" s="10" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A46" s="10" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A47" s="10" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.75">
@@ -30352,7 +30352,7 @@
     </row>
     <row r="49" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A49" s="14" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
@@ -30372,7 +30372,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A52" s="10" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -30381,7 +30381,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A53" s="10" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B53" s="18">
         <v>0.22</v>
@@ -30392,7 +30392,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A54" s="24" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B54" s="18">
         <v>0.36</v>
@@ -30410,7 +30410,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A56" s="10" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -30419,7 +30419,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A57" s="10" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B57" s="127">
         <f>A$50*(1-B53)</f>
@@ -30433,7 +30433,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A58" s="24" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B58" s="127">
         <f>A$50*(1-B54)</f>
@@ -30461,7 +30461,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A61" s="125" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B61" s="126"/>
       <c r="C61" s="126"/>
@@ -30470,7 +30470,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A62" s="10" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -30479,7 +30479,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A63" s="50" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -30495,7 +30495,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A65" s="24" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -30511,7 +30511,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A67" s="10" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -30520,7 +30520,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A68" s="10" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -30529,7 +30529,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A69" s="50" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -30545,7 +30545,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A71" s="10" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -30554,7 +30554,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A72" s="10" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -30563,7 +30563,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A73" s="10" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -30579,7 +30579,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A75" s="10" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -30591,7 +30591,7 @@
         <v>536410.97100000002</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
@@ -30606,7 +30606,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A78" s="10" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -30618,10 +30618,10 @@
         <v>-4278.9770122567843</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D79" s="10"/>
       <c r="E79" s="10"/>
@@ -30631,10 +30631,10 @@
         <v>10958.490077151</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D80" s="10"/>
       <c r="E80" s="10"/>
@@ -30644,10 +30644,10 @@
         <v>5602.3630383443797</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D81" s="10"/>
       <c r="E81" s="10"/>
@@ -30657,10 +30657,10 @@
         <v>171.63094871223001</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
@@ -30670,10 +30670,10 @@
         <v>1606.137033003313</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D83" s="10"/>
       <c r="E83" s="10"/>
@@ -30683,10 +30683,10 @@
         <v>50.184489793911389</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
@@ -30697,10 +30697,10 @@
         <v>14109.828574748051</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D85" s="10"/>
       <c r="E85" s="10"/>
@@ -30714,7 +30714,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A87" s="10" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -30727,7 +30727,7 @@
         <v>550520.79957474803</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
@@ -30754,7 +30754,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A91" s="10" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B91" s="18">
         <v>0.5</v>
@@ -30772,7 +30772,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A93" s="10" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B93" s="127">
         <f>A89*B91</f>
@@ -30833,22 +30833,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="161" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A19" s="10" t="s">
@@ -30864,13 +30864,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A21" s="160" t="s">
+      <c r="A21" s="161" t="s">
         <v>202</v>
       </c>
-      <c r="B21" s="160"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="160"/>
+      <c r="B21" s="161"/>
+      <c r="C21" s="161"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="161"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A38" s="10" t="s">
@@ -30886,13 +30886,13 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A40" s="160" t="s">
+      <c r="A40" s="161" t="s">
         <v>203</v>
       </c>
-      <c r="B40" s="160"/>
-      <c r="C40" s="160"/>
-      <c r="D40" s="160"/>
-      <c r="E40" s="160"/>
+      <c r="B40" s="161"/>
+      <c r="C40" s="161"/>
+      <c r="D40" s="161"/>
+      <c r="E40" s="161"/>
     </row>
     <row r="57" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A57" s="10" t="s">
@@ -30908,13 +30908,13 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A60" s="159" t="s">
+      <c r="A60" s="160" t="s">
         <v>205</v>
       </c>
-      <c r="B60" s="159"/>
-      <c r="C60" s="159"/>
-      <c r="D60" s="159"/>
-      <c r="E60" s="159"/>
+      <c r="B60" s="160"/>
+      <c r="C60" s="160"/>
+      <c r="D60" s="160"/>
+      <c r="E60" s="160"/>
     </row>
     <row r="85" spans="1:39" s="13" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A85" s="10" t="s">
@@ -31019,13 +31019,13 @@
       </c>
     </row>
     <row r="89" spans="1:39" x14ac:dyDescent="0.75">
-      <c r="A89" s="159" t="s">
+      <c r="A89" s="160" t="s">
         <v>206</v>
       </c>
-      <c r="B89" s="159"/>
-      <c r="C89" s="159"/>
-      <c r="D89" s="159"/>
-      <c r="E89" s="159"/>
+      <c r="B89" s="160"/>
+      <c r="C89" s="160"/>
+      <c r="D89" s="160"/>
+      <c r="E89" s="160"/>
     </row>
     <row r="90" spans="1:39" x14ac:dyDescent="0.75">
       <c r="A90" s="10">
@@ -31112,13 +31112,13 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A98" s="159" t="s">
+      <c r="A98" s="160" t="s">
         <v>207</v>
       </c>
-      <c r="B98" s="159"/>
-      <c r="C98" s="159"/>
-      <c r="D98" s="159"/>
-      <c r="E98" s="159"/>
+      <c r="B98" s="160"/>
+      <c r="C98" s="160"/>
+      <c r="D98" s="160"/>
+      <c r="E98" s="160"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A99" s="18">
@@ -31202,13 +31202,13 @@
       <c r="A108" s="21"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A109" s="159" t="s">
+      <c r="A109" s="160" t="s">
         <v>209</v>
       </c>
-      <c r="B109" s="159"/>
-      <c r="C109" s="159"/>
-      <c r="D109" s="159"/>
-      <c r="E109" s="159"/>
+      <c r="B109" s="160"/>
+      <c r="C109" s="160"/>
+      <c r="D109" s="160"/>
+      <c r="E109" s="160"/>
     </row>
     <row r="110" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
     <row r="111" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
@@ -31221,13 +31221,13 @@
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A113" s="159" t="s">
+      <c r="A113" s="160" t="s">
         <v>208</v>
       </c>
-      <c r="B113" s="159"/>
-      <c r="C113" s="159"/>
-      <c r="D113" s="159"/>
-      <c r="E113" s="159"/>
+      <c r="B113" s="160"/>
+      <c r="C113" s="160"/>
+      <c r="D113" s="160"/>
+      <c r="E113" s="160"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A114" s="18">
@@ -31308,13 +31308,13 @@
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A124" s="159" t="s">
+      <c r="A124" s="160" t="s">
         <v>494</v>
       </c>
-      <c r="B124" s="159"/>
-      <c r="C124" s="159"/>
-      <c r="D124" s="159"/>
-      <c r="E124" s="159"/>
+      <c r="B124" s="160"/>
+      <c r="C124" s="160"/>
+      <c r="D124" s="160"/>
+      <c r="E124" s="160"/>
       <c r="L124" s="22"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.75">
@@ -31405,13 +31405,13 @@
       <c r="C133" s="16"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A134" s="159" t="s">
+      <c r="A134" s="160" t="s">
         <v>118</v>
       </c>
-      <c r="B134" s="159"/>
-      <c r="C134" s="159"/>
-      <c r="D134" s="159"/>
-      <c r="E134" s="159"/>
+      <c r="B134" s="160"/>
+      <c r="C134" s="160"/>
+      <c r="D134" s="160"/>
+      <c r="E134" s="160"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A135" s="28" t="s">
@@ -31426,25 +31426,25 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A136" s="30"/>
-      <c r="B136" s="156" t="s">
+      <c r="B136" s="157" t="s">
         <v>514</v>
       </c>
-      <c r="C136" s="157"/>
-      <c r="D136" s="157"/>
-      <c r="E136" s="158"/>
+      <c r="C136" s="158"/>
+      <c r="D136" s="158"/>
+      <c r="E136" s="159"/>
       <c r="F136" s="29"/>
       <c r="G136" s="29"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A137" s="31"/>
-      <c r="B137" s="156" t="s">
+      <c r="B137" s="157" t="s">
         <v>515</v>
       </c>
-      <c r="C137" s="158"/>
-      <c r="D137" s="156" t="s">
+      <c r="C137" s="159"/>
+      <c r="D137" s="157" t="s">
         <v>516</v>
       </c>
-      <c r="E137" s="158"/>
+      <c r="E137" s="159"/>
       <c r="F137" s="29"/>
       <c r="G137" s="29"/>
     </row>
@@ -31991,13 +31991,13 @@
       <c r="G163" s="29"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A165" s="159" t="s">
+      <c r="A165" s="160" t="s">
         <v>212</v>
       </c>
-      <c r="B165" s="159"/>
-      <c r="C165" s="159"/>
-      <c r="D165" s="159"/>
-      <c r="E165" s="159"/>
+      <c r="B165" s="160"/>
+      <c r="C165" s="160"/>
+      <c r="D165" s="160"/>
+      <c r="E165" s="160"/>
     </row>
     <row r="166" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A166" s="24" t="s">
@@ -32020,10 +32020,10 @@
       <c r="B168" s="47"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A169" s="159" t="s">
+      <c r="A169" s="160" t="s">
         <v>502</v>
       </c>
-      <c r="B169" s="159"/>
+      <c r="B169" s="160"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A170" s="24" t="s">
@@ -32055,13 +32055,13 @@
       <c r="B173" s="47"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A174" s="159" t="s">
+      <c r="A174" s="160" t="s">
         <v>222</v>
       </c>
-      <c r="B174" s="159"/>
-      <c r="C174" s="159"/>
-      <c r="D174" s="159"/>
-      <c r="E174" s="159"/>
+      <c r="B174" s="160"/>
+      <c r="C174" s="160"/>
+      <c r="D174" s="160"/>
+      <c r="E174" s="160"/>
     </row>
     <row r="175" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A175" s="24" t="s">
@@ -32081,13 +32081,13 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A178" s="159" t="s">
+      <c r="A178" s="160" t="s">
         <v>215</v>
       </c>
-      <c r="B178" s="159"/>
-      <c r="C178" s="159"/>
-      <c r="D178" s="159"/>
-      <c r="E178" s="159"/>
+      <c r="B178" s="160"/>
+      <c r="C178" s="160"/>
+      <c r="D178" s="160"/>
+      <c r="E178" s="160"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A179" s="26" t="s">
@@ -32115,13 +32115,13 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A183" s="159" t="s">
+      <c r="A183" s="160" t="s">
         <v>217</v>
       </c>
-      <c r="B183" s="159"/>
-      <c r="C183" s="159"/>
-      <c r="D183" s="159"/>
-      <c r="E183" s="159"/>
+      <c r="B183" s="160"/>
+      <c r="C183" s="160"/>
+      <c r="D183" s="160"/>
+      <c r="E183" s="160"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A184" s="24" t="s">
@@ -32176,13 +32176,13 @@
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A191" s="159" t="s">
+      <c r="A191" s="160" t="s">
         <v>234</v>
       </c>
-      <c r="B191" s="159"/>
-      <c r="C191" s="159"/>
-      <c r="D191" s="159"/>
-      <c r="E191" s="159"/>
+      <c r="B191" s="160"/>
+      <c r="C191" s="160"/>
+      <c r="D191" s="160"/>
+      <c r="E191" s="160"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A192" s="22" t="s">
@@ -32289,7 +32289,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A1" s="121" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C1" s="120"/>
       <c r="D1" s="120">
@@ -32324,10 +32324,10 @@
       </c>
       <c r="N1" s="120"/>
       <c r="Q1" s="111" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="R1" s="111" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.8">
@@ -32367,19 +32367,19 @@
       </c>
       <c r="N2" s="120"/>
       <c r="O2" s="111" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="P2" s="111" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="Q2" s="111" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="R2" s="111" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="S2" s="111" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.8">
@@ -32387,7 +32387,7 @@
         <v>148</v>
       </c>
       <c r="B3" s="111" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C3" s="111">
         <v>29.63</v>
@@ -32439,13 +32439,13 @@
         <v>4.5302148271060272E-3</v>
       </c>
       <c r="S3" s="111" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A4" s="112"/>
       <c r="C4" s="111" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D4" s="111">
         <f t="shared" ref="D4:M4" si="0">D3/$C$3*100</f>
@@ -32496,7 +32496,7 @@
         <v>149</v>
       </c>
       <c r="B6" s="111" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C6" s="111">
         <v>2.1800000000000002</v>
@@ -32548,13 +32548,13 @@
         <v>0.19043628222971321</v>
       </c>
       <c r="S6" s="111" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A7" s="112"/>
       <c r="C7" s="111" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D7" s="111">
         <f t="shared" ref="D7:M7" si="1">D6/$C$3*100</f>
@@ -32612,32 +32612,32 @@
         <v>33</v>
       </c>
       <c r="B10" s="111" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C10" s="111" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D10" s="111">
         <v>181</v>
       </c>
       <c r="E10" s="111" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="I10" s="117" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A11" s="112"/>
       <c r="C11" s="111" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D11" s="115">
         <f>SUM(D14:P14)/1000</f>
         <v>157.92479931999998</v>
       </c>
       <c r="E11" s="111" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F11" s="116"/>
       <c r="G11" s="116">
@@ -32645,26 +32645,26 @@
         <v>104.23036755119999</v>
       </c>
       <c r="H11" s="111" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="I11" s="116">
         <f>G11*0.14</f>
         <v>14.592251457168</v>
       </c>
       <c r="J11" s="111" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A12" s="112"/>
       <c r="C12" s="111" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D12" s="115">
         <v>1600</v>
       </c>
       <c r="E12" s="111" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F12" s="114">
         <f>D10/(D12*0.8)</f>
@@ -32674,43 +32674,43 @@
     <row r="13" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A13" s="112"/>
       <c r="D13" s="111" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E13" s="111" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F13" s="111" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="G13" s="111" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H13" s="111" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="I13" s="111" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="J13" s="111" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="K13" s="111" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="L13" s="111" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="M13" s="111" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="N13" s="111" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="O13" s="111" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="P13" s="111" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.8">

--- a/WebAppData.xlsx
+++ b/WebAppData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swenzel\Dropbox (Energy Innovation)\My PC (energy044)\Documents\GitHub_Repositories\eps-mexico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A79ECF-1FA7-40E2-9107-8B7651639062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8F1F3F-F563-4447-9752-A2448CB5BE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12600" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="846" activeTab="1" xr2:uid="{7F8E5A4A-C51A-49F4-869D-101A5B79EC05}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="9765" tabRatio="846" activeTab="1" xr2:uid="{7F8E5A4A-C51A-49F4-869D-101A5B79EC05}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="10" r:id="rId1"/>
@@ -3820,9 +3820,6 @@
     <t>**Description:** This policy is a subsidy paid by the government to suppliers of electricity per unit of electricity generated from the selected plant type(s).</t>
   </si>
   <si>
-    <t>**Description:** This policy specifies an increase in the fraction of potential electricity generation that must come from qualifying renewable sources (hydro, wind, solar, and biomass) in 2050.  This policy adds to BAU renewable portfolio standards, which have been enacted at the State level as a generation-weighted national average. // **Guidance for setting values:** Mexico's Energy Transition Act (2015) establishes a 35% clean energy target by 2035.</t>
-  </si>
-  <si>
     <t>**Description:** This policy specifies a reduction in soft costs (costs for things other than capital equipment) for new plants of the selected type(s), such as the costs of permitting, financing, project management, assembly, etc. // **Guidance for setting values:** Costs of permitting and financing can be reduced by streamlining permitting processes, but some soft costs (such as labor) may be difficult to reduce via policy.  A value of 50% would be an aggressive soft cost reduction.</t>
   </si>
   <si>
@@ -3872,6 +3869,9 @@
   </si>
   <si>
     <t>**Description:** This policy causes the specified quantity of otherwise non-retiring coal capacity to be retired each year. // **Guidance for setting values:** // **Hard Coal:** PRODESEN's schedule has 1400 MW of coal capacity retirement in 2029-2030. Additional retirement projects up to 2800 MW retired by 2050 in the reference scenario. An "Accelerated Coal Retirement" policy should not exceed existing coal capacity (5387MW) plus any added by the model.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy specifies an increase in the fraction of potential electricity generation that must come from qualifying renewable sources (wind, solar, and biomass) in 2050.  This policy adds to BAU renewable portfolio standards, which have been enacted at the State level as a generation-weighted national average. // **Guidance for setting values:** Mexico's Energy Transition Act (2015) establishes a 35% clean energy target by 2035.</t>
   </si>
 </sst>
 </file>
@@ -4904,6 +4904,9 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4912,9 +4915,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5806,26 +5806,27 @@
   </sheetPr>
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F23" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="13.54296875" style="99" customWidth="1"/>
     <col min="2" max="2" width="18.2265625" style="99" customWidth="1"/>
-    <col min="3" max="5" width="20.1796875" style="99" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" style="99" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" style="99" customWidth="1"/>
-    <col min="8" max="8" width="8.6328125" style="99" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" style="99" customWidth="1"/>
-    <col min="10" max="10" width="153.26953125" style="99" customWidth="1"/>
+    <col min="3" max="4" width="20.1796875" style="99" customWidth="1"/>
+    <col min="5" max="5" width="20.1796875" style="99" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" style="99" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" style="99" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6328125" style="99" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" style="99" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="64.1796875" style="99" customWidth="1"/>
     <col min="11" max="16384" width="8.7265625" style="99"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A1" s="147" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B1" s="145"/>
       <c r="C1" s="145"/>
@@ -5839,7 +5840,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A2" s="146" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B2" s="145"/>
       <c r="C2" s="145"/>
@@ -5883,7 +5884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -5912,10 +5913,10 @@
         <v>990</v>
       </c>
       <c r="J4" s="148" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.75">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A5" s="138" t="s">
         <v>4</v>
       </c>
@@ -5947,7 +5948,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="76" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A6" s="138" t="s">
         <v>4</v>
       </c>
@@ -5976,10 +5977,10 @@
         <v>600</v>
       </c>
       <c r="J6" s="148" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A7" s="138" t="s">
         <v>4</v>
       </c>
@@ -6008,10 +6009,10 @@
         <v>587</v>
       </c>
       <c r="J7" s="148" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="54.25" customHeight="1" x14ac:dyDescent="0.75">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A8" s="135" t="s">
         <v>4</v>
       </c>
@@ -6043,7 +6044,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="117.25" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A9" s="135" t="s">
         <v>4</v>
       </c>
@@ -6073,10 +6074,10 @@
         <v>131</v>
       </c>
       <c r="J9" s="148" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="41" customHeight="1" x14ac:dyDescent="0.75">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A10" s="138" t="s">
         <v>4</v>
       </c>
@@ -6108,7 +6109,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="87.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A11" s="135" t="s">
         <v>4</v>
       </c>
@@ -6137,10 +6138,10 @@
         <v>45</v>
       </c>
       <c r="J11" s="148" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="73.75" customHeight="1" x14ac:dyDescent="0.75">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A12" s="135" t="s">
         <v>85</v>
       </c>
@@ -6169,10 +6170,10 @@
         <v>133</v>
       </c>
       <c r="J12" s="148" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="76.75" customHeight="1" x14ac:dyDescent="0.75">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A13" s="135" t="s">
         <v>85</v>
       </c>
@@ -6202,10 +6203,10 @@
         <v>39</v>
       </c>
       <c r="J13" s="148" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="43" customHeight="1" x14ac:dyDescent="0.75">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A14" s="135" t="s">
         <v>85</v>
       </c>
@@ -6237,7 +6238,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A15" s="135" t="s">
         <v>85</v>
       </c>
@@ -6270,7 +6271,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="49.25" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A16" s="135" t="s">
         <v>85</v>
       </c>
@@ -6302,7 +6303,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A17" s="135" t="s">
         <v>85</v>
       </c>
@@ -6334,7 +6335,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="119.25" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A18" s="135" t="s">
         <v>85</v>
       </c>
@@ -6364,10 +6365,10 @@
         <v>44</v>
       </c>
       <c r="J18" s="148" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A19" s="135" t="s">
         <v>85</v>
       </c>
@@ -6396,10 +6397,10 @@
         <v>36</v>
       </c>
       <c r="J19" s="148" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A20" s="138" t="s">
         <v>8</v>
       </c>
@@ -6428,10 +6429,10 @@
         <v>36</v>
       </c>
       <c r="J20" s="148" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="51.25" customHeight="1" x14ac:dyDescent="0.75">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A21" s="138" t="s">
         <v>8</v>
       </c>
@@ -6460,10 +6461,10 @@
         <v>339</v>
       </c>
       <c r="J21" s="148" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A22" s="138" t="s">
         <v>8</v>
       </c>
@@ -6492,10 +6493,10 @@
         <v>340</v>
       </c>
       <c r="J22" s="148" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A23" s="135" t="s">
         <v>8</v>
       </c>
@@ -6517,7 +6518,7 @@
       <c r="I23" s="135"/>
       <c r="J23" s="148"/>
     </row>
-    <row r="24" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A24" s="135" t="s">
         <v>8</v>
       </c>
@@ -6549,7 +6550,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="61" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A25" s="135" t="s">
         <v>8</v>
       </c>
@@ -6578,10 +6579,10 @@
         <v>237</v>
       </c>
       <c r="J25" s="148" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A26" s="135" t="s">
         <v>8</v>
       </c>
@@ -6613,7 +6614,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A27" s="135" t="s">
         <v>8</v>
       </c>
@@ -6646,7 +6647,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A28" s="135" t="s">
         <v>8</v>
       </c>
@@ -6666,7 +6667,7 @@
       <c r="I28" s="135"/>
       <c r="J28" s="148"/>
     </row>
-    <row r="29" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A29" s="135" t="s">
         <v>8</v>
       </c>
@@ -6688,7 +6689,7 @@
       <c r="I29" s="135"/>
       <c r="J29" s="148"/>
     </row>
-    <row r="30" spans="1:10" ht="64.25" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A30" s="135" t="s">
         <v>8</v>
       </c>
@@ -6718,7 +6719,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="162.25" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A31" s="138" t="s">
         <v>8</v>
       </c>
@@ -6747,10 +6748,10 @@
         <v>322</v>
       </c>
       <c r="J31" s="148" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.75">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A32" s="138" t="s">
         <v>8</v>
       </c>
@@ -6779,10 +6780,10 @@
         <v>774</v>
       </c>
       <c r="J32" s="149" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="71.5" customHeight="1" x14ac:dyDescent="0.75">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A33" s="138" t="s">
         <v>8</v>
       </c>
@@ -6814,7 +6815,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A34" s="135" t="s">
         <v>8</v>
       </c>
@@ -6844,10 +6845,10 @@
         <v>43</v>
       </c>
       <c r="J34" s="148" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A35" s="135" t="s">
         <v>8</v>
       </c>
@@ -6879,7 +6880,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A36" s="135" t="s">
         <v>9</v>
       </c>
@@ -6911,7 +6912,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="63.25" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A37" s="135" t="s">
         <v>9</v>
       </c>
@@ -6943,7 +6944,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A38" s="135" t="s">
         <v>9</v>
       </c>
@@ -6975,7 +6976,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="69.25" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A39" s="135" t="s">
         <v>9</v>
       </c>
@@ -7008,7 +7009,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="34" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A40" s="135" t="s">
         <v>9</v>
       </c>
@@ -7040,7 +7041,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A41" s="135" t="s">
         <v>9</v>
       </c>
@@ -7072,7 +7073,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="76" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A42" s="135" t="s">
         <v>9</v>
       </c>
@@ -7104,7 +7105,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="65.900000000000006" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A43" s="135" t="s">
         <v>9</v>
       </c>
@@ -7136,7 +7137,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A44" s="135" t="s">
         <v>9</v>
       </c>
@@ -7168,7 +7169,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A45" s="135" t="s">
         <v>9</v>
       </c>
@@ -7200,7 +7201,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A46" s="135" t="s">
         <v>9</v>
       </c>
@@ -7232,7 +7233,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A47" s="135" t="s">
         <v>170</v>
       </c>
@@ -7264,7 +7265,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A48" s="135" t="s">
         <v>170</v>
       </c>
@@ -7286,7 +7287,7 @@
       <c r="I48" s="135"/>
       <c r="J48" s="148"/>
     </row>
-    <row r="49" spans="1:10" ht="93.25" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A49" s="135" t="s">
         <v>170</v>
       </c>
@@ -7308,7 +7309,7 @@
       <c r="I49" s="135"/>
       <c r="J49" s="148"/>
     </row>
-    <row r="50" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A50" s="135" t="s">
         <v>170</v>
       </c>
@@ -7340,7 +7341,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="48.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A51" s="135" t="s">
         <v>170</v>
       </c>
@@ -7372,7 +7373,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="46.25" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A52" s="135" t="s">
         <v>170</v>
       </c>
@@ -7404,7 +7405,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A53" s="135" t="s">
         <v>170</v>
       </c>
@@ -7436,7 +7437,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="53.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A54" s="135" t="s">
         <v>170</v>
       </c>
@@ -7458,7 +7459,7 @@
       <c r="I54" s="135"/>
       <c r="J54" s="148"/>
     </row>
-    <row r="55" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A55" s="135" t="s">
         <v>170</v>
       </c>
@@ -7490,7 +7491,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A56" s="138" t="s">
         <v>447</v>
       </c>
@@ -7522,7 +7523,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="41" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A57" s="138" t="s">
         <v>447</v>
       </c>
@@ -7554,7 +7555,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A58" s="135" t="s">
         <v>10</v>
       </c>
@@ -7586,7 +7587,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A59" s="135" t="s">
         <v>10</v>
       </c>
@@ -7618,7 +7619,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A60" s="135" t="s">
         <v>10</v>
       </c>
@@ -7650,7 +7651,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A61" s="138" t="s">
         <v>10</v>
       </c>
@@ -7672,7 +7673,7 @@
       <c r="I61" s="138"/>
       <c r="J61" s="149"/>
     </row>
-    <row r="62" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A62" s="135" t="s">
         <v>10</v>
       </c>
@@ -7704,7 +7705,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="95.25" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A63" s="135" t="s">
         <v>33</v>
       </c>
@@ -7736,7 +7737,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A64" s="135" t="s">
         <v>33</v>
       </c>
@@ -7768,7 +7769,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A65" s="135" t="s">
         <v>33</v>
       </c>
@@ -7800,7 +7801,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A66" s="135" t="s">
         <v>33</v>
       </c>
@@ -7832,7 +7833,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="47.4" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A67" s="135" t="s">
         <v>33</v>
       </c>
@@ -7864,7 +7865,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A68" s="135" t="s">
         <v>33</v>
       </c>
@@ -7896,7 +7897,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="43" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A69" s="135" t="s">
         <v>33</v>
       </c>
@@ -7928,7 +7929,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="46.25" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A70" s="135" t="s">
         <v>33</v>
       </c>
@@ -7960,7 +7961,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A71" s="135" t="s">
         <v>33</v>
       </c>
@@ -7992,7 +7993,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A72" s="135" t="s">
         <v>33</v>
       </c>
@@ -8024,7 +8025,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -8036,7 +8037,7 @@
       <c r="I73" s="135"/>
       <c r="J73" s="135"/>
     </row>
-    <row r="74" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -8048,7 +8049,7 @@
       <c r="I74" s="138"/>
       <c r="J74" s="135"/>
     </row>
-    <row r="75" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -8060,7 +8061,7 @@
       <c r="I75" s="138"/>
       <c r="J75" s="135"/>
     </row>
-    <row r="76" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -8072,7 +8073,7 @@
       <c r="I76" s="135"/>
       <c r="J76" s="135"/>
     </row>
-    <row r="77" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A77" s="135"/>
       <c r="B77" s="135"/>
       <c r="C77" s="135"/>
@@ -8084,7 +8085,7 @@
       <c r="I77" s="135"/>
       <c r="J77" s="135"/>
     </row>
-    <row r="78" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A78" s="135"/>
       <c r="B78" s="135"/>
       <c r="C78" s="135"/>
@@ -8096,7 +8097,7 @@
       <c r="I78" s="135"/>
       <c r="J78" s="135"/>
     </row>
-    <row r="79" spans="1:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A79" s="135"/>
       <c r="B79" s="135"/>
       <c r="C79" s="138"/>
@@ -8108,7 +8109,7 @@
       <c r="I79" s="135"/>
       <c r="J79" s="135"/>
     </row>
-    <row r="80" spans="1:10" ht="91.25" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A80" s="135"/>
       <c r="B80" s="135"/>
       <c r="C80" s="138"/>
@@ -8369,8 +8370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U333"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+    <sheetView topLeftCell="G181" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N183" sqref="N183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -18807,7 +18808,7 @@
       </c>
       <c r="P183" s="156" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C183,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy specifies an increase in the fraction of potential electricity generation that must come from qualifying renewable sources (hydro, wind, solar, and biomass) in 2050.  This policy adds to BAU renewable portfolio standards, which have been enacted at the State level as a generation-weighted national average. // **Guidance for setting values:** Mexico's Energy Transition Act (2015) establishes a 35% clean energy target by 2035.</v>
+        <v>**Description:** This policy specifies an increase in the fraction of potential electricity generation that must come from qualifying renewable sources (wind, solar, and biomass) in 2050.  This policy adds to BAU renewable portfolio standards, which have been enacted at the State level as a generation-weighted national average. // **Guidance for setting values:** Mexico's Energy Transition Act (2015) establishes a 35% clean energy target by 2035.</v>
       </c>
       <c r="Q183" s="56" t="s">
         <v>268</v>
@@ -30833,13 +30834,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" s="161" t="s">
@@ -30908,13 +30909,13 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A60" s="160" t="s">
+      <c r="A60" s="157" t="s">
         <v>205</v>
       </c>
-      <c r="B60" s="160"/>
-      <c r="C60" s="160"/>
-      <c r="D60" s="160"/>
-      <c r="E60" s="160"/>
+      <c r="B60" s="157"/>
+      <c r="C60" s="157"/>
+      <c r="D60" s="157"/>
+      <c r="E60" s="157"/>
     </row>
     <row r="85" spans="1:39" s="13" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A85" s="10" t="s">
@@ -31019,13 +31020,13 @@
       </c>
     </row>
     <row r="89" spans="1:39" x14ac:dyDescent="0.75">
-      <c r="A89" s="160" t="s">
+      <c r="A89" s="157" t="s">
         <v>206</v>
       </c>
-      <c r="B89" s="160"/>
-      <c r="C89" s="160"/>
-      <c r="D89" s="160"/>
-      <c r="E89" s="160"/>
+      <c r="B89" s="157"/>
+      <c r="C89" s="157"/>
+      <c r="D89" s="157"/>
+      <c r="E89" s="157"/>
     </row>
     <row r="90" spans="1:39" x14ac:dyDescent="0.75">
       <c r="A90" s="10">
@@ -31112,13 +31113,13 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A98" s="160" t="s">
+      <c r="A98" s="157" t="s">
         <v>207</v>
       </c>
-      <c r="B98" s="160"/>
-      <c r="C98" s="160"/>
-      <c r="D98" s="160"/>
-      <c r="E98" s="160"/>
+      <c r="B98" s="157"/>
+      <c r="C98" s="157"/>
+      <c r="D98" s="157"/>
+      <c r="E98" s="157"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A99" s="18">
@@ -31202,13 +31203,13 @@
       <c r="A108" s="21"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A109" s="160" t="s">
+      <c r="A109" s="157" t="s">
         <v>209</v>
       </c>
-      <c r="B109" s="160"/>
-      <c r="C109" s="160"/>
-      <c r="D109" s="160"/>
-      <c r="E109" s="160"/>
+      <c r="B109" s="157"/>
+      <c r="C109" s="157"/>
+      <c r="D109" s="157"/>
+      <c r="E109" s="157"/>
     </row>
     <row r="110" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
     <row r="111" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
@@ -31221,13 +31222,13 @@
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A113" s="160" t="s">
+      <c r="A113" s="157" t="s">
         <v>208</v>
       </c>
-      <c r="B113" s="160"/>
-      <c r="C113" s="160"/>
-      <c r="D113" s="160"/>
-      <c r="E113" s="160"/>
+      <c r="B113" s="157"/>
+      <c r="C113" s="157"/>
+      <c r="D113" s="157"/>
+      <c r="E113" s="157"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A114" s="18">
@@ -31308,13 +31309,13 @@
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A124" s="160" t="s">
+      <c r="A124" s="157" t="s">
         <v>494</v>
       </c>
-      <c r="B124" s="160"/>
-      <c r="C124" s="160"/>
-      <c r="D124" s="160"/>
-      <c r="E124" s="160"/>
+      <c r="B124" s="157"/>
+      <c r="C124" s="157"/>
+      <c r="D124" s="157"/>
+      <c r="E124" s="157"/>
       <c r="L124" s="22"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.75">
@@ -31405,13 +31406,13 @@
       <c r="C133" s="16"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A134" s="160" t="s">
+      <c r="A134" s="157" t="s">
         <v>118</v>
       </c>
-      <c r="B134" s="160"/>
-      <c r="C134" s="160"/>
-      <c r="D134" s="160"/>
-      <c r="E134" s="160"/>
+      <c r="B134" s="157"/>
+      <c r="C134" s="157"/>
+      <c r="D134" s="157"/>
+      <c r="E134" s="157"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A135" s="28" t="s">
@@ -31426,25 +31427,25 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A136" s="30"/>
-      <c r="B136" s="157" t="s">
+      <c r="B136" s="158" t="s">
         <v>514</v>
       </c>
-      <c r="C136" s="158"/>
-      <c r="D136" s="158"/>
-      <c r="E136" s="159"/>
+      <c r="C136" s="159"/>
+      <c r="D136" s="159"/>
+      <c r="E136" s="160"/>
       <c r="F136" s="29"/>
       <c r="G136" s="29"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A137" s="31"/>
-      <c r="B137" s="157" t="s">
+      <c r="B137" s="158" t="s">
         <v>515</v>
       </c>
-      <c r="C137" s="159"/>
-      <c r="D137" s="157" t="s">
+      <c r="C137" s="160"/>
+      <c r="D137" s="158" t="s">
         <v>516</v>
       </c>
-      <c r="E137" s="159"/>
+      <c r="E137" s="160"/>
       <c r="F137" s="29"/>
       <c r="G137" s="29"/>
     </row>
@@ -31991,13 +31992,13 @@
       <c r="G163" s="29"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A165" s="160" t="s">
+      <c r="A165" s="157" t="s">
         <v>212</v>
       </c>
-      <c r="B165" s="160"/>
-      <c r="C165" s="160"/>
-      <c r="D165" s="160"/>
-      <c r="E165" s="160"/>
+      <c r="B165" s="157"/>
+      <c r="C165" s="157"/>
+      <c r="D165" s="157"/>
+      <c r="E165" s="157"/>
     </row>
     <row r="166" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A166" s="24" t="s">
@@ -32020,10 +32021,10 @@
       <c r="B168" s="47"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A169" s="160" t="s">
+      <c r="A169" s="157" t="s">
         <v>502</v>
       </c>
-      <c r="B169" s="160"/>
+      <c r="B169" s="157"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A170" s="24" t="s">
@@ -32055,13 +32056,13 @@
       <c r="B173" s="47"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A174" s="160" t="s">
+      <c r="A174" s="157" t="s">
         <v>222</v>
       </c>
-      <c r="B174" s="160"/>
-      <c r="C174" s="160"/>
-      <c r="D174" s="160"/>
-      <c r="E174" s="160"/>
+      <c r="B174" s="157"/>
+      <c r="C174" s="157"/>
+      <c r="D174" s="157"/>
+      <c r="E174" s="157"/>
     </row>
     <row r="175" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A175" s="24" t="s">
@@ -32081,13 +32082,13 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A178" s="160" t="s">
+      <c r="A178" s="157" t="s">
         <v>215</v>
       </c>
-      <c r="B178" s="160"/>
-      <c r="C178" s="160"/>
-      <c r="D178" s="160"/>
-      <c r="E178" s="160"/>
+      <c r="B178" s="157"/>
+      <c r="C178" s="157"/>
+      <c r="D178" s="157"/>
+      <c r="E178" s="157"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A179" s="26" t="s">
@@ -32115,13 +32116,13 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A183" s="160" t="s">
+      <c r="A183" s="157" t="s">
         <v>217</v>
       </c>
-      <c r="B183" s="160"/>
-      <c r="C183" s="160"/>
-      <c r="D183" s="160"/>
-      <c r="E183" s="160"/>
+      <c r="B183" s="157"/>
+      <c r="C183" s="157"/>
+      <c r="D183" s="157"/>
+      <c r="E183" s="157"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A184" s="24" t="s">
@@ -32176,13 +32177,13 @@
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A191" s="160" t="s">
+      <c r="A191" s="157" t="s">
         <v>234</v>
       </c>
-      <c r="B191" s="160"/>
-      <c r="C191" s="160"/>
-      <c r="D191" s="160"/>
-      <c r="E191" s="160"/>
+      <c r="B191" s="157"/>
+      <c r="C191" s="157"/>
+      <c r="D191" s="157"/>
+      <c r="E191" s="157"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A192" s="22" t="s">
@@ -32242,12 +32243,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A191:E191"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="A169:B169"/>
     <mergeCell ref="B136:E136"/>
     <mergeCell ref="B137:C137"/>
     <mergeCell ref="D137:E137"/>
@@ -32262,6 +32257,12 @@
     <mergeCell ref="A113:E113"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A191:E191"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="A169:B169"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
